--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931407190597485</v>
+        <v>0.9931407190597462</v>
       </c>
       <c r="D2">
-        <v>1.012049107309898</v>
+        <v>1.012049107309897</v>
       </c>
       <c r="E2">
-        <v>1.001363349746629</v>
+        <v>1.001363349746627</v>
       </c>
       <c r="F2">
-        <v>1.001251038049036</v>
+        <v>1.001251038049034</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04167702338099</v>
+        <v>1.041677023380989</v>
       </c>
       <c r="J2">
-        <v>1.015528543673715</v>
+        <v>1.015528543673713</v>
       </c>
       <c r="K2">
-        <v>1.023343092847603</v>
+        <v>1.023343092847602</v>
       </c>
       <c r="L2">
-        <v>1.012803723563581</v>
+        <v>1.012803723563579</v>
       </c>
       <c r="M2">
-        <v>1.012692971396914</v>
+        <v>1.012692971396912</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001162749977162</v>
+        <v>1.001162749977161</v>
       </c>
       <c r="D3">
-        <v>1.018080304195284</v>
+        <v>1.018080304195283</v>
       </c>
       <c r="E3">
         <v>1.00885184468795</v>
       </c>
       <c r="F3">
-        <v>1.009599044626869</v>
+        <v>1.009599044626868</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.021621767366262</v>
       </c>
       <c r="K3">
-        <v>1.028486954953454</v>
+        <v>1.028486954953453</v>
       </c>
       <c r="L3">
         <v>1.019372703638438</v>
       </c>
       <c r="M3">
-        <v>1.020110559681071</v>
+        <v>1.02011055968107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,7 +500,7 @@
         <v>1.006179365808836</v>
       </c>
       <c r="D4">
-        <v>1.021853881156787</v>
+        <v>1.021853881156786</v>
       </c>
       <c r="E4">
         <v>1.013540601336815</v>
@@ -541,10 +541,10 @@
         <v>1.023411206746458</v>
       </c>
       <c r="E5">
-        <v>1.015476505840345</v>
+        <v>1.015476505840344</v>
       </c>
       <c r="F5">
-        <v>1.016982388401021</v>
+        <v>1.01698238840102</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.025171654697806</v>
       </c>
       <c r="M5">
-        <v>1.026660509684947</v>
+        <v>1.026660509684946</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>1.008594550005965</v>
       </c>
       <c r="D6">
-        <v>1.02367103213748</v>
+        <v>1.023671032137479</v>
       </c>
       <c r="E6">
-        <v>1.015799548290768</v>
+        <v>1.015799548290767</v>
       </c>
       <c r="F6">
         <v>1.017342397789629</v>
@@ -594,13 +594,13 @@
         <v>1.027256151784825</v>
       </c>
       <c r="K6">
-        <v>1.033237724322339</v>
+        <v>1.033237724322338</v>
       </c>
       <c r="L6">
-        <v>1.025454117666323</v>
+        <v>1.025454117666322</v>
       </c>
       <c r="M6">
-        <v>1.026979610864945</v>
+        <v>1.026979610864944</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006207173959582</v>
+        <v>1.00620717395958</v>
       </c>
       <c r="D7">
-        <v>1.021874802252097</v>
+        <v>1.021874802252096</v>
       </c>
       <c r="E7">
-        <v>1.013566604624475</v>
+        <v>1.013566604624474</v>
       </c>
       <c r="F7">
-        <v>1.014853881894344</v>
+        <v>1.014853881894343</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046631159283057</v>
+        <v>1.046631159283056</v>
       </c>
       <c r="J7">
-        <v>1.025447388309281</v>
+        <v>1.025447388309279</v>
       </c>
       <c r="K7">
-        <v>1.03171328070498</v>
+        <v>1.031713280704979</v>
       </c>
       <c r="L7">
-        <v>1.02350105691005</v>
+        <v>1.023501056910048</v>
       </c>
       <c r="M7">
-        <v>1.024773336756079</v>
+        <v>1.024773336756078</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958895005157152</v>
+        <v>0.995889500515717</v>
       </c>
       <c r="D8">
-        <v>1.014115229749036</v>
+        <v>1.014115229749038</v>
       </c>
       <c r="E8">
-        <v>1.003928037778512</v>
+        <v>1.003928037778513</v>
       </c>
       <c r="F8">
-        <v>1.004110370431573</v>
+        <v>1.004110370431574</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.042725627460398</v>
       </c>
       <c r="J8">
-        <v>1.017617615275784</v>
+        <v>1.017617615275786</v>
       </c>
       <c r="K8">
-        <v>1.025107336449575</v>
+        <v>1.025107336449577</v>
       </c>
       <c r="L8">
-        <v>1.01505506289849</v>
+        <v>1.015055062898492</v>
       </c>
       <c r="M8">
-        <v>1.015234950523871</v>
+        <v>1.015234950523873</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762435762476684</v>
+        <v>0.9762435762476706</v>
       </c>
       <c r="D9">
-        <v>0.9993627663517681</v>
+        <v>0.9993627663517698</v>
       </c>
       <c r="E9">
-        <v>0.9856267764733259</v>
+        <v>0.985626776473328</v>
       </c>
       <c r="F9">
-        <v>0.9836982037601194</v>
+        <v>0.9836982037601214</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035167642917466</v>
+        <v>1.035167642917467</v>
       </c>
       <c r="J9">
-        <v>1.002664056807397</v>
+        <v>1.002664056807399</v>
       </c>
       <c r="K9">
-        <v>1.012466190694793</v>
+        <v>1.012466190694795</v>
       </c>
       <c r="L9">
-        <v>0.998957434730149</v>
+        <v>0.9989574347301514</v>
       </c>
       <c r="M9">
-        <v>0.9970614219083441</v>
+        <v>0.9970614219083461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.961950102660603</v>
+        <v>0.9619501026606035</v>
       </c>
       <c r="D10">
-        <v>0.9886557882312114</v>
+        <v>0.9886557882312119</v>
       </c>
       <c r="E10">
-        <v>0.9723536866968054</v>
+        <v>0.9723536866968057</v>
       </c>
       <c r="F10">
-        <v>0.9688784585790898</v>
+        <v>0.9688784585790902</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029590662277672</v>
       </c>
       <c r="J10">
-        <v>0.9917591614697934</v>
+        <v>0.9917591614697937</v>
       </c>
       <c r="K10">
         <v>1.003232931910396</v>
       </c>
       <c r="L10">
-        <v>0.9872407130326432</v>
+        <v>0.9872407130326434</v>
       </c>
       <c r="M10">
-        <v>0.9838333145659057</v>
+        <v>0.9838333145659061</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9554196742373527</v>
+        <v>0.955419674237354</v>
       </c>
       <c r="D11">
-        <v>0.9837730570984986</v>
+        <v>0.9837730570984997</v>
       </c>
       <c r="E11">
-        <v>0.9663012693135269</v>
+        <v>0.9663012693135283</v>
       </c>
       <c r="F11">
-        <v>0.9621151718035301</v>
+        <v>0.9621151718035309</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027025347102926</v>
+        <v>1.027025347102927</v>
       </c>
       <c r="J11">
-        <v>0.9867722906383504</v>
+        <v>0.9867722906383516</v>
       </c>
       <c r="K11">
-        <v>0.9990076180644955</v>
+        <v>0.9990076180644967</v>
       </c>
       <c r="L11">
-        <v>0.98188796074895</v>
+        <v>0.9818879607489512</v>
       </c>
       <c r="M11">
-        <v>0.9777887415500716</v>
+        <v>0.9777887415500723</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529368442508998</v>
+        <v>0.9529368442509007</v>
       </c>
       <c r="D12">
-        <v>0.9819183197595708</v>
+        <v>0.9819183197595717</v>
       </c>
       <c r="E12">
-        <v>0.9640021319456292</v>
+        <v>0.96400213194563</v>
       </c>
       <c r="F12">
-        <v>0.9595449641705084</v>
+        <v>0.9595449641705094</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026047557529168</v>
       </c>
       <c r="J12">
-        <v>0.9848757578706292</v>
+        <v>0.98487575787063</v>
       </c>
       <c r="K12">
-        <v>0.9974003332698472</v>
+        <v>0.997400333269848</v>
       </c>
       <c r="L12">
-        <v>0.9798530915638964</v>
+        <v>0.9798530915638971</v>
       </c>
       <c r="M12">
-        <v>0.9754905465589865</v>
+        <v>0.9754905465589875</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9534721101035482</v>
+        <v>0.953472110103548</v>
       </c>
       <c r="D13">
         <v>0.9823180977603018</v>
       </c>
       <c r="E13">
-        <v>0.9644977046958413</v>
+        <v>0.9644977046958416</v>
       </c>
       <c r="F13">
-        <v>0.9600990152514073</v>
+        <v>0.9600990152514075</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026258465529445</v>
       </c>
       <c r="J13">
-        <v>0.9852846482014552</v>
+        <v>0.9852846482014551</v>
       </c>
       <c r="K13">
         <v>0.9977468780110891</v>
       </c>
       <c r="L13">
-        <v>0.9802917704712631</v>
+        <v>0.9802917704712634</v>
       </c>
       <c r="M13">
-        <v>0.9759860104512553</v>
+        <v>0.9759860104512558</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9552156457051685</v>
+        <v>0.9552156457051706</v>
       </c>
       <c r="D14">
-        <v>0.9836206074613038</v>
+        <v>0.9836206074613055</v>
       </c>
       <c r="E14">
-        <v>0.9661122951464092</v>
+        <v>0.9661122951464114</v>
       </c>
       <c r="F14">
-        <v>0.9619039395037559</v>
+        <v>0.961903939503758</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026945045734124</v>
+        <v>1.026945045734125</v>
       </c>
       <c r="J14">
-        <v>0.9866164518927739</v>
+        <v>0.9866164518927758</v>
       </c>
       <c r="K14">
-        <v>0.9988755541773057</v>
+        <v>0.9988755541773074</v>
       </c>
       <c r="L14">
-        <v>0.9817207384281232</v>
+        <v>0.9817207384281256</v>
       </c>
       <c r="M14">
-        <v>0.977599886947058</v>
+        <v>0.9775998869470601</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9562821323457181</v>
+        <v>0.9562821323457166</v>
       </c>
       <c r="D15">
-        <v>0.984417552377339</v>
+        <v>0.9844175523773374</v>
       </c>
       <c r="E15">
-        <v>0.9671001709103848</v>
+        <v>0.9671001709103834</v>
       </c>
       <c r="F15">
-        <v>0.9630081281624482</v>
+        <v>0.9630081281624464</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027364693114176</v>
+        <v>1.027364693114175</v>
       </c>
       <c r="J15">
-        <v>0.9874310219526243</v>
+        <v>0.9874310219526228</v>
       </c>
       <c r="K15">
-        <v>0.9995658380196856</v>
+        <v>0.9995658380196841</v>
       </c>
       <c r="L15">
-        <v>0.9825948433876104</v>
+        <v>0.9825948433876091</v>
       </c>
       <c r="M15">
-        <v>0.9785870541541949</v>
+        <v>0.9785870541541932</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9623758361126054</v>
+        <v>0.9623758361126042</v>
       </c>
       <c r="D16">
-        <v>0.9889743146971376</v>
+        <v>0.9889743146971363</v>
       </c>
       <c r="E16">
-        <v>0.9727485155897606</v>
+        <v>0.9727485155897594</v>
       </c>
       <c r="F16">
-        <v>0.9693195301124886</v>
+        <v>0.9693195301124873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029757554750994</v>
+        <v>1.029757554750993</v>
       </c>
       <c r="J16">
-        <v>0.992084182927738</v>
+        <v>0.9920841829277367</v>
       </c>
       <c r="K16">
-        <v>1.003508263701324</v>
+        <v>1.003508263701323</v>
       </c>
       <c r="L16">
-        <v>0.9875896918917351</v>
+        <v>0.9875896918917342</v>
       </c>
       <c r="M16">
-        <v>0.9842273596417734</v>
+        <v>0.9842273596417721</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9661030344191287</v>
+        <v>0.9661030344191277</v>
       </c>
       <c r="D17">
-        <v>0.9917639909086456</v>
+        <v>0.9917639909086453</v>
       </c>
       <c r="E17">
-        <v>0.9762064968267284</v>
+        <v>0.9762064968267276</v>
       </c>
       <c r="F17">
-        <v>0.9731818629404678</v>
+        <v>0.9731818629404668</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031216732148111</v>
       </c>
       <c r="J17">
-        <v>0.9949291668169573</v>
+        <v>0.9949291668169563</v>
       </c>
       <c r="K17">
         <v>1.005917984859251</v>
       </c>
       <c r="L17">
-        <v>0.9906449830740123</v>
+        <v>0.9906449830740113</v>
       </c>
       <c r="M17">
-        <v>0.9876770387869445</v>
+        <v>0.9876770387869436</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9682445619477957</v>
+        <v>0.9682445619477955</v>
       </c>
       <c r="D18">
-        <v>0.9933676779909059</v>
+        <v>0.9933676779909056</v>
       </c>
       <c r="E18">
-        <v>0.9781944318439071</v>
+        <v>0.9781944318439068</v>
       </c>
       <c r="F18">
-        <v>0.9754017420059676</v>
+        <v>0.975401742005967</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032053504057967</v>
       </c>
       <c r="J18">
-        <v>0.9965633608272855</v>
+        <v>0.9965633608272851</v>
       </c>
       <c r="K18">
         <v>1.007301884500247</v>
       </c>
       <c r="L18">
-        <v>0.9924004814012687</v>
+        <v>0.9924004814012685</v>
       </c>
       <c r="M18">
-        <v>0.9896590260851141</v>
+        <v>0.9896590260851137</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9689694208298005</v>
+        <v>0.9689694208298016</v>
       </c>
       <c r="D19">
-        <v>0.9939106229892607</v>
+        <v>0.9939106229892612</v>
       </c>
       <c r="E19">
-        <v>0.97886748326467</v>
+        <v>0.978867483264671</v>
       </c>
       <c r="F19">
-        <v>0.9761532407432015</v>
+        <v>0.9761532407432025</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032336453552748</v>
       </c>
       <c r="J19">
-        <v>0.9971164199942123</v>
+        <v>0.9971164199942132</v>
       </c>
       <c r="K19">
-        <v>1.007770188621596</v>
+        <v>1.007770188621597</v>
       </c>
       <c r="L19">
-        <v>0.9929946784460438</v>
+        <v>0.9929946784460448</v>
       </c>
       <c r="M19">
-        <v>0.9903298681230071</v>
+        <v>0.9903298681230078</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9657065407183408</v>
+        <v>0.9657065407183388</v>
       </c>
       <c r="D20">
-        <v>0.9914671412347535</v>
+        <v>0.9914671412347518</v>
       </c>
       <c r="E20">
-        <v>0.9758385273484245</v>
+        <v>0.9758385273484225</v>
       </c>
       <c r="F20">
-        <v>0.9727709201199419</v>
+        <v>0.9727709201199397</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031061675205775</v>
+        <v>1.031061675205774</v>
       </c>
       <c r="J20">
-        <v>0.9946265667700005</v>
+        <v>0.9946265667699983</v>
       </c>
       <c r="K20">
-        <v>1.005661708639549</v>
+        <v>1.005661708639548</v>
       </c>
       <c r="L20">
-        <v>0.9903199620174281</v>
+        <v>0.9903199620174259</v>
       </c>
       <c r="M20">
-        <v>0.9873100758442123</v>
+        <v>0.9873100758442102</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547038471749292</v>
+        <v>0.954703847174931</v>
       </c>
       <c r="D21">
-        <v>0.9832382203010863</v>
+        <v>0.9832382203010877</v>
       </c>
       <c r="E21">
-        <v>0.965638292038836</v>
+        <v>0.9656382920388377</v>
       </c>
       <c r="F21">
-        <v>0.9613740891482537</v>
+        <v>0.9613740891482555</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026743573277916</v>
+        <v>1.026743573277918</v>
       </c>
       <c r="J21">
-        <v>0.9862255273898317</v>
+        <v>0.9862255273898333</v>
       </c>
       <c r="K21">
-        <v>0.9985442635369317</v>
+        <v>0.998544263536933</v>
       </c>
       <c r="L21">
-        <v>0.9813012710309497</v>
+        <v>0.9813012710309514</v>
       </c>
       <c r="M21">
-        <v>0.977126150519116</v>
+        <v>0.9771261505191179</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9474517779924061</v>
+        <v>0.947451777992407</v>
       </c>
       <c r="D22">
-        <v>0.977824229988439</v>
+        <v>0.9778242299884399</v>
       </c>
       <c r="E22">
-        <v>0.9589267186348379</v>
+        <v>0.9589267186348384</v>
       </c>
       <c r="F22">
-        <v>0.9538690116520124</v>
+        <v>0.9538690116520129</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023883010744763</v>
+        <v>1.023883010744764</v>
       </c>
       <c r="J22">
-        <v>0.9806850884894835</v>
+        <v>0.9806850884894842</v>
       </c>
       <c r="K22">
-        <v>0.993848176096731</v>
+        <v>0.9938481760967318</v>
       </c>
       <c r="L22">
-        <v>0.9753582498795086</v>
+        <v>0.9753582498795094</v>
       </c>
       <c r="M22">
-        <v>0.9704132805719339</v>
+        <v>0.9704132805719345</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513301427792825</v>
+        <v>0.951330142779284</v>
       </c>
       <c r="D23">
-        <v>0.9807185761489682</v>
+        <v>0.9807185761489694</v>
       </c>
       <c r="E23">
-        <v>0.962514878894583</v>
+        <v>0.9625148788945842</v>
       </c>
       <c r="F23">
-        <v>0.9578820455099016</v>
+        <v>0.9578820455099031</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025414125615394</v>
+        <v>1.025414125615395</v>
       </c>
       <c r="J23">
-        <v>0.98364832707358</v>
+        <v>0.9836483270735811</v>
       </c>
       <c r="K23">
-        <v>0.996360004862766</v>
+        <v>0.9963600048627673</v>
       </c>
       <c r="L23">
-        <v>0.9785363587709551</v>
+        <v>0.9785363587709566</v>
       </c>
       <c r="M23">
-        <v>0.9740033099888106</v>
+        <v>0.9740033099888121</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9658857991082338</v>
+        <v>0.9658857991082345</v>
       </c>
       <c r="D24">
-        <v>0.9916013470994104</v>
+        <v>0.9916013470994107</v>
       </c>
       <c r="E24">
-        <v>0.9760048862996487</v>
+        <v>0.976004886299649</v>
       </c>
       <c r="F24">
-        <v>0.9729567088881284</v>
+        <v>0.9729567088881286</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031131782912633</v>
       </c>
       <c r="J24">
-        <v>0.9947633763729965</v>
+        <v>0.9947633763729971</v>
       </c>
       <c r="K24">
         <v>1.005777575465871</v>
       </c>
       <c r="L24">
-        <v>0.9904669069056481</v>
+        <v>0.9904669069056485</v>
       </c>
       <c r="M24">
-        <v>0.9874759833844161</v>
+        <v>0.9874759833844167</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815161153712835</v>
+        <v>0.9815161153712839</v>
       </c>
       <c r="D25">
-        <v>1.003318402458123</v>
+        <v>1.003318402458122</v>
       </c>
       <c r="E25">
-        <v>0.9905318546607862</v>
+        <v>0.9905318546607865</v>
       </c>
       <c r="F25">
-        <v>0.9891711652468961</v>
+        <v>0.9891711652468962</v>
       </c>
       <c r="G25">
         <v>1</v>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931407190597462</v>
+        <v>0.9931407190597485</v>
       </c>
       <c r="D2">
-        <v>1.012049107309897</v>
+        <v>1.012049107309898</v>
       </c>
       <c r="E2">
-        <v>1.001363349746627</v>
+        <v>1.001363349746629</v>
       </c>
       <c r="F2">
-        <v>1.001251038049034</v>
+        <v>1.001251038049036</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041677023380989</v>
+        <v>1.04167702338099</v>
       </c>
       <c r="J2">
-        <v>1.015528543673713</v>
+        <v>1.015528543673715</v>
       </c>
       <c r="K2">
-        <v>1.023343092847602</v>
+        <v>1.023343092847603</v>
       </c>
       <c r="L2">
-        <v>1.012803723563579</v>
+        <v>1.012803723563581</v>
       </c>
       <c r="M2">
-        <v>1.012692971396912</v>
+        <v>1.012692971396914</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001162749977161</v>
+        <v>1.001162749977162</v>
       </c>
       <c r="D3">
-        <v>1.018080304195283</v>
+        <v>1.018080304195284</v>
       </c>
       <c r="E3">
         <v>1.00885184468795</v>
       </c>
       <c r="F3">
-        <v>1.009599044626868</v>
+        <v>1.009599044626869</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -480,13 +480,13 @@
         <v>1.021621767366262</v>
       </c>
       <c r="K3">
-        <v>1.028486954953453</v>
+        <v>1.028486954953454</v>
       </c>
       <c r="L3">
         <v>1.019372703638438</v>
       </c>
       <c r="M3">
-        <v>1.02011055968107</v>
+        <v>1.020110559681071</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,7 +500,7 @@
         <v>1.006179365808836</v>
       </c>
       <c r="D4">
-        <v>1.021853881156786</v>
+        <v>1.021853881156787</v>
       </c>
       <c r="E4">
         <v>1.013540601336815</v>
@@ -541,10 +541,10 @@
         <v>1.023411206746458</v>
       </c>
       <c r="E5">
-        <v>1.015476505840344</v>
+        <v>1.015476505840345</v>
       </c>
       <c r="F5">
-        <v>1.01698238840102</v>
+        <v>1.016982388401021</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -562,7 +562,7 @@
         <v>1.025171654697806</v>
       </c>
       <c r="M5">
-        <v>1.026660509684946</v>
+        <v>1.026660509684947</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,10 +576,10 @@
         <v>1.008594550005965</v>
       </c>
       <c r="D6">
-        <v>1.023671032137479</v>
+        <v>1.02367103213748</v>
       </c>
       <c r="E6">
-        <v>1.015799548290767</v>
+        <v>1.015799548290768</v>
       </c>
       <c r="F6">
         <v>1.017342397789629</v>
@@ -594,13 +594,13 @@
         <v>1.027256151784825</v>
       </c>
       <c r="K6">
-        <v>1.033237724322338</v>
+        <v>1.033237724322339</v>
       </c>
       <c r="L6">
-        <v>1.025454117666322</v>
+        <v>1.025454117666323</v>
       </c>
       <c r="M6">
-        <v>1.026979610864944</v>
+        <v>1.026979610864945</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.00620717395958</v>
+        <v>1.006207173959582</v>
       </c>
       <c r="D7">
-        <v>1.021874802252096</v>
+        <v>1.021874802252097</v>
       </c>
       <c r="E7">
-        <v>1.013566604624474</v>
+        <v>1.013566604624475</v>
       </c>
       <c r="F7">
-        <v>1.014853881894343</v>
+        <v>1.014853881894344</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046631159283056</v>
+        <v>1.046631159283057</v>
       </c>
       <c r="J7">
-        <v>1.025447388309279</v>
+        <v>1.025447388309281</v>
       </c>
       <c r="K7">
-        <v>1.031713280704979</v>
+        <v>1.03171328070498</v>
       </c>
       <c r="L7">
-        <v>1.023501056910048</v>
+        <v>1.02350105691005</v>
       </c>
       <c r="M7">
-        <v>1.024773336756078</v>
+        <v>1.024773336756079</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.995889500515717</v>
+        <v>0.9958895005157152</v>
       </c>
       <c r="D8">
-        <v>1.014115229749038</v>
+        <v>1.014115229749036</v>
       </c>
       <c r="E8">
-        <v>1.003928037778513</v>
+        <v>1.003928037778512</v>
       </c>
       <c r="F8">
-        <v>1.004110370431574</v>
+        <v>1.004110370431573</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.042725627460398</v>
       </c>
       <c r="J8">
-        <v>1.017617615275786</v>
+        <v>1.017617615275784</v>
       </c>
       <c r="K8">
-        <v>1.025107336449577</v>
+        <v>1.025107336449575</v>
       </c>
       <c r="L8">
-        <v>1.015055062898492</v>
+        <v>1.01505506289849</v>
       </c>
       <c r="M8">
-        <v>1.015234950523873</v>
+        <v>1.015234950523871</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762435762476706</v>
+        <v>0.9762435762476684</v>
       </c>
       <c r="D9">
-        <v>0.9993627663517698</v>
+        <v>0.9993627663517681</v>
       </c>
       <c r="E9">
-        <v>0.985626776473328</v>
+        <v>0.9856267764733259</v>
       </c>
       <c r="F9">
-        <v>0.9836982037601214</v>
+        <v>0.9836982037601194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035167642917467</v>
+        <v>1.035167642917466</v>
       </c>
       <c r="J9">
-        <v>1.002664056807399</v>
+        <v>1.002664056807397</v>
       </c>
       <c r="K9">
-        <v>1.012466190694795</v>
+        <v>1.012466190694793</v>
       </c>
       <c r="L9">
-        <v>0.9989574347301514</v>
+        <v>0.998957434730149</v>
       </c>
       <c r="M9">
-        <v>0.9970614219083461</v>
+        <v>0.9970614219083441</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9619501026606035</v>
+        <v>0.961950102660603</v>
       </c>
       <c r="D10">
-        <v>0.9886557882312119</v>
+        <v>0.9886557882312114</v>
       </c>
       <c r="E10">
-        <v>0.9723536866968057</v>
+        <v>0.9723536866968054</v>
       </c>
       <c r="F10">
-        <v>0.9688784585790902</v>
+        <v>0.9688784585790898</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.029590662277672</v>
       </c>
       <c r="J10">
-        <v>0.9917591614697937</v>
+        <v>0.9917591614697934</v>
       </c>
       <c r="K10">
         <v>1.003232931910396</v>
       </c>
       <c r="L10">
-        <v>0.9872407130326434</v>
+        <v>0.9872407130326432</v>
       </c>
       <c r="M10">
-        <v>0.9838333145659061</v>
+        <v>0.9838333145659057</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.955419674237354</v>
+        <v>0.9554196742373527</v>
       </c>
       <c r="D11">
-        <v>0.9837730570984997</v>
+        <v>0.9837730570984986</v>
       </c>
       <c r="E11">
-        <v>0.9663012693135283</v>
+        <v>0.9663012693135269</v>
       </c>
       <c r="F11">
-        <v>0.9621151718035309</v>
+        <v>0.9621151718035301</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027025347102927</v>
+        <v>1.027025347102926</v>
       </c>
       <c r="J11">
-        <v>0.9867722906383516</v>
+        <v>0.9867722906383504</v>
       </c>
       <c r="K11">
-        <v>0.9990076180644967</v>
+        <v>0.9990076180644955</v>
       </c>
       <c r="L11">
-        <v>0.9818879607489512</v>
+        <v>0.98188796074895</v>
       </c>
       <c r="M11">
-        <v>0.9777887415500723</v>
+        <v>0.9777887415500716</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529368442509007</v>
+        <v>0.9529368442508998</v>
       </c>
       <c r="D12">
-        <v>0.9819183197595717</v>
+        <v>0.9819183197595708</v>
       </c>
       <c r="E12">
-        <v>0.96400213194563</v>
+        <v>0.9640021319456292</v>
       </c>
       <c r="F12">
-        <v>0.9595449641705094</v>
+        <v>0.9595449641705084</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.026047557529168</v>
       </c>
       <c r="J12">
-        <v>0.98487575787063</v>
+        <v>0.9848757578706292</v>
       </c>
       <c r="K12">
-        <v>0.997400333269848</v>
+        <v>0.9974003332698472</v>
       </c>
       <c r="L12">
-        <v>0.9798530915638971</v>
+        <v>0.9798530915638964</v>
       </c>
       <c r="M12">
-        <v>0.9754905465589875</v>
+        <v>0.9754905465589865</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.953472110103548</v>
+        <v>0.9534721101035482</v>
       </c>
       <c r="D13">
         <v>0.9823180977603018</v>
       </c>
       <c r="E13">
-        <v>0.9644977046958416</v>
+        <v>0.9644977046958413</v>
       </c>
       <c r="F13">
-        <v>0.9600990152514075</v>
+        <v>0.9600990152514073</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026258465529445</v>
       </c>
       <c r="J13">
-        <v>0.9852846482014551</v>
+        <v>0.9852846482014552</v>
       </c>
       <c r="K13">
         <v>0.9977468780110891</v>
       </c>
       <c r="L13">
-        <v>0.9802917704712634</v>
+        <v>0.9802917704712631</v>
       </c>
       <c r="M13">
-        <v>0.9759860104512558</v>
+        <v>0.9759860104512553</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9552156457051706</v>
+        <v>0.9552156457051685</v>
       </c>
       <c r="D14">
-        <v>0.9836206074613055</v>
+        <v>0.9836206074613038</v>
       </c>
       <c r="E14">
-        <v>0.9661122951464114</v>
+        <v>0.9661122951464092</v>
       </c>
       <c r="F14">
-        <v>0.961903939503758</v>
+        <v>0.9619039395037559</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026945045734125</v>
+        <v>1.026945045734124</v>
       </c>
       <c r="J14">
-        <v>0.9866164518927758</v>
+        <v>0.9866164518927739</v>
       </c>
       <c r="K14">
-        <v>0.9988755541773074</v>
+        <v>0.9988755541773057</v>
       </c>
       <c r="L14">
-        <v>0.9817207384281256</v>
+        <v>0.9817207384281232</v>
       </c>
       <c r="M14">
-        <v>0.9775998869470601</v>
+        <v>0.977599886947058</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9562821323457166</v>
+        <v>0.9562821323457181</v>
       </c>
       <c r="D15">
-        <v>0.9844175523773374</v>
+        <v>0.984417552377339</v>
       </c>
       <c r="E15">
-        <v>0.9671001709103834</v>
+        <v>0.9671001709103848</v>
       </c>
       <c r="F15">
-        <v>0.9630081281624464</v>
+        <v>0.9630081281624482</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027364693114175</v>
+        <v>1.027364693114176</v>
       </c>
       <c r="J15">
-        <v>0.9874310219526228</v>
+        <v>0.9874310219526243</v>
       </c>
       <c r="K15">
-        <v>0.9995658380196841</v>
+        <v>0.9995658380196856</v>
       </c>
       <c r="L15">
-        <v>0.9825948433876091</v>
+        <v>0.9825948433876104</v>
       </c>
       <c r="M15">
-        <v>0.9785870541541932</v>
+        <v>0.9785870541541949</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9623758361126042</v>
+        <v>0.9623758361126054</v>
       </c>
       <c r="D16">
-        <v>0.9889743146971363</v>
+        <v>0.9889743146971376</v>
       </c>
       <c r="E16">
-        <v>0.9727485155897594</v>
+        <v>0.9727485155897606</v>
       </c>
       <c r="F16">
-        <v>0.9693195301124873</v>
+        <v>0.9693195301124886</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029757554750993</v>
+        <v>1.029757554750994</v>
       </c>
       <c r="J16">
-        <v>0.9920841829277367</v>
+        <v>0.992084182927738</v>
       </c>
       <c r="K16">
-        <v>1.003508263701323</v>
+        <v>1.003508263701324</v>
       </c>
       <c r="L16">
-        <v>0.9875896918917342</v>
+        <v>0.9875896918917351</v>
       </c>
       <c r="M16">
-        <v>0.9842273596417721</v>
+        <v>0.9842273596417734</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9661030344191277</v>
+        <v>0.9661030344191287</v>
       </c>
       <c r="D17">
-        <v>0.9917639909086453</v>
+        <v>0.9917639909086456</v>
       </c>
       <c r="E17">
-        <v>0.9762064968267276</v>
+        <v>0.9762064968267284</v>
       </c>
       <c r="F17">
-        <v>0.9731818629404668</v>
+        <v>0.9731818629404678</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.031216732148111</v>
       </c>
       <c r="J17">
-        <v>0.9949291668169563</v>
+        <v>0.9949291668169573</v>
       </c>
       <c r="K17">
         <v>1.005917984859251</v>
       </c>
       <c r="L17">
-        <v>0.9906449830740113</v>
+        <v>0.9906449830740123</v>
       </c>
       <c r="M17">
-        <v>0.9876770387869436</v>
+        <v>0.9876770387869445</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9682445619477955</v>
+        <v>0.9682445619477957</v>
       </c>
       <c r="D18">
-        <v>0.9933676779909056</v>
+        <v>0.9933676779909059</v>
       </c>
       <c r="E18">
-        <v>0.9781944318439068</v>
+        <v>0.9781944318439071</v>
       </c>
       <c r="F18">
-        <v>0.975401742005967</v>
+        <v>0.9754017420059676</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.032053504057967</v>
       </c>
       <c r="J18">
-        <v>0.9965633608272851</v>
+        <v>0.9965633608272855</v>
       </c>
       <c r="K18">
         <v>1.007301884500247</v>
       </c>
       <c r="L18">
-        <v>0.9924004814012685</v>
+        <v>0.9924004814012687</v>
       </c>
       <c r="M18">
-        <v>0.9896590260851137</v>
+        <v>0.9896590260851141</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9689694208298016</v>
+        <v>0.9689694208298005</v>
       </c>
       <c r="D19">
-        <v>0.9939106229892612</v>
+        <v>0.9939106229892607</v>
       </c>
       <c r="E19">
-        <v>0.978867483264671</v>
+        <v>0.97886748326467</v>
       </c>
       <c r="F19">
-        <v>0.9761532407432025</v>
+        <v>0.9761532407432015</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.032336453552748</v>
       </c>
       <c r="J19">
-        <v>0.9971164199942132</v>
+        <v>0.9971164199942123</v>
       </c>
       <c r="K19">
-        <v>1.007770188621597</v>
+        <v>1.007770188621596</v>
       </c>
       <c r="L19">
-        <v>0.9929946784460448</v>
+        <v>0.9929946784460438</v>
       </c>
       <c r="M19">
-        <v>0.9903298681230078</v>
+        <v>0.9903298681230071</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9657065407183388</v>
+        <v>0.9657065407183408</v>
       </c>
       <c r="D20">
-        <v>0.9914671412347518</v>
+        <v>0.9914671412347535</v>
       </c>
       <c r="E20">
-        <v>0.9758385273484225</v>
+        <v>0.9758385273484245</v>
       </c>
       <c r="F20">
-        <v>0.9727709201199397</v>
+        <v>0.9727709201199419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031061675205774</v>
+        <v>1.031061675205775</v>
       </c>
       <c r="J20">
-        <v>0.9946265667699983</v>
+        <v>0.9946265667700005</v>
       </c>
       <c r="K20">
-        <v>1.005661708639548</v>
+        <v>1.005661708639549</v>
       </c>
       <c r="L20">
-        <v>0.9903199620174259</v>
+        <v>0.9903199620174281</v>
       </c>
       <c r="M20">
-        <v>0.9873100758442102</v>
+        <v>0.9873100758442123</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.954703847174931</v>
+        <v>0.9547038471749292</v>
       </c>
       <c r="D21">
-        <v>0.9832382203010877</v>
+        <v>0.9832382203010863</v>
       </c>
       <c r="E21">
-        <v>0.9656382920388377</v>
+        <v>0.965638292038836</v>
       </c>
       <c r="F21">
-        <v>0.9613740891482555</v>
+        <v>0.9613740891482537</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026743573277918</v>
+        <v>1.026743573277916</v>
       </c>
       <c r="J21">
-        <v>0.9862255273898333</v>
+        <v>0.9862255273898317</v>
       </c>
       <c r="K21">
-        <v>0.998544263536933</v>
+        <v>0.9985442635369317</v>
       </c>
       <c r="L21">
-        <v>0.9813012710309514</v>
+        <v>0.9813012710309497</v>
       </c>
       <c r="M21">
-        <v>0.9771261505191179</v>
+        <v>0.977126150519116</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.947451777992407</v>
+        <v>0.9474517779924061</v>
       </c>
       <c r="D22">
-        <v>0.9778242299884399</v>
+        <v>0.977824229988439</v>
       </c>
       <c r="E22">
-        <v>0.9589267186348384</v>
+        <v>0.9589267186348379</v>
       </c>
       <c r="F22">
-        <v>0.9538690116520129</v>
+        <v>0.9538690116520124</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023883010744764</v>
+        <v>1.023883010744763</v>
       </c>
       <c r="J22">
-        <v>0.9806850884894842</v>
+        <v>0.9806850884894835</v>
       </c>
       <c r="K22">
-        <v>0.9938481760967318</v>
+        <v>0.993848176096731</v>
       </c>
       <c r="L22">
-        <v>0.9753582498795094</v>
+        <v>0.9753582498795086</v>
       </c>
       <c r="M22">
-        <v>0.9704132805719345</v>
+        <v>0.9704132805719339</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.951330142779284</v>
+        <v>0.9513301427792825</v>
       </c>
       <c r="D23">
-        <v>0.9807185761489694</v>
+        <v>0.9807185761489682</v>
       </c>
       <c r="E23">
-        <v>0.9625148788945842</v>
+        <v>0.962514878894583</v>
       </c>
       <c r="F23">
-        <v>0.9578820455099031</v>
+        <v>0.9578820455099016</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025414125615395</v>
+        <v>1.025414125615394</v>
       </c>
       <c r="J23">
-        <v>0.9836483270735811</v>
+        <v>0.98364832707358</v>
       </c>
       <c r="K23">
-        <v>0.9963600048627673</v>
+        <v>0.996360004862766</v>
       </c>
       <c r="L23">
-        <v>0.9785363587709566</v>
+        <v>0.9785363587709551</v>
       </c>
       <c r="M23">
-        <v>0.9740033099888121</v>
+        <v>0.9740033099888106</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9658857991082345</v>
+        <v>0.9658857991082338</v>
       </c>
       <c r="D24">
-        <v>0.9916013470994107</v>
+        <v>0.9916013470994104</v>
       </c>
       <c r="E24">
-        <v>0.976004886299649</v>
+        <v>0.9760048862996487</v>
       </c>
       <c r="F24">
-        <v>0.9729567088881286</v>
+        <v>0.9729567088881284</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.031131782912633</v>
       </c>
       <c r="J24">
-        <v>0.9947633763729971</v>
+        <v>0.9947633763729965</v>
       </c>
       <c r="K24">
         <v>1.005777575465871</v>
       </c>
       <c r="L24">
-        <v>0.9904669069056485</v>
+        <v>0.9904669069056481</v>
       </c>
       <c r="M24">
-        <v>0.9874759833844167</v>
+        <v>0.9874759833844161</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815161153712839</v>
+        <v>0.9815161153712835</v>
       </c>
       <c r="D25">
-        <v>1.003318402458122</v>
+        <v>1.003318402458123</v>
       </c>
       <c r="E25">
-        <v>0.9905318546607865</v>
+        <v>0.9905318546607862</v>
       </c>
       <c r="F25">
-        <v>0.9891711652468962</v>
+        <v>0.9891711652468961</v>
       </c>
       <c r="G25">
         <v>1</v>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931407190597485</v>
+        <v>0.9931599824785243</v>
       </c>
       <c r="D2">
-        <v>1.012049107309898</v>
+        <v>1.012065517857289</v>
       </c>
       <c r="E2">
-        <v>1.001363349746629</v>
+        <v>1.001382478713228</v>
       </c>
       <c r="F2">
-        <v>1.001251038049036</v>
+        <v>1.001267846371982</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04167702338099</v>
+        <v>1.041686569088742</v>
       </c>
       <c r="J2">
-        <v>1.015528543673715</v>
+        <v>1.015547219918407</v>
       </c>
       <c r="K2">
-        <v>1.023343092847603</v>
+        <v>1.023359281570641</v>
       </c>
       <c r="L2">
-        <v>1.012803723563581</v>
+        <v>1.012822586954322</v>
       </c>
       <c r="M2">
-        <v>1.012692971396914</v>
+        <v>1.012709546295791</v>
+      </c>
+      <c r="N2">
+        <v>1.010841208940164</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001162749977162</v>
+        <v>1.00117582036005</v>
       </c>
       <c r="D3">
-        <v>1.018080304195284</v>
+        <v>1.018091734269733</v>
       </c>
       <c r="E3">
-        <v>1.00885184468795</v>
+        <v>1.00886484064061</v>
       </c>
       <c r="F3">
-        <v>1.009599044626869</v>
+        <v>1.009610502051858</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044727985033153</v>
+        <v>1.044734614727589</v>
       </c>
       <c r="J3">
-        <v>1.021621767366262</v>
+        <v>1.021634482569348</v>
       </c>
       <c r="K3">
-        <v>1.028486954953454</v>
+        <v>1.02849824516979</v>
       </c>
       <c r="L3">
-        <v>1.019372703638438</v>
+        <v>1.019385536926468</v>
       </c>
       <c r="M3">
-        <v>1.020110559681071</v>
+        <v>1.020121873962681</v>
+      </c>
+      <c r="N3">
+        <v>1.015208842208215</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006179365808836</v>
+        <v>1.006188651163505</v>
       </c>
       <c r="D4">
-        <v>1.021853881156787</v>
+        <v>1.021862261180065</v>
       </c>
       <c r="E4">
-        <v>1.013540601336815</v>
+        <v>1.013549840937761</v>
       </c>
       <c r="F4">
-        <v>1.014824901686869</v>
+        <v>1.014833100369211</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046620702664155</v>
+        <v>1.046625543759488</v>
       </c>
       <c r="J4">
-        <v>1.025426312811362</v>
+        <v>1.025435364569527</v>
       </c>
       <c r="K4">
-        <v>1.031695514259088</v>
+        <v>1.031703798414233</v>
       </c>
       <c r="L4">
-        <v>1.023478304593084</v>
+        <v>1.023487436337223</v>
       </c>
       <c r="M4">
-        <v>1.024747636186288</v>
+        <v>1.024755739461955</v>
+      </c>
+      <c r="N4">
+        <v>1.017931608905627</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008249233520958</v>
+        <v>1.008256975753887</v>
       </c>
       <c r="D5">
-        <v>1.023411206746458</v>
+        <v>1.023418342083665</v>
       </c>
       <c r="E5">
-        <v>1.015476505840345</v>
+        <v>1.015484212310056</v>
       </c>
       <c r="F5">
-        <v>1.016982388401021</v>
+        <v>1.016989261056324</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047397927597868</v>
+        <v>1.047402038124632</v>
       </c>
       <c r="J5">
-        <v>1.026994602263063</v>
+        <v>1.027002156074752</v>
       </c>
       <c r="K5">
-        <v>1.033017328386278</v>
+        <v>1.033024384429373</v>
       </c>
       <c r="L5">
-        <v>1.025171654697806</v>
+        <v>1.025179273869133</v>
       </c>
       <c r="M5">
-        <v>1.026660509684947</v>
+        <v>1.026667304771019</v>
+      </c>
+      <c r="N5">
+        <v>1.019052899982774</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008594550005965</v>
+        <v>1.008602035826615</v>
       </c>
       <c r="D6">
-        <v>1.02367103213748</v>
+        <v>1.023677960587736</v>
       </c>
       <c r="E6">
-        <v>1.015799548290768</v>
+        <v>1.015806999914123</v>
       </c>
       <c r="F6">
-        <v>1.017342397789629</v>
+        <v>1.017349050248457</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047527371871161</v>
+        <v>1.04753136092687</v>
       </c>
       <c r="J6">
-        <v>1.027256151784825</v>
+        <v>1.027263456444568</v>
       </c>
       <c r="K6">
-        <v>1.033237724322339</v>
+        <v>1.033244576155333</v>
       </c>
       <c r="L6">
-        <v>1.025454117666323</v>
+        <v>1.025461485306476</v>
       </c>
       <c r="M6">
-        <v>1.026979610864945</v>
+        <v>1.02698618862724</v>
+      </c>
+      <c r="N6">
+        <v>1.019239837851787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006207173959582</v>
+        <v>1.006216438512219</v>
       </c>
       <c r="D7">
-        <v>1.021874802252097</v>
+        <v>1.021883165500885</v>
       </c>
       <c r="E7">
-        <v>1.013566604624475</v>
+        <v>1.013575823564557</v>
       </c>
       <c r="F7">
-        <v>1.014853881894344</v>
+        <v>1.014862062691431</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046631159283057</v>
+        <v>1.046635990535227</v>
       </c>
       <c r="J7">
-        <v>1.025447388309281</v>
+        <v>1.025456419891304</v>
       </c>
       <c r="K7">
-        <v>1.03171328070498</v>
+        <v>1.031721548314338</v>
       </c>
       <c r="L7">
-        <v>1.02350105691005</v>
+        <v>1.023510168277373</v>
       </c>
       <c r="M7">
-        <v>1.024773336756079</v>
+        <v>1.024781422393209</v>
+      </c>
+      <c r="N7">
+        <v>1.017946681699333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958895005157152</v>
+        <v>0.9959066216442545</v>
       </c>
       <c r="D8">
-        <v>1.014115229749036</v>
+        <v>1.014129918940803</v>
       </c>
       <c r="E8">
-        <v>1.003928037778512</v>
+        <v>1.003945047085323</v>
       </c>
       <c r="F8">
-        <v>1.004110370431573</v>
+        <v>1.004125325120243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042725627460398</v>
+        <v>1.04273416594854</v>
       </c>
       <c r="J8">
-        <v>1.017617615275784</v>
+        <v>1.017634234124493</v>
       </c>
       <c r="K8">
-        <v>1.025107336449575</v>
+        <v>1.02512183355093</v>
       </c>
       <c r="L8">
-        <v>1.01505506289849</v>
+        <v>1.015071844068267</v>
       </c>
       <c r="M8">
-        <v>1.015234950523871</v>
+        <v>1.015249704724035</v>
+      </c>
+      <c r="N8">
+        <v>1.012339557455377</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762435762476684</v>
+        <v>0.9762765168804014</v>
       </c>
       <c r="D9">
-        <v>0.9993627663517681</v>
+        <v>0.9993901253738665</v>
       </c>
       <c r="E9">
-        <v>0.9856267764733259</v>
+        <v>0.9856593902295884</v>
       </c>
       <c r="F9">
-        <v>0.9836982037601194</v>
+        <v>0.9837269119694644</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035167642917466</v>
+        <v>1.035183581422105</v>
       </c>
       <c r="J9">
-        <v>1.002664056807397</v>
+        <v>1.002695753020066</v>
       </c>
       <c r="K9">
-        <v>1.012466190694793</v>
+        <v>1.012493105124092</v>
       </c>
       <c r="L9">
-        <v>0.998957434730149</v>
+        <v>0.9989894992847442</v>
       </c>
       <c r="M9">
-        <v>0.9970614219083441</v>
+        <v>0.9970896442320605</v>
+      </c>
+      <c r="N9">
+        <v>1.001596912043018</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.961950102660603</v>
+        <v>0.9619953867984222</v>
       </c>
       <c r="D10">
-        <v>0.9886557882312114</v>
+        <v>0.9886929598174454</v>
       </c>
       <c r="E10">
-        <v>0.9723536866968054</v>
+        <v>0.9723983971621449</v>
       </c>
       <c r="F10">
-        <v>0.9688784585790898</v>
+        <v>0.9689180018502042</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029590662277672</v>
+        <v>1.029612313458861</v>
       </c>
       <c r="J10">
-        <v>0.9917591614697934</v>
+        <v>0.9918024392801769</v>
       </c>
       <c r="K10">
-        <v>1.003232931910396</v>
+        <v>1.003269412143201</v>
       </c>
       <c r="L10">
-        <v>0.9872407130326432</v>
+        <v>0.9872845549784586</v>
       </c>
       <c r="M10">
-        <v>0.9838333145659057</v>
+        <v>0.9838720824379869</v>
+      </c>
+      <c r="N10">
+        <v>0.9937421826725127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9554196742373527</v>
+        <v>0.9554708684865807</v>
       </c>
       <c r="D11">
-        <v>0.9837730570984986</v>
+        <v>0.9838149020838645</v>
       </c>
       <c r="E11">
-        <v>0.9663012693135269</v>
+        <v>0.9663517467225814</v>
       </c>
       <c r="F11">
-        <v>0.9621151718035301</v>
+        <v>0.9621599342433468</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027025347102926</v>
+        <v>1.027049714368429</v>
       </c>
       <c r="J11">
-        <v>0.9867722906383504</v>
+        <v>0.9868210583658429</v>
       </c>
       <c r="K11">
-        <v>0.9990076180644955</v>
+        <v>0.9990486394063987</v>
       </c>
       <c r="L11">
-        <v>0.98188796074895</v>
+        <v>0.9819373966118532</v>
       </c>
       <c r="M11">
-        <v>0.9777887415500716</v>
+        <v>0.9778325697043706</v>
+      </c>
+      <c r="N11">
+        <v>0.9901459407852102</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529368442508998</v>
+        <v>0.952990333962924</v>
       </c>
       <c r="D12">
-        <v>0.9819183197595708</v>
+        <v>0.9819619753742391</v>
       </c>
       <c r="E12">
-        <v>0.9640021319456292</v>
+        <v>0.9640548448276455</v>
       </c>
       <c r="F12">
-        <v>0.9595449641705084</v>
+        <v>0.9595917590784842</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026047557529168</v>
+        <v>1.02607297637184</v>
       </c>
       <c r="J12">
-        <v>0.9848757578706292</v>
+        <v>0.9849266483697895</v>
       </c>
       <c r="K12">
-        <v>0.9974003332698472</v>
+        <v>0.9974431115264831</v>
       </c>
       <c r="L12">
-        <v>0.9798530915638964</v>
+        <v>0.9799046923133686</v>
       </c>
       <c r="M12">
-        <v>0.9754905465589865</v>
+        <v>0.9755363419905042</v>
+      </c>
+      <c r="N12">
+        <v>0.9887777029006646</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9534721101035482</v>
+        <v>0.9535251026139268</v>
       </c>
       <c r="D13">
-        <v>0.9823180977603018</v>
+        <v>0.9823613614049408</v>
       </c>
       <c r="E13">
-        <v>0.9644977046958413</v>
+        <v>0.964549933578304</v>
       </c>
       <c r="F13">
-        <v>0.9600990152514073</v>
+        <v>0.9601453696701264</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026258465529445</v>
+        <v>1.026283656756664</v>
       </c>
       <c r="J13">
-        <v>0.9852846482014552</v>
+        <v>0.9853350793511089</v>
       </c>
       <c r="K13">
-        <v>0.9977468780110891</v>
+        <v>0.9977892760407732</v>
       </c>
       <c r="L13">
-        <v>0.9802917704712631</v>
+        <v>0.9803429026685683</v>
       </c>
       <c r="M13">
-        <v>0.9759860104512553</v>
+        <v>0.9760313796780826</v>
+      </c>
+      <c r="N13">
+        <v>0.9890727179182273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9552156457051685</v>
+        <v>0.9552670275535332</v>
       </c>
       <c r="D14">
-        <v>0.9836206074613038</v>
+        <v>0.9836626005175091</v>
       </c>
       <c r="E14">
-        <v>0.9661122951464092</v>
+        <v>0.9661629553439384</v>
       </c>
       <c r="F14">
-        <v>0.9619039395037559</v>
+        <v>0.9619488679372301</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026945045734124</v>
+        <v>1.02696949901088</v>
       </c>
       <c r="J14">
-        <v>0.9866164518927739</v>
+        <v>0.9866653933040263</v>
       </c>
       <c r="K14">
-        <v>0.9988755541773057</v>
+        <v>0.9989167192483281</v>
       </c>
       <c r="L14">
-        <v>0.9817207384281232</v>
+        <v>0.9817703513809571</v>
       </c>
       <c r="M14">
-        <v>0.977599886947058</v>
+        <v>0.9776438758398895</v>
+      </c>
+      <c r="N14">
+        <v>0.9900335233044193</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9562821323457181</v>
+        <v>0.9563325356033315</v>
       </c>
       <c r="D15">
-        <v>0.984417552377339</v>
+        <v>0.9844587728522068</v>
       </c>
       <c r="E15">
-        <v>0.9671001709103848</v>
+        <v>0.9671498774312443</v>
       </c>
       <c r="F15">
-        <v>0.9630081281624482</v>
+        <v>0.9630521909276659</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027364693114176</v>
+        <v>1.027388697585345</v>
       </c>
       <c r="J15">
-        <v>0.9874310219526243</v>
+        <v>0.9874790569723889</v>
       </c>
       <c r="K15">
-        <v>0.9995658380196856</v>
+        <v>0.9996062530623929</v>
       </c>
       <c r="L15">
-        <v>0.9825948433876104</v>
+        <v>0.98264353225137</v>
       </c>
       <c r="M15">
-        <v>0.9785870541541949</v>
+        <v>0.9786302046489183</v>
+      </c>
+      <c r="N15">
+        <v>0.9906211075134532</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9623758361126054</v>
+        <v>0.9624207411512641</v>
       </c>
       <c r="D16">
-        <v>0.9889743146971376</v>
+        <v>0.9890111859496019</v>
       </c>
       <c r="E16">
-        <v>0.9727485155897606</v>
+        <v>0.9727928555848809</v>
       </c>
       <c r="F16">
-        <v>0.9693195301124886</v>
+        <v>0.9693587392889803</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029757554750994</v>
+        <v>1.029779031287894</v>
       </c>
       <c r="J16">
-        <v>0.992084182927738</v>
+        <v>0.9921271073806159</v>
       </c>
       <c r="K16">
-        <v>1.003508263701324</v>
+        <v>1.003544451783493</v>
       </c>
       <c r="L16">
-        <v>0.9875896918917351</v>
+        <v>0.9876331740306493</v>
       </c>
       <c r="M16">
-        <v>0.9842273596417734</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9842658031671381</v>
+      </c>
+      <c r="N16">
+        <v>0.9939764875439713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9661030344191287</v>
+        <v>0.9661446516568435</v>
       </c>
       <c r="D17">
-        <v>0.9917639909086456</v>
+        <v>0.9917982546676324</v>
       </c>
       <c r="E17">
-        <v>0.9762064968267284</v>
+        <v>0.9762476210588802</v>
       </c>
       <c r="F17">
-        <v>0.9731818629404678</v>
+        <v>0.9732181781173046</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031216732148111</v>
+        <v>1.031236691910353</v>
       </c>
       <c r="J17">
-        <v>0.9949291668169573</v>
+        <v>0.9949690205380485</v>
       </c>
       <c r="K17">
-        <v>1.005917984859251</v>
+        <v>1.00595163484757</v>
       </c>
       <c r="L17">
-        <v>0.9906449830740123</v>
+        <v>0.9906853396886371</v>
       </c>
       <c r="M17">
-        <v>0.9876770387869445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9877126705917937</v>
+      </c>
+      <c r="N17">
+        <v>0.9960269418717491</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9682445619477957</v>
+        <v>0.9682843148173947</v>
       </c>
       <c r="D18">
-        <v>0.9933676779909059</v>
+        <v>0.9934004609483454</v>
       </c>
       <c r="E18">
-        <v>0.9781944318439071</v>
+        <v>0.9782337303320738</v>
       </c>
       <c r="F18">
-        <v>0.9754017420059676</v>
+        <v>0.9754364189177579</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032053504057967</v>
+        <v>1.032072602016139</v>
       </c>
       <c r="J18">
-        <v>0.9965633608272855</v>
+        <v>0.9966014683235394</v>
       </c>
       <c r="K18">
-        <v>1.007301884500247</v>
+        <v>1.007334091770981</v>
       </c>
       <c r="L18">
-        <v>0.9924004814012687</v>
+        <v>0.9924390616389976</v>
       </c>
       <c r="M18">
-        <v>0.9896590260851141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9896930644725249</v>
+      </c>
+      <c r="N18">
+        <v>0.9972043487050054</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9689694208298005</v>
+        <v>0.9690085466377587</v>
       </c>
       <c r="D19">
-        <v>0.9939106229892607</v>
+        <v>0.9939429075393472</v>
       </c>
       <c r="E19">
-        <v>0.97886748326467</v>
+        <v>0.9789061673208489</v>
       </c>
       <c r="F19">
-        <v>0.9761532407432015</v>
+        <v>0.9761873670977853</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032336453552748</v>
+        <v>1.032355261374036</v>
       </c>
       <c r="J19">
-        <v>0.9971164199942123</v>
+        <v>0.9971539393566637</v>
       </c>
       <c r="K19">
-        <v>1.007770188621596</v>
+        <v>1.007801910084477</v>
       </c>
       <c r="L19">
-        <v>0.9929946784460438</v>
+        <v>0.9930326605595658</v>
       </c>
       <c r="M19">
-        <v>0.9903298681230071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9903633707417144</v>
+      </c>
+      <c r="N19">
+        <v>0.9976027480967143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9657065407183408</v>
+        <v>0.9657485050882473</v>
       </c>
       <c r="D20">
-        <v>0.9914671412347535</v>
+        <v>0.9915016805332758</v>
       </c>
       <c r="E20">
-        <v>0.9758385273484245</v>
+        <v>0.9758799913435445</v>
       </c>
       <c r="F20">
-        <v>0.9727709201199419</v>
+        <v>0.9728075405541633</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031061675205775</v>
+        <v>1.031081795293392</v>
       </c>
       <c r="J20">
-        <v>0.9946265667700005</v>
+        <v>0.9946667452294763</v>
       </c>
       <c r="K20">
-        <v>1.005661708639549</v>
+        <v>1.005695626974182</v>
       </c>
       <c r="L20">
-        <v>0.9903199620174281</v>
+        <v>0.9903606490583302</v>
       </c>
       <c r="M20">
-        <v>0.9873100758442123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9873460044112151</v>
+      </c>
+      <c r="N20">
+        <v>0.995808891228793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547038471749292</v>
+        <v>0.9547557004173723</v>
       </c>
       <c r="D21">
-        <v>0.9832382203010863</v>
+        <v>0.9832805853510593</v>
       </c>
       <c r="E21">
-        <v>0.965638292038836</v>
+        <v>0.965689411470013</v>
       </c>
       <c r="F21">
-        <v>0.9613740891482537</v>
+        <v>0.961419434774235</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026743573277916</v>
+        <v>1.026768242626431</v>
       </c>
       <c r="J21">
-        <v>0.9862255273898317</v>
+        <v>0.9862749050731739</v>
       </c>
       <c r="K21">
-        <v>0.9985442635369317</v>
+        <v>0.9985857896539555</v>
       </c>
       <c r="L21">
-        <v>0.9813012710309497</v>
+        <v>0.9813513288429565</v>
       </c>
       <c r="M21">
-        <v>0.977126150519116</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9771705433423425</v>
+      </c>
+      <c r="N21">
+        <v>0.9897515129960605</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9474517779924061</v>
+        <v>0.9475104387450014</v>
       </c>
       <c r="D22">
-        <v>0.977824229988439</v>
+        <v>0.9778719550739545</v>
       </c>
       <c r="E22">
-        <v>0.9589267186348379</v>
+        <v>0.95898445843012</v>
       </c>
       <c r="F22">
-        <v>0.9538690116520124</v>
+        <v>0.9539203959991662</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023883010744763</v>
+        <v>1.023910791681378</v>
       </c>
       <c r="J22">
-        <v>0.9806850884894835</v>
+        <v>0.9807407418232217</v>
       </c>
       <c r="K22">
-        <v>0.993848176096731</v>
+        <v>0.9938948982139453</v>
       </c>
       <c r="L22">
-        <v>0.9753582498795086</v>
+        <v>0.9754147117731665</v>
       </c>
       <c r="M22">
-        <v>0.9704132805719339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9704635115366349</v>
+      </c>
+      <c r="N22">
+        <v>0.9857534106037638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513301427792825</v>
+        <v>0.9513851327450343</v>
       </c>
       <c r="D23">
-        <v>0.9807185761489682</v>
+        <v>0.9807634137657552</v>
       </c>
       <c r="E23">
-        <v>0.962514878894583</v>
+        <v>0.9625690514967482</v>
       </c>
       <c r="F23">
-        <v>0.9578820455099016</v>
+        <v>0.9579301703918626</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025414125615394</v>
+        <v>1.025440230734255</v>
       </c>
       <c r="J23">
-        <v>0.98364832707358</v>
+        <v>0.9837006021198016</v>
       </c>
       <c r="K23">
-        <v>0.996360004862766</v>
+        <v>0.9964039293286018</v>
       </c>
       <c r="L23">
-        <v>0.9785363587709551</v>
+        <v>0.9785893721032832</v>
       </c>
       <c r="M23">
-        <v>0.9740033099888106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9740503917440776</v>
+      </c>
+      <c r="N23">
+        <v>0.987892031970606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9658857991082338</v>
+        <v>0.9659276064603071</v>
       </c>
       <c r="D24">
-        <v>0.9916013470994104</v>
+        <v>0.9916357617703543</v>
       </c>
       <c r="E24">
-        <v>0.9760048862996487</v>
+        <v>0.9760461966171623</v>
       </c>
       <c r="F24">
-        <v>0.9729567088881284</v>
+        <v>0.9729931912369957</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031131782912633</v>
+        <v>1.031151830485799</v>
       </c>
       <c r="J24">
-        <v>0.9947633763729965</v>
+        <v>0.9948034079593876</v>
       </c>
       <c r="K24">
-        <v>1.005777575465871</v>
+        <v>1.00581137243058</v>
       </c>
       <c r="L24">
-        <v>0.9904669069056481</v>
+        <v>0.9905074444978104</v>
       </c>
       <c r="M24">
-        <v>0.9874759833844161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9875117777143287</v>
+      </c>
+      <c r="N24">
+        <v>0.9959074761420977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815161153712835</v>
+        <v>0.9815446893216802</v>
       </c>
       <c r="D25">
-        <v>1.003318402458123</v>
+        <v>1.003342274168164</v>
       </c>
       <c r="E25">
-        <v>0.9905318546607862</v>
+        <v>0.9905601723022199</v>
       </c>
       <c r="F25">
-        <v>0.9891711652468961</v>
+        <v>0.9891960619769826</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037209614128416</v>
+        <v>1.037223518760619</v>
       </c>
       <c r="J25">
-        <v>1.00668195980825</v>
+        <v>1.00670952074147</v>
       </c>
       <c r="K25">
-        <v>1.015865421993114</v>
+        <v>1.015888926259271</v>
       </c>
       <c r="L25">
-        <v>1.003278951357147</v>
+        <v>1.003306818587189</v>
       </c>
       <c r="M25">
-        <v>1.001939943590776</v>
+        <v>1.001964442921963</v>
+      </c>
+      <c r="N25">
+        <v>1.004487056978379</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9931599824785243</v>
+        <v>1.026907460401786</v>
       </c>
       <c r="D2">
-        <v>1.012065517857289</v>
+        <v>1.041245026593897</v>
       </c>
       <c r="E2">
-        <v>1.001382478713228</v>
+        <v>1.043897176543732</v>
       </c>
       <c r="F2">
-        <v>1.001267846371982</v>
+        <v>1.04929362997873</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041686569088742</v>
+        <v>1.059480754780076</v>
       </c>
       <c r="J2">
-        <v>1.015547219918407</v>
+        <v>1.048312115130522</v>
       </c>
       <c r="K2">
-        <v>1.023359281570641</v>
+        <v>1.052158170262422</v>
       </c>
       <c r="L2">
-        <v>1.012822586954322</v>
+        <v>1.054777040828656</v>
       </c>
       <c r="M2">
-        <v>1.012709546295791</v>
+        <v>1.060106425769298</v>
       </c>
       <c r="N2">
-        <v>1.010841208940164</v>
+        <v>1.049800838577088</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00117582036005</v>
+        <v>1.036495386692646</v>
       </c>
       <c r="D3">
-        <v>1.018091734269733</v>
+        <v>1.048841744889792</v>
       </c>
       <c r="E3">
-        <v>1.00886484064061</v>
+        <v>1.053106842707874</v>
       </c>
       <c r="F3">
-        <v>1.009610502051858</v>
+        <v>1.05866262094486</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044734614727589</v>
+        <v>1.063412666039083</v>
       </c>
       <c r="J3">
-        <v>1.021634482569348</v>
+        <v>1.056038285696991</v>
       </c>
       <c r="K3">
-        <v>1.02849824516979</v>
+        <v>1.058885618543231</v>
       </c>
       <c r="L3">
-        <v>1.019385536926468</v>
+        <v>1.063102478837218</v>
       </c>
       <c r="M3">
-        <v>1.020121873962681</v>
+        <v>1.068596139283124</v>
       </c>
       <c r="N3">
-        <v>1.015208842208215</v>
+        <v>1.057537981191965</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006188651163505</v>
+        <v>1.042457181644846</v>
       </c>
       <c r="D4">
-        <v>1.021862261180065</v>
+        <v>1.053567486549393</v>
       </c>
       <c r="E4">
-        <v>1.013549840937761</v>
+        <v>1.058839179971285</v>
       </c>
       <c r="F4">
-        <v>1.014833100369211</v>
+        <v>1.06449648912718</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046625543759488</v>
+        <v>1.065841924355374</v>
       </c>
       <c r="J4">
-        <v>1.025435364569527</v>
+        <v>1.060833834550135</v>
       </c>
       <c r="K4">
-        <v>1.031703798414233</v>
+        <v>1.063059686615747</v>
       </c>
       <c r="L4">
-        <v>1.023487436337223</v>
+        <v>1.068275775519738</v>
       </c>
       <c r="M4">
-        <v>1.024755739461955</v>
+        <v>1.073874160580458</v>
       </c>
       <c r="N4">
-        <v>1.017931608905627</v>
+        <v>1.062340340274537</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008256975753887</v>
+        <v>1.04490972191208</v>
       </c>
       <c r="D5">
-        <v>1.023418342083665</v>
+        <v>1.055511912680418</v>
       </c>
       <c r="E5">
-        <v>1.015484212310056</v>
+        <v>1.061198623632865</v>
       </c>
       <c r="F5">
-        <v>1.016989261056324</v>
+        <v>1.066898281513841</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047402038124632</v>
+        <v>1.066837458924259</v>
       </c>
       <c r="J5">
-        <v>1.027002156074752</v>
+        <v>1.062804495123405</v>
       </c>
       <c r="K5">
-        <v>1.033024384429373</v>
+        <v>1.064774546110841</v>
       </c>
       <c r="L5">
-        <v>1.025179273869133</v>
+        <v>1.070403048187959</v>
       </c>
       <c r="M5">
-        <v>1.026667304771019</v>
+        <v>1.076045122141407</v>
       </c>
       <c r="N5">
-        <v>1.019052899982774</v>
+        <v>1.06431379941186</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008602035826615</v>
+        <v>1.045318472508972</v>
       </c>
       <c r="D6">
-        <v>1.023677960587736</v>
+        <v>1.055835996950436</v>
       </c>
       <c r="E6">
-        <v>1.015806999914123</v>
+        <v>1.061591932444046</v>
       </c>
       <c r="F6">
-        <v>1.017349050248457</v>
+        <v>1.067298682288794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04753136092687</v>
+        <v>1.067003153392228</v>
       </c>
       <c r="J6">
-        <v>1.027263456444568</v>
+        <v>1.063132807885543</v>
       </c>
       <c r="K6">
-        <v>1.033244576155333</v>
+        <v>1.065060217135365</v>
       </c>
       <c r="L6">
-        <v>1.025461485306476</v>
+        <v>1.070757533748654</v>
       </c>
       <c r="M6">
-        <v>1.02698618862724</v>
+        <v>1.076406924538396</v>
       </c>
       <c r="N6">
-        <v>1.019239837851787</v>
+        <v>1.064642578415778</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006216438512219</v>
+        <v>1.042490158812272</v>
       </c>
       <c r="D7">
-        <v>1.021883165500885</v>
+        <v>1.053593630252733</v>
       </c>
       <c r="E7">
-        <v>1.013575823564557</v>
+        <v>1.058870900309321</v>
       </c>
       <c r="F7">
-        <v>1.014862062691431</v>
+        <v>1.06452877659802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046635990535227</v>
+        <v>1.06585532560069</v>
       </c>
       <c r="J7">
-        <v>1.025456419891304</v>
+        <v>1.060860340747915</v>
       </c>
       <c r="K7">
-        <v>1.031721548314338</v>
+        <v>1.063082753861949</v>
       </c>
       <c r="L7">
-        <v>1.023510168277373</v>
+        <v>1.06830438273917</v>
       </c>
       <c r="M7">
-        <v>1.024781422393209</v>
+        <v>1.073903352849898</v>
       </c>
       <c r="N7">
-        <v>1.017946681699333</v>
+        <v>1.062366884114159</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9959066216442545</v>
+        <v>1.03020058515238</v>
       </c>
       <c r="D8">
-        <v>1.014129918940803</v>
+        <v>1.043853710982447</v>
       </c>
       <c r="E8">
-        <v>1.003945047085323</v>
+        <v>1.047059107710905</v>
       </c>
       <c r="F8">
-        <v>1.004125325120243</v>
+        <v>1.052509754379126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04273416594854</v>
+        <v>1.060834511687453</v>
       </c>
       <c r="J8">
-        <v>1.017634234124493</v>
+        <v>1.050967585605428</v>
       </c>
       <c r="K8">
-        <v>1.02512183355093</v>
+        <v>1.054470698007123</v>
       </c>
       <c r="L8">
-        <v>1.015071844068267</v>
+        <v>1.057637242174325</v>
       </c>
       <c r="M8">
-        <v>1.015249704724035</v>
+        <v>1.063022495387846</v>
       </c>
       <c r="N8">
-        <v>1.012339557455377</v>
+        <v>1.052460080124655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9762765168804014</v>
+        <v>1.006470779143895</v>
       </c>
       <c r="D9">
-        <v>0.9993901253738665</v>
+        <v>1.025071511785958</v>
       </c>
       <c r="E9">
-        <v>0.9856593902295884</v>
+        <v>1.024304070268454</v>
       </c>
       <c r="F9">
-        <v>0.9837269119694644</v>
+        <v>1.029375548369685</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035183581422105</v>
+        <v>1.051013339068696</v>
       </c>
       <c r="J9">
-        <v>1.002695753020066</v>
+        <v>1.031797088688818</v>
       </c>
       <c r="K9">
-        <v>1.012493105124092</v>
+        <v>1.037770508095529</v>
       </c>
       <c r="L9">
-        <v>0.9989894992847442</v>
+        <v>1.03701476440916</v>
       </c>
       <c r="M9">
-        <v>0.9970896442320605</v>
+        <v>1.042009351406351</v>
       </c>
       <c r="N9">
-        <v>1.001596912043018</v>
+        <v>1.033262358903536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9619953867984222</v>
+        <v>0.9888898576092368</v>
       </c>
       <c r="D10">
-        <v>0.9886929598174454</v>
+        <v>1.011185141026654</v>
       </c>
       <c r="E10">
-        <v>0.9723983971621449</v>
+        <v>1.007489026407767</v>
       </c>
       <c r="F10">
-        <v>0.9689180018502042</v>
+        <v>1.012294931091484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029612313458861</v>
+        <v>1.043654809652151</v>
       </c>
       <c r="J10">
-        <v>0.9918024392801769</v>
+        <v>1.017551317405515</v>
       </c>
       <c r="K10">
-        <v>1.003269412143201</v>
+        <v>1.02535533889506</v>
       </c>
       <c r="L10">
-        <v>0.9872845549784586</v>
+        <v>1.021724367989625</v>
       </c>
       <c r="M10">
-        <v>0.9838720824379869</v>
+        <v>1.026445689290738</v>
       </c>
       <c r="N10">
-        <v>0.9937421826725127</v>
+        <v>1.018996356990999</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9554708684865807</v>
+        <v>0.9807541278437182</v>
       </c>
       <c r="D11">
-        <v>0.9838149020838645</v>
+        <v>1.004769366958148</v>
       </c>
       <c r="E11">
-        <v>0.9663517467225814</v>
+        <v>0.9997202978032347</v>
       </c>
       <c r="F11">
-        <v>0.9621599342433468</v>
+        <v>1.004407210773901</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027049714368429</v>
+        <v>1.040231337602538</v>
       </c>
       <c r="J11">
-        <v>0.9868210583658429</v>
+        <v>1.010950069618599</v>
       </c>
       <c r="K11">
-        <v>0.9990486394063987</v>
+        <v>1.01960189702459</v>
       </c>
       <c r="L11">
-        <v>0.9819373966118532</v>
+        <v>1.014647490826285</v>
       </c>
       <c r="M11">
-        <v>0.9778325697043706</v>
+        <v>1.019246489417356</v>
       </c>
       <c r="N11">
-        <v>0.9901459407852102</v>
+        <v>1.012385734675051</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.952990333962924</v>
+        <v>0.9776422611200678</v>
       </c>
       <c r="D12">
-        <v>0.9819619753742391</v>
+        <v>1.002317264049736</v>
       </c>
       <c r="E12">
-        <v>0.9640548448276455</v>
+        <v>0.9967509242085716</v>
       </c>
       <c r="F12">
-        <v>0.9595917590784842</v>
+        <v>1.00139293551503</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02607297637184</v>
+        <v>1.038919278076166</v>
       </c>
       <c r="J12">
-        <v>0.9849266483697895</v>
+        <v>1.008423935028304</v>
       </c>
       <c r="K12">
-        <v>0.9974431115264831</v>
+        <v>1.017400203188834</v>
       </c>
       <c r="L12">
-        <v>0.9799046923133686</v>
+        <v>1.011940637235889</v>
       </c>
       <c r="M12">
-        <v>0.9755363419905042</v>
+        <v>1.01649349764716</v>
       </c>
       <c r="N12">
-        <v>0.9887777029006646</v>
+        <v>1.009856012683886</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535251026139268</v>
+        <v>0.9783140430693641</v>
       </c>
       <c r="D13">
-        <v>0.9823613614049408</v>
+        <v>1.002846526390125</v>
       </c>
       <c r="E13">
-        <v>0.964549933578304</v>
+        <v>0.9973918456233827</v>
       </c>
       <c r="F13">
-        <v>0.9601453696701264</v>
+        <v>1.00204352217087</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026283656756664</v>
+        <v>1.039202636934038</v>
       </c>
       <c r="J13">
-        <v>0.9853350793511089</v>
+        <v>1.008969322057667</v>
       </c>
       <c r="K13">
-        <v>0.9977892760407732</v>
+        <v>1.017875542521571</v>
       </c>
       <c r="L13">
-        <v>0.9803429026685683</v>
+        <v>1.012524982416552</v>
       </c>
       <c r="M13">
-        <v>0.9760313796780826</v>
+        <v>1.017087773255247</v>
       </c>
       <c r="N13">
-        <v>0.9890727179182273</v>
+        <v>1.010402174225388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9552670275535332</v>
+        <v>0.9804988078130797</v>
       </c>
       <c r="D14">
-        <v>0.9836626005175091</v>
+        <v>1.004568138288013</v>
       </c>
       <c r="E14">
-        <v>0.9661629553439384</v>
+        <v>0.9994766247094049</v>
       </c>
       <c r="F14">
-        <v>0.9619488679372301</v>
+        <v>1.004159841100121</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02696949901088</v>
+        <v>1.040123738456126</v>
       </c>
       <c r="J14">
-        <v>0.9866653933040263</v>
+        <v>1.010742830597803</v>
       </c>
       <c r="K14">
-        <v>0.9989167192483281</v>
+        <v>1.01942127386623</v>
       </c>
       <c r="L14">
-        <v>0.9817703513809571</v>
+        <v>1.014425399704108</v>
       </c>
       <c r="M14">
-        <v>0.9776438758398895</v>
+        <v>1.019020599483278</v>
       </c>
       <c r="N14">
-        <v>0.9900335233044193</v>
+        <v>1.012178201351075</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9563325356033315</v>
+        <v>0.981832622496536</v>
       </c>
       <c r="D15">
-        <v>0.9844587728522068</v>
+        <v>1.005619453610331</v>
       </c>
       <c r="E15">
-        <v>0.9671498774312443</v>
+        <v>1.000749681875</v>
       </c>
       <c r="F15">
-        <v>0.9630521909276659</v>
+        <v>1.005452234449361</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027388697585345</v>
+        <v>1.040685741612283</v>
       </c>
       <c r="J15">
-        <v>0.9874790569723889</v>
+        <v>1.011825418206351</v>
       </c>
       <c r="K15">
-        <v>0.9996062530623929</v>
+        <v>1.020364824676756</v>
       </c>
       <c r="L15">
-        <v>0.98264353225137</v>
+        <v>1.015585625064374</v>
       </c>
       <c r="M15">
-        <v>0.9786302046489183</v>
+        <v>1.02020069663647</v>
       </c>
       <c r="N15">
-        <v>0.9906211075134532</v>
+        <v>1.013262326358202</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9624207411512641</v>
+        <v>0.989417865988749</v>
       </c>
       <c r="D16">
-        <v>0.9890111859496019</v>
+        <v>1.011601762509401</v>
       </c>
       <c r="E16">
-        <v>0.9727928555848809</v>
+        <v>1.007993492331138</v>
       </c>
       <c r="F16">
-        <v>0.9693587392889803</v>
+        <v>1.012807201620158</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029779031287894</v>
+        <v>1.043876629809043</v>
       </c>
       <c r="J16">
-        <v>0.9921271073806159</v>
+        <v>1.017979566654503</v>
       </c>
       <c r="K16">
-        <v>1.003544451783493</v>
+        <v>1.025728584152694</v>
       </c>
       <c r="L16">
-        <v>0.9876331740306493</v>
+        <v>1.022183648006583</v>
       </c>
       <c r="M16">
-        <v>0.9842658031671381</v>
+        <v>1.026912995038064</v>
       </c>
       <c r="N16">
-        <v>0.9939764875439713</v>
+        <v>1.019425214403041</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9661446516568435</v>
+        <v>0.9940285685763544</v>
       </c>
       <c r="D17">
-        <v>0.9917982546676324</v>
+        <v>1.015240985968962</v>
       </c>
       <c r="E17">
-        <v>0.9762476210588802</v>
+        <v>1.012400041330527</v>
       </c>
       <c r="F17">
-        <v>0.9732181781173046</v>
+        <v>1.017282340178218</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031236691910353</v>
+        <v>1.045811599825964</v>
       </c>
       <c r="J17">
-        <v>0.9949690205380485</v>
+        <v>1.021718170062196</v>
       </c>
       <c r="K17">
-        <v>1.00595163484757</v>
+        <v>1.028986960445924</v>
       </c>
       <c r="L17">
-        <v>0.9906853396886371</v>
+        <v>1.026194090848199</v>
       </c>
       <c r="M17">
-        <v>0.9877126705917937</v>
+        <v>1.030993984174428</v>
       </c>
       <c r="N17">
-        <v>0.9960269418717491</v>
+        <v>1.023169127056397</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9682843148173947</v>
+        <v>0.9966683186637079</v>
       </c>
       <c r="D18">
-        <v>0.9934004609483454</v>
+        <v>1.017325465054833</v>
       </c>
       <c r="E18">
-        <v>0.9782337303320738</v>
+        <v>1.014924057917407</v>
       </c>
       <c r="F18">
-        <v>0.9754364189177579</v>
+        <v>1.019845986161994</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032072602016139</v>
+        <v>1.046917721022949</v>
       </c>
       <c r="J18">
-        <v>0.9966014683235394</v>
+        <v>1.023857786487107</v>
       </c>
       <c r="K18">
-        <v>1.007334091770981</v>
+        <v>1.030851692817984</v>
       </c>
       <c r="L18">
-        <v>0.9924390616389976</v>
+        <v>1.028490060901144</v>
       </c>
       <c r="M18">
-        <v>0.9896930644725249</v>
+        <v>1.033330724871276</v>
       </c>
       <c r="N18">
-        <v>0.9972043487050054</v>
+        <v>1.025311781982048</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9690085466377587</v>
+        <v>0.9975602996136604</v>
       </c>
       <c r="D19">
-        <v>0.9939429075393472</v>
+        <v>1.018029965943937</v>
       </c>
       <c r="E19">
-        <v>0.9789061673208489</v>
+        <v>1.015777121188311</v>
       </c>
       <c r="F19">
-        <v>0.9761873670977853</v>
+        <v>1.020712500748371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032355261374036</v>
+        <v>1.047291191149444</v>
       </c>
       <c r="J19">
-        <v>0.9971539393566637</v>
+        <v>1.024580625487632</v>
       </c>
       <c r="K19">
-        <v>1.007801910084477</v>
+        <v>1.031481655922662</v>
       </c>
       <c r="L19">
-        <v>0.9930326605595658</v>
+        <v>1.029265853201554</v>
       </c>
       <c r="M19">
-        <v>0.9903633707417144</v>
+        <v>1.034120357588707</v>
       </c>
       <c r="N19">
-        <v>0.9976027480967143</v>
+        <v>1.026035647496865</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9657485050882473</v>
+        <v>0.9935390879496332</v>
       </c>
       <c r="D20">
-        <v>0.9915016805332758</v>
+        <v>1.014854540562602</v>
       </c>
       <c r="E20">
-        <v>0.9758799913435445</v>
+        <v>1.01193211277842</v>
       </c>
       <c r="F20">
-        <v>0.9728075405541633</v>
+        <v>1.01680709236105</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031081795293392</v>
+        <v>1.045606356142034</v>
       </c>
       <c r="J20">
-        <v>0.9946667452294763</v>
+        <v>1.021321359048062</v>
       </c>
       <c r="K20">
-        <v>1.005695626974182</v>
+        <v>1.028641124718922</v>
       </c>
       <c r="L20">
-        <v>0.9903606490583302</v>
+        <v>1.025768345790018</v>
       </c>
       <c r="M20">
-        <v>0.9873460044112151</v>
+        <v>1.030560709915723</v>
       </c>
       <c r="N20">
-        <v>0.995808891228793</v>
+        <v>1.022771752525107</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9547557004173723</v>
+        <v>0.9798580335012679</v>
       </c>
       <c r="D21">
-        <v>0.9832805853510593</v>
+        <v>1.004063148181604</v>
       </c>
       <c r="E21">
-        <v>0.965689411470013</v>
+        <v>0.9988651154031913</v>
       </c>
       <c r="F21">
-        <v>0.961419434774235</v>
+        <v>1.003539064426663</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026768242626431</v>
+        <v>1.039853656662721</v>
       </c>
       <c r="J21">
-        <v>0.9862749050731739</v>
+        <v>1.010222706060678</v>
       </c>
       <c r="K21">
-        <v>0.9985857896539555</v>
+        <v>1.018967949693921</v>
       </c>
       <c r="L21">
-        <v>0.9813513288429565</v>
+        <v>1.0138680204666</v>
       </c>
       <c r="M21">
-        <v>0.9771705433423425</v>
+        <v>1.018453696922171</v>
       </c>
       <c r="N21">
-        <v>0.9897515129960605</v>
+        <v>1.011657338177448</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9475104387450014</v>
+        <v>0.9707285926479434</v>
       </c>
       <c r="D22">
-        <v>0.9778719550739545</v>
+        <v>0.9968733532458643</v>
       </c>
       <c r="E22">
-        <v>0.95898445843012</v>
+        <v>0.9901580518824034</v>
       </c>
       <c r="F22">
-        <v>0.9539203959991662</v>
+        <v>0.9947014710670198</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023910791681378</v>
+        <v>1.035999614686351</v>
       </c>
       <c r="J22">
-        <v>0.9807407418232217</v>
+        <v>1.002809553358997</v>
       </c>
       <c r="K22">
-        <v>0.9938948982139453</v>
+        <v>1.012507005126522</v>
       </c>
       <c r="L22">
-        <v>0.9754147117731665</v>
+        <v>1.005927033906094</v>
       </c>
       <c r="M22">
-        <v>0.9704635115366349</v>
+        <v>1.010378628715606</v>
       </c>
       <c r="N22">
-        <v>0.9857534106037638</v>
+        <v>1.00423365794863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9513851327450343</v>
+        <v>0.9756227422303569</v>
       </c>
       <c r="D23">
-        <v>0.9807634137657552</v>
+        <v>1.000726497128277</v>
       </c>
       <c r="E23">
-        <v>0.9625690514967482</v>
+        <v>0.9948245090317253</v>
       </c>
       <c r="F23">
-        <v>0.9579301703918626</v>
+        <v>0.9994375564857724</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025440230734255</v>
+        <v>1.03806707188345</v>
       </c>
       <c r="J23">
-        <v>0.9837006021198016</v>
+        <v>1.00678422267676</v>
       </c>
       <c r="K23">
-        <v>0.9964039293286018</v>
+        <v>1.015971097541762</v>
       </c>
       <c r="L23">
-        <v>0.9785893721032832</v>
+        <v>1.010183988542425</v>
       </c>
       <c r="M23">
-        <v>0.9740503917440776</v>
+        <v>1.014707093680513</v>
       </c>
       <c r="N23">
-        <v>0.987892031970606</v>
+        <v>1.008213971752725</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9659276064603071</v>
+        <v>0.9937604156060696</v>
       </c>
       <c r="D24">
-        <v>0.9916357617703543</v>
+        <v>1.015029276090462</v>
       </c>
       <c r="E24">
-        <v>0.9760461966171623</v>
+        <v>1.012143691703524</v>
       </c>
       <c r="F24">
-        <v>0.9729931912369957</v>
+        <v>1.017021979706785</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031151830485799</v>
+        <v>1.04569916615037</v>
       </c>
       <c r="J24">
-        <v>0.9948034079593876</v>
+        <v>1.021500787043083</v>
       </c>
       <c r="K24">
-        <v>1.00581137243058</v>
+        <v>1.028797503122707</v>
       </c>
       <c r="L24">
-        <v>0.9905074444978104</v>
+        <v>1.02596085461012</v>
       </c>
       <c r="M24">
-        <v>0.9875117777143287</v>
+        <v>1.030756622017574</v>
       </c>
       <c r="N24">
-        <v>0.9959074761420977</v>
+        <v>1.022951435328463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9815446893216802</v>
+        <v>1.012885264277776</v>
       </c>
       <c r="D25">
-        <v>1.003342274168164</v>
+        <v>1.030144684672905</v>
       </c>
       <c r="E25">
-        <v>0.9905601723022199</v>
+        <v>1.030448358167636</v>
       </c>
       <c r="F25">
-        <v>0.9891960619769826</v>
+        <v>1.035619834520479</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037223518760619</v>
+        <v>1.053682260133021</v>
       </c>
       <c r="J25">
-        <v>1.00670952074147</v>
+        <v>1.036986635220822</v>
       </c>
       <c r="K25">
-        <v>1.015888926259271</v>
+        <v>1.042292395728611</v>
       </c>
       <c r="L25">
-        <v>1.003306818587189</v>
+        <v>1.042591699813713</v>
       </c>
       <c r="M25">
-        <v>1.001964442921963</v>
+        <v>1.047689263895113</v>
       </c>
       <c r="N25">
-        <v>1.004487056978379</v>
+        <v>1.038459275186865</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026907460401786</v>
+        <v>1.018782551504693</v>
       </c>
       <c r="D2">
-        <v>1.041245026593897</v>
+        <v>1.037911278714383</v>
       </c>
       <c r="E2">
-        <v>1.043897176543732</v>
+        <v>1.037344023772018</v>
       </c>
       <c r="F2">
-        <v>1.04929362997873</v>
+        <v>1.045827883952218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059480754780076</v>
+        <v>1.057452042887033</v>
       </c>
       <c r="J2">
-        <v>1.048312115130522</v>
+        <v>1.040415634109727</v>
       </c>
       <c r="K2">
-        <v>1.052158170262422</v>
+        <v>1.048866555704276</v>
       </c>
       <c r="L2">
-        <v>1.054777040828656</v>
+        <v>1.048306503636138</v>
       </c>
       <c r="M2">
-        <v>1.060106425769298</v>
+        <v>1.056683653846761</v>
       </c>
       <c r="N2">
-        <v>1.049800838577088</v>
+        <v>1.041893143647503</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036495386692646</v>
+        <v>1.023777956546442</v>
       </c>
       <c r="D3">
-        <v>1.048841744889792</v>
+        <v>1.041691115356054</v>
       </c>
       <c r="E3">
-        <v>1.053106842707874</v>
+        <v>1.041822926968995</v>
       </c>
       <c r="F3">
-        <v>1.05866262094486</v>
+        <v>1.050232038908366</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.063412666039083</v>
+        <v>1.058990014336124</v>
       </c>
       <c r="J3">
-        <v>1.056038285696991</v>
+        <v>1.04364075030825</v>
       </c>
       <c r="K3">
-        <v>1.058885618543231</v>
+        <v>1.051816956092317</v>
       </c>
       <c r="L3">
-        <v>1.063102478837218</v>
+        <v>1.051947244184725</v>
       </c>
       <c r="M3">
-        <v>1.068596139283124</v>
+        <v>1.060260135519613</v>
       </c>
       <c r="N3">
-        <v>1.057537981191965</v>
+        <v>1.045122839880955</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.042457181644846</v>
+        <v>1.026941391975577</v>
       </c>
       <c r="D4">
-        <v>1.053567486549393</v>
+        <v>1.044085735082592</v>
       </c>
       <c r="E4">
-        <v>1.058839179971285</v>
+        <v>1.044664116594701</v>
       </c>
       <c r="F4">
-        <v>1.06449648912718</v>
+        <v>1.053024649719058</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.065841924355374</v>
+        <v>1.059950310258556</v>
       </c>
       <c r="J4">
-        <v>1.060833834550135</v>
+        <v>1.045680169515635</v>
       </c>
       <c r="K4">
-        <v>1.063059686615747</v>
+        <v>1.053679679327143</v>
       </c>
       <c r="L4">
-        <v>1.068275775519738</v>
+        <v>1.054251789631028</v>
       </c>
       <c r="M4">
-        <v>1.073874160580458</v>
+        <v>1.062522614184781</v>
       </c>
       <c r="N4">
-        <v>1.062340340274537</v>
+        <v>1.047165155297539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04490972191208</v>
+        <v>1.028255429987461</v>
       </c>
       <c r="D5">
-        <v>1.055511912680418</v>
+        <v>1.045080590831934</v>
       </c>
       <c r="E5">
-        <v>1.061198623632865</v>
+        <v>1.045845415985501</v>
       </c>
       <c r="F5">
-        <v>1.066898281513841</v>
+        <v>1.054185463747495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066837458924259</v>
+        <v>1.060345874450147</v>
       </c>
       <c r="J5">
-        <v>1.062804495123405</v>
+        <v>1.04652656495952</v>
       </c>
       <c r="K5">
-        <v>1.064774546110841</v>
+        <v>1.054452011881249</v>
       </c>
       <c r="L5">
-        <v>1.070403048187959</v>
+        <v>1.0552087705866</v>
       </c>
       <c r="M5">
-        <v>1.076045122141407</v>
+        <v>1.06346178483581</v>
       </c>
       <c r="N5">
-        <v>1.06431379941186</v>
+        <v>1.048012752720038</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045318472508972</v>
+        <v>1.028475149819342</v>
       </c>
       <c r="D6">
-        <v>1.055835996950436</v>
+        <v>1.045246948625502</v>
       </c>
       <c r="E6">
-        <v>1.061591932444046</v>
+        <v>1.046043005050746</v>
       </c>
       <c r="F6">
-        <v>1.067298682288794</v>
+        <v>1.054379609205428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067003153392228</v>
+        <v>1.060411819583291</v>
       </c>
       <c r="J6">
-        <v>1.063132807885543</v>
+        <v>1.046668045559125</v>
       </c>
       <c r="K6">
-        <v>1.065060217135365</v>
+        <v>1.05458106893264</v>
       </c>
       <c r="L6">
-        <v>1.070757533748654</v>
+        <v>1.055368768843994</v>
       </c>
       <c r="M6">
-        <v>1.076406924538396</v>
+        <v>1.063618785061172</v>
       </c>
       <c r="N6">
-        <v>1.064642578415778</v>
+        <v>1.048154434238322</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.042490158812272</v>
+        <v>1.026959011764716</v>
       </c>
       <c r="D7">
-        <v>1.053593630252733</v>
+        <v>1.044099074395988</v>
       </c>
       <c r="E7">
-        <v>1.058870900309321</v>
+        <v>1.04467995215045</v>
       </c>
       <c r="F7">
-        <v>1.06452877659802</v>
+        <v>1.053040211810771</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.06585532560069</v>
+        <v>1.059955627544315</v>
       </c>
       <c r="J7">
-        <v>1.060860340747915</v>
+        <v>1.045691521730833</v>
       </c>
       <c r="K7">
-        <v>1.063082753861949</v>
+        <v>1.053690041089794</v>
       </c>
       <c r="L7">
-        <v>1.06830438273917</v>
+        <v>1.054264622877869</v>
       </c>
       <c r="M7">
-        <v>1.073903352849898</v>
+        <v>1.062535209953605</v>
       </c>
       <c r="N7">
-        <v>1.062366884114159</v>
+        <v>1.047176523634185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03020058515238</v>
+        <v>1.020485434308182</v>
       </c>
       <c r="D8">
-        <v>1.043853710982447</v>
+        <v>1.039199545890612</v>
       </c>
       <c r="E8">
-        <v>1.047059107710905</v>
+        <v>1.038869793375153</v>
       </c>
       <c r="F8">
-        <v>1.052509754379126</v>
+        <v>1.047328428337837</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060834511687453</v>
+        <v>1.057979155475206</v>
       </c>
       <c r="J8">
-        <v>1.050967585605428</v>
+        <v>1.041515638222914</v>
       </c>
       <c r="K8">
-        <v>1.054470698007123</v>
+        <v>1.049873476741421</v>
       </c>
       <c r="L8">
-        <v>1.057637242174325</v>
+        <v>1.049547782838919</v>
       </c>
       <c r="M8">
-        <v>1.063022495387846</v>
+        <v>1.0579033118167</v>
       </c>
       <c r="N8">
-        <v>1.052460080124655</v>
+        <v>1.042994709892704</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006470779143895</v>
+        <v>1.008520091768426</v>
       </c>
       <c r="D9">
-        <v>1.025071511785958</v>
+        <v>1.030154248091733</v>
       </c>
       <c r="E9">
-        <v>1.024304070268454</v>
+        <v>1.02817144545673</v>
       </c>
       <c r="F9">
-        <v>1.029375548369685</v>
+        <v>1.036802392423842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051013339068696</v>
+        <v>1.054219452509396</v>
       </c>
       <c r="J9">
-        <v>1.031797088688818</v>
+        <v>1.033775529941046</v>
       </c>
       <c r="K9">
-        <v>1.037770508095529</v>
+        <v>1.042776330246834</v>
       </c>
       <c r="L9">
-        <v>1.03701476440916</v>
+        <v>1.040823417004763</v>
       </c>
       <c r="M9">
-        <v>1.042009351406351</v>
+        <v>1.049325318514341</v>
       </c>
       <c r="N9">
-        <v>1.033262358903536</v>
+        <v>1.035243609769273</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9888898576092368</v>
+        <v>1.000122713477379</v>
       </c>
       <c r="D10">
-        <v>1.011185141026654</v>
+        <v>1.023817833761928</v>
       </c>
       <c r="E10">
-        <v>1.007489026407767</v>
+        <v>1.020694179617931</v>
       </c>
       <c r="F10">
-        <v>1.012294931091484</v>
+        <v>1.029440184497737</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043654809652151</v>
+        <v>1.051512091891675</v>
       </c>
       <c r="J10">
-        <v>1.017551317405515</v>
+        <v>1.028331463527808</v>
       </c>
       <c r="K10">
-        <v>1.02535533889506</v>
+        <v>1.037769966042073</v>
       </c>
       <c r="L10">
-        <v>1.021724367989625</v>
+        <v>1.034699583314378</v>
       </c>
       <c r="M10">
-        <v>1.026445689290738</v>
+        <v>1.043297482106065</v>
       </c>
       <c r="N10">
-        <v>1.018996356990999</v>
+        <v>1.029791812157285</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9807541278437182</v>
+        <v>0.9963757396410463</v>
       </c>
       <c r="D11">
-        <v>1.004769366958148</v>
+        <v>1.020994296328278</v>
       </c>
       <c r="E11">
-        <v>0.9997202978032347</v>
+        <v>1.01736589907904</v>
       </c>
       <c r="F11">
-        <v>1.004407210773901</v>
+        <v>1.026161987015352</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040231337602538</v>
+        <v>1.050288525913376</v>
       </c>
       <c r="J11">
-        <v>1.010950069618599</v>
+        <v>1.025900073224089</v>
       </c>
       <c r="K11">
-        <v>1.01960189702459</v>
+        <v>1.035530861803911</v>
       </c>
       <c r="L11">
-        <v>1.014647490826285</v>
+        <v>1.031967586183787</v>
       </c>
       <c r="M11">
-        <v>1.019246489417356</v>
+        <v>1.04060683476793</v>
       </c>
       <c r="N11">
-        <v>1.012385734675051</v>
+        <v>1.02735696900045</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9776422611200678</v>
+        <v>0.9949662622424646</v>
       </c>
       <c r="D12">
-        <v>1.002317264049736</v>
+        <v>1.019932851670802</v>
       </c>
       <c r="E12">
-        <v>0.9967509242085716</v>
+        <v>1.016115213223471</v>
       </c>
       <c r="F12">
-        <v>1.00139293551503</v>
+        <v>1.024929964131171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038919278076166</v>
+        <v>1.049826003443337</v>
       </c>
       <c r="J12">
-        <v>1.008423935028304</v>
+        <v>1.024985197369004</v>
       </c>
       <c r="K12">
-        <v>1.017400203188834</v>
+        <v>1.034687880452721</v>
       </c>
       <c r="L12">
-        <v>1.011940637235889</v>
+        <v>1.030940049451987</v>
       </c>
       <c r="M12">
-        <v>1.01649349764716</v>
+        <v>1.039594639271611</v>
       </c>
       <c r="N12">
-        <v>1.009856012683886</v>
+        <v>1.026440793916713</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9783140430693641</v>
+        <v>0.9952694176199657</v>
       </c>
       <c r="D13">
-        <v>1.002846526390125</v>
+        <v>1.020161119124937</v>
       </c>
       <c r="E13">
-        <v>0.9973918456233827</v>
+        <v>1.016384155484123</v>
       </c>
       <c r="F13">
-        <v>1.00204352217087</v>
+        <v>1.025194900061252</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039202636934038</v>
+        <v>1.049925585358449</v>
       </c>
       <c r="J13">
-        <v>1.008969322057667</v>
+        <v>1.025181983511669</v>
       </c>
       <c r="K13">
-        <v>1.017875542521571</v>
+        <v>1.03486922271253</v>
       </c>
       <c r="L13">
-        <v>1.012524982416552</v>
+        <v>1.031161048113511</v>
       </c>
       <c r="M13">
-        <v>1.017087773255247</v>
+        <v>1.039812347744982</v>
       </c>
       <c r="N13">
-        <v>1.010402174225388</v>
+        <v>1.026637859518273</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9804988078130797</v>
+        <v>0.9962595988008367</v>
       </c>
       <c r="D14">
-        <v>1.004568138288013</v>
+        <v>1.020906819199135</v>
       </c>
       <c r="E14">
-        <v>0.9994766247094049</v>
+        <v>1.017262815922733</v>
       </c>
       <c r="F14">
-        <v>1.004159841100121</v>
+        <v>1.026060445199133</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040123738456126</v>
+        <v>1.050250459608332</v>
       </c>
       <c r="J14">
-        <v>1.010742830597803</v>
+        <v>1.025824692738308</v>
       </c>
       <c r="K14">
-        <v>1.01942127386623</v>
+        <v>1.035461414190779</v>
       </c>
       <c r="L14">
-        <v>1.014425399704108</v>
+        <v>1.031882913926868</v>
       </c>
       <c r="M14">
-        <v>1.019020599483278</v>
+        <v>1.040523430897664</v>
       </c>
       <c r="N14">
-        <v>1.012178201351075</v>
+        <v>1.027281481465733</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.981832622496536</v>
+        <v>0.9968673065622062</v>
       </c>
       <c r="D15">
-        <v>1.005619453610331</v>
+        <v>1.021364571731655</v>
       </c>
       <c r="E15">
-        <v>1.000749681875</v>
+        <v>1.017802252432021</v>
       </c>
       <c r="F15">
-        <v>1.005452234449361</v>
+        <v>1.026591809519886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040685741612283</v>
+        <v>1.050449550133972</v>
       </c>
       <c r="J15">
-        <v>1.011825418206351</v>
+        <v>1.026219110851007</v>
       </c>
       <c r="K15">
-        <v>1.020364824676756</v>
+        <v>1.03582477081903</v>
       </c>
       <c r="L15">
-        <v>1.015585625064374</v>
+        <v>1.032325968331392</v>
       </c>
       <c r="M15">
-        <v>1.02020069663647</v>
+        <v>1.040959839839291</v>
       </c>
       <c r="N15">
-        <v>1.013262326358202</v>
+        <v>1.027676459697393</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.989417865988749</v>
+        <v>1.000368966137953</v>
       </c>
       <c r="D16">
-        <v>1.011601762509401</v>
+        <v>1.024003485212727</v>
       </c>
       <c r="E16">
-        <v>1.007993492331138</v>
+        <v>1.020913090868973</v>
       </c>
       <c r="F16">
-        <v>1.012807201620158</v>
+        <v>1.029655779134113</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043876629809043</v>
+        <v>1.051592187974719</v>
       </c>
       <c r="J16">
-        <v>1.017979566654503</v>
+        <v>1.028491214354443</v>
       </c>
       <c r="K16">
-        <v>1.025728584152694</v>
+        <v>1.037917018306602</v>
       </c>
       <c r="L16">
-        <v>1.022183648006583</v>
+        <v>1.034879147348479</v>
       </c>
       <c r="M16">
-        <v>1.026912995038064</v>
+        <v>1.043474298536875</v>
       </c>
       <c r="N16">
-        <v>1.019425214403041</v>
+        <v>1.029951789848417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9940285685763544</v>
+        <v>1.002535083761737</v>
       </c>
       <c r="D17">
-        <v>1.015240985968962</v>
+        <v>1.025636980333164</v>
       </c>
       <c r="E17">
-        <v>1.012400041330527</v>
+        <v>1.022839637637699</v>
       </c>
       <c r="F17">
-        <v>1.017282340178218</v>
+        <v>1.031553010437825</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045811599825964</v>
+        <v>1.052294982410839</v>
       </c>
       <c r="J17">
-        <v>1.021718170062196</v>
+        <v>1.029896189811345</v>
       </c>
       <c r="K17">
-        <v>1.028986960445924</v>
+        <v>1.039209951745218</v>
       </c>
       <c r="L17">
-        <v>1.026194090848199</v>
+        <v>1.036458715415337</v>
       </c>
       <c r="M17">
-        <v>1.030993984174428</v>
+        <v>1.045029530127727</v>
       </c>
       <c r="N17">
-        <v>1.023169127056397</v>
+        <v>1.031358760531621</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9966683186637079</v>
+        <v>1.003787921458496</v>
       </c>
       <c r="D18">
-        <v>1.017325465054833</v>
+        <v>1.026582115525219</v>
       </c>
       <c r="E18">
-        <v>1.014924057917407</v>
+        <v>1.023954678181841</v>
       </c>
       <c r="F18">
-        <v>1.019845986161994</v>
+        <v>1.032650975589728</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046917721022949</v>
+        <v>1.052699988459753</v>
       </c>
       <c r="J18">
-        <v>1.023857786487107</v>
+        <v>1.030708585539177</v>
       </c>
       <c r="K18">
-        <v>1.030851692817984</v>
+        <v>1.039957257325514</v>
       </c>
       <c r="L18">
-        <v>1.028490060901144</v>
+        <v>1.037372348114155</v>
       </c>
       <c r="M18">
-        <v>1.033330724871276</v>
+        <v>1.045928945705335</v>
       </c>
       <c r="N18">
-        <v>1.025311781982048</v>
+        <v>1.03217230995457</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9975602996136604</v>
+        <v>1.004213335025838</v>
       </c>
       <c r="D19">
-        <v>1.018029965943937</v>
+        <v>1.026903103156915</v>
       </c>
       <c r="E19">
-        <v>1.015777121188311</v>
+        <v>1.024333429146388</v>
       </c>
       <c r="F19">
-        <v>1.020712500748371</v>
+        <v>1.033023907734562</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047291191149444</v>
+        <v>1.052837259927155</v>
       </c>
       <c r="J19">
-        <v>1.024580625487632</v>
+        <v>1.030984404826548</v>
       </c>
       <c r="K19">
-        <v>1.031481655922662</v>
+        <v>1.040210925363462</v>
       </c>
       <c r="L19">
-        <v>1.029265853201554</v>
+        <v>1.037682586617714</v>
       </c>
       <c r="M19">
-        <v>1.034120357588707</v>
+        <v>1.046234332367261</v>
       </c>
       <c r="N19">
-        <v>1.026035647496865</v>
+        <v>1.032448520936966</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9935390879496332</v>
+        <v>1.00230378571802</v>
       </c>
       <c r="D20">
-        <v>1.014854540562602</v>
+        <v>1.02546251818549</v>
       </c>
       <c r="E20">
-        <v>1.01193211277842</v>
+        <v>1.02263384101401</v>
       </c>
       <c r="F20">
-        <v>1.01680709236105</v>
+        <v>1.031350356479764</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045606356142034</v>
+        <v>1.05222009066495</v>
       </c>
       <c r="J20">
-        <v>1.021321359048062</v>
+        <v>1.029746188239432</v>
       </c>
       <c r="K20">
-        <v>1.028641124718922</v>
+        <v>1.039071943721022</v>
       </c>
       <c r="L20">
-        <v>1.025768345790018</v>
+        <v>1.036290044191846</v>
       </c>
       <c r="M20">
-        <v>1.030560709915723</v>
+        <v>1.044863472157607</v>
       </c>
       <c r="N20">
-        <v>1.022771752525107</v>
+        <v>1.03120854594027</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9798580335012679</v>
+        <v>0.9959685119809191</v>
       </c>
       <c r="D21">
-        <v>1.004063148181604</v>
+        <v>1.020687584095309</v>
       </c>
       <c r="E21">
-        <v>0.9988651154031913</v>
+        <v>1.017004477012665</v>
       </c>
       <c r="F21">
-        <v>1.003539064426663</v>
+        <v>1.025805966590914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039853656662721</v>
+        <v>1.050155016873332</v>
       </c>
       <c r="J21">
-        <v>1.010222706060678</v>
+        <v>1.025635760449961</v>
       </c>
       <c r="K21">
-        <v>1.018967949693921</v>
+        <v>1.035287344643851</v>
       </c>
       <c r="L21">
-        <v>1.0138680204666</v>
+        <v>1.031670700173288</v>
       </c>
       <c r="M21">
-        <v>1.018453696922171</v>
+        <v>1.040314392738158</v>
       </c>
       <c r="N21">
-        <v>1.011657338177448</v>
+        <v>1.027092280871866</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9707285926479434</v>
+        <v>0.9918823861258882</v>
       </c>
       <c r="D22">
-        <v>0.9968733532458643</v>
+        <v>1.017611797082137</v>
       </c>
       <c r="E22">
-        <v>0.9901580518824034</v>
+        <v>1.013381230692003</v>
       </c>
       <c r="F22">
-        <v>0.9947014710670198</v>
+        <v>1.02223650494844</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035999614686351</v>
+        <v>1.048809946961869</v>
       </c>
       <c r="J22">
-        <v>1.002809553358997</v>
+        <v>1.022983050911576</v>
       </c>
       <c r="K22">
-        <v>1.012507005126522</v>
+        <v>1.032842252498651</v>
       </c>
       <c r="L22">
-        <v>1.005927033906094</v>
+        <v>1.028692183288542</v>
       </c>
       <c r="M22">
-        <v>1.010378628715606</v>
+        <v>1.037379958645575</v>
       </c>
       <c r="N22">
-        <v>1.00423365794863</v>
+        <v>1.024435804181667</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9756227422303569</v>
+        <v>0.9940586369369417</v>
       </c>
       <c r="D23">
-        <v>1.000726497128277</v>
+        <v>1.0192495410788</v>
       </c>
       <c r="E23">
-        <v>0.9948245090317253</v>
+        <v>1.015310214982486</v>
       </c>
       <c r="F23">
-        <v>0.9994375564857724</v>
+        <v>1.024136935678214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03806707188345</v>
+        <v>1.049527536745335</v>
       </c>
       <c r="J23">
-        <v>1.00678422267676</v>
+        <v>1.024395998348256</v>
       </c>
       <c r="K23">
-        <v>1.015971097541762</v>
+        <v>1.034144856677418</v>
       </c>
       <c r="L23">
-        <v>1.010183988542425</v>
+        <v>1.030278421719385</v>
       </c>
       <c r="M23">
-        <v>1.014707093680513</v>
+        <v>1.038942831699993</v>
       </c>
       <c r="N23">
-        <v>1.008213971752725</v>
+        <v>1.025850758165774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9937604156060696</v>
+        <v>1.002408332097653</v>
       </c>
       <c r="D24">
-        <v>1.015029276090462</v>
+        <v>1.025541373727825</v>
       </c>
       <c r="E24">
-        <v>1.012143691703524</v>
+        <v>1.022726858419683</v>
       </c>
       <c r="F24">
-        <v>1.017021979706785</v>
+        <v>1.031441953778012</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04569916615037</v>
+        <v>1.052253946207295</v>
       </c>
       <c r="J24">
-        <v>1.021500787043083</v>
+        <v>1.029813989397042</v>
       </c>
       <c r="K24">
-        <v>1.028797503122707</v>
+        <v>1.03913432470496</v>
       </c>
       <c r="L24">
-        <v>1.02596085461012</v>
+        <v>1.03636628321096</v>
       </c>
       <c r="M24">
-        <v>1.030756622017574</v>
+        <v>1.04493853042929</v>
       </c>
       <c r="N24">
-        <v>1.022951435328463</v>
+        <v>1.031276443383301</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.012885264277776</v>
+        <v>1.011684015899154</v>
       </c>
       <c r="D25">
-        <v>1.030144684672905</v>
+        <v>1.032544367055771</v>
       </c>
       <c r="E25">
-        <v>1.030448358167636</v>
+        <v>1.030995272268749</v>
       </c>
       <c r="F25">
-        <v>1.035619834520479</v>
+        <v>1.039581708984902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053682260133021</v>
+        <v>1.055225691578039</v>
       </c>
       <c r="J25">
-        <v>1.036986635220822</v>
+        <v>1.035824464344032</v>
       </c>
       <c r="K25">
-        <v>1.042292395728611</v>
+        <v>1.044657638977423</v>
       </c>
       <c r="L25">
-        <v>1.042591699813713</v>
+        <v>1.04313075285661</v>
       </c>
       <c r="M25">
-        <v>1.047689263895113</v>
+        <v>1.051595142623333</v>
       </c>
       <c r="N25">
-        <v>1.038459275186865</v>
+        <v>1.037295453894128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018782551504693</v>
+        <v>1.049949195306054</v>
       </c>
       <c r="D2">
-        <v>1.037911278714383</v>
+        <v>1.054878083059933</v>
       </c>
       <c r="E2">
-        <v>1.037344023772018</v>
+        <v>1.062921069477074</v>
       </c>
       <c r="F2">
-        <v>1.045827883952218</v>
+        <v>1.068902345652393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057452042887033</v>
+        <v>1.044522586718311</v>
       </c>
       <c r="J2">
-        <v>1.040415634109727</v>
+        <v>1.054984936093648</v>
       </c>
       <c r="K2">
-        <v>1.048866555704276</v>
+        <v>1.057620081779423</v>
       </c>
       <c r="L2">
-        <v>1.048306503636138</v>
+        <v>1.065641108326689</v>
       </c>
       <c r="M2">
-        <v>1.056683653846761</v>
+        <v>1.071606285526605</v>
       </c>
       <c r="N2">
-        <v>1.041893143647503</v>
+        <v>1.056483135711364</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.023777956546442</v>
+        <v>1.051005769824119</v>
       </c>
       <c r="D3">
-        <v>1.041691115356054</v>
+        <v>1.055686556673284</v>
       </c>
       <c r="E3">
-        <v>1.041822926968995</v>
+        <v>1.063917271918247</v>
       </c>
       <c r="F3">
-        <v>1.050232038908366</v>
+        <v>1.069872227999325</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058990014336124</v>
+        <v>1.044758878757909</v>
       </c>
       <c r="J3">
-        <v>1.04364075030825</v>
+        <v>1.055690472685513</v>
       </c>
       <c r="K3">
-        <v>1.051816956092317</v>
+        <v>1.058241898211722</v>
       </c>
       <c r="L3">
-        <v>1.051947244184725</v>
+        <v>1.066451765450334</v>
       </c>
       <c r="M3">
-        <v>1.060260135519613</v>
+        <v>1.072391853257151</v>
       </c>
       <c r="N3">
-        <v>1.045122839880955</v>
+        <v>1.057189674246116</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026941391975577</v>
+        <v>1.051689741089316</v>
       </c>
       <c r="D4">
-        <v>1.044085735082592</v>
+        <v>1.056209649899412</v>
       </c>
       <c r="E4">
-        <v>1.044664116594701</v>
+        <v>1.064562430404167</v>
       </c>
       <c r="F4">
-        <v>1.053024649719058</v>
+        <v>1.070500159464865</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059950310258556</v>
+        <v>1.044910147673852</v>
       </c>
       <c r="J4">
-        <v>1.045680169515635</v>
+        <v>1.056146703375557</v>
       </c>
       <c r="K4">
-        <v>1.053679679327143</v>
+        <v>1.058643558337905</v>
       </c>
       <c r="L4">
-        <v>1.054251789631028</v>
+        <v>1.066976246688129</v>
       </c>
       <c r="M4">
-        <v>1.062522614184781</v>
+        <v>1.072899897535925</v>
       </c>
       <c r="N4">
-        <v>1.047165155297539</v>
+        <v>1.057646552836071</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028255429987461</v>
+        <v>1.051977353462623</v>
       </c>
       <c r="D5">
-        <v>1.045080590831934</v>
+        <v>1.056429547047916</v>
       </c>
       <c r="E5">
-        <v>1.045845415985501</v>
+        <v>1.064833785712013</v>
       </c>
       <c r="F5">
-        <v>1.054185463747495</v>
+        <v>1.070764225485134</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060345874450147</v>
+        <v>1.044973350984675</v>
       </c>
       <c r="J5">
-        <v>1.04652656495952</v>
+        <v>1.05633843073768</v>
       </c>
       <c r="K5">
-        <v>1.054452011881249</v>
+        <v>1.058812248830436</v>
       </c>
       <c r="L5">
-        <v>1.0552087705866</v>
+        <v>1.067196721668583</v>
       </c>
       <c r="M5">
-        <v>1.06346178483581</v>
+        <v>1.073113413884946</v>
       </c>
       <c r="N5">
-        <v>1.048012752720038</v>
+        <v>1.057838552473039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028475149819342</v>
+        <v>1.052025648994053</v>
       </c>
       <c r="D6">
-        <v>1.045246948625502</v>
+        <v>1.056466468061576</v>
       </c>
       <c r="E6">
-        <v>1.046043005050746</v>
+        <v>1.064879355104284</v>
       </c>
       <c r="F6">
-        <v>1.054379609205428</v>
+        <v>1.070808568212461</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060411819583291</v>
+        <v>1.044983940207922</v>
       </c>
       <c r="J6">
-        <v>1.046668045559125</v>
+        <v>1.056370618367027</v>
       </c>
       <c r="K6">
-        <v>1.05458106893264</v>
+        <v>1.058840562870006</v>
       </c>
       <c r="L6">
-        <v>1.055368768843994</v>
+        <v>1.067233739376953</v>
       </c>
       <c r="M6">
-        <v>1.063618785061172</v>
+        <v>1.073149260360428</v>
       </c>
       <c r="N6">
-        <v>1.048154434238322</v>
+        <v>1.057870785812511</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026959011764716</v>
+        <v>1.051693583901796</v>
       </c>
       <c r="D7">
-        <v>1.044099074395988</v>
+        <v>1.056212588221174</v>
       </c>
       <c r="E7">
-        <v>1.04467995215045</v>
+        <v>1.0645660557545</v>
       </c>
       <c r="F7">
-        <v>1.053040211810771</v>
+        <v>1.070503687600359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059955627544315</v>
+        <v>1.044910993733123</v>
       </c>
       <c r="J7">
-        <v>1.045691521730833</v>
+        <v>1.056149265529598</v>
       </c>
       <c r="K7">
-        <v>1.053690041089794</v>
+        <v>1.058645813047192</v>
       </c>
       <c r="L7">
-        <v>1.054264622877869</v>
+        <v>1.066979192752923</v>
       </c>
       <c r="M7">
-        <v>1.062535209953605</v>
+        <v>1.072902750809938</v>
       </c>
       <c r="N7">
-        <v>1.047176523634185</v>
+        <v>1.057649118628665</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020485434308182</v>
+        <v>1.050306208000286</v>
       </c>
       <c r="D8">
-        <v>1.039199545890612</v>
+        <v>1.055151318928828</v>
       </c>
       <c r="E8">
-        <v>1.038869793375153</v>
+        <v>1.063257626668787</v>
       </c>
       <c r="F8">
-        <v>1.047328428337837</v>
+        <v>1.069230048408936</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057979155475206</v>
+        <v>1.044602779512546</v>
       </c>
       <c r="J8">
-        <v>1.041515638222914</v>
+        <v>1.055223437016438</v>
       </c>
       <c r="K8">
-        <v>1.049873476741421</v>
+        <v>1.057830371425432</v>
       </c>
       <c r="L8">
-        <v>1.049547782838919</v>
+        <v>1.065915087430216</v>
       </c>
       <c r="M8">
-        <v>1.0579033118167</v>
+        <v>1.071871827428743</v>
       </c>
       <c r="N8">
-        <v>1.042994709892704</v>
+        <v>1.056721975332821</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.008520091768426</v>
+        <v>1.047863757832967</v>
       </c>
       <c r="D9">
-        <v>1.030154248091733</v>
+        <v>1.053280934244155</v>
       </c>
       <c r="E9">
-        <v>1.02817144545673</v>
+        <v>1.060956242959215</v>
       </c>
       <c r="F9">
-        <v>1.036802392423842</v>
+        <v>1.066988470420456</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054219452509396</v>
+        <v>1.044047218355241</v>
       </c>
       <c r="J9">
-        <v>1.033775529941046</v>
+        <v>1.053589744082132</v>
       </c>
       <c r="K9">
-        <v>1.042776330246834</v>
+        <v>1.056388151070225</v>
       </c>
       <c r="L9">
-        <v>1.040823417004763</v>
+        <v>1.064039503203817</v>
       </c>
       <c r="M9">
-        <v>1.049325318514341</v>
+        <v>1.070053166541676</v>
       </c>
       <c r="N9">
-        <v>1.035243609769273</v>
+        <v>1.055085962367162</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.000122713477379</v>
+        <v>1.046237002987379</v>
       </c>
       <c r="D10">
-        <v>1.023817833761928</v>
+        <v>1.052033864831091</v>
       </c>
       <c r="E10">
-        <v>1.020694179617931</v>
+        <v>1.059424875380455</v>
       </c>
       <c r="F10">
-        <v>1.029440184497737</v>
+        <v>1.065495971005864</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051512091891675</v>
+        <v>1.043668499192024</v>
       </c>
       <c r="J10">
-        <v>1.028331463527808</v>
+        <v>1.052499121364212</v>
       </c>
       <c r="K10">
-        <v>1.037769966042073</v>
+        <v>1.055423137721644</v>
       </c>
       <c r="L10">
-        <v>1.034699583314378</v>
+        <v>1.062788815672735</v>
       </c>
       <c r="M10">
-        <v>1.043297482106065</v>
+        <v>1.068839391530578</v>
       </c>
       <c r="N10">
-        <v>1.029791812157285</v>
+        <v>1.053993790839886</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9963757396410463</v>
+        <v>1.045532967886565</v>
       </c>
       <c r="D11">
-        <v>1.020994296328278</v>
+        <v>1.051493845368318</v>
       </c>
       <c r="E11">
-        <v>1.01736589907904</v>
+        <v>1.05876246920732</v>
       </c>
       <c r="F11">
-        <v>1.026161987015352</v>
+        <v>1.064850158551016</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050288525913376</v>
+        <v>1.043502535086889</v>
       </c>
       <c r="J11">
-        <v>1.025900073224089</v>
+        <v>1.052026520748512</v>
       </c>
       <c r="K11">
-        <v>1.035530861803911</v>
+        <v>1.05500444525814</v>
       </c>
       <c r="L11">
-        <v>1.031967586183787</v>
+        <v>1.062247190120597</v>
       </c>
       <c r="M11">
-        <v>1.04060683476793</v>
+        <v>1.068313504558313</v>
       </c>
       <c r="N11">
-        <v>1.02735696900045</v>
+        <v>1.053520519077104</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9949662622424646</v>
+        <v>1.045271512046621</v>
       </c>
       <c r="D12">
-        <v>1.019932851670802</v>
+        <v>1.051293254304076</v>
       </c>
       <c r="E12">
-        <v>1.016115213223471</v>
+        <v>1.058516525692559</v>
       </c>
       <c r="F12">
-        <v>1.024929964131171</v>
+        <v>1.064610343247402</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049826003443337</v>
+        <v>1.043440592054523</v>
       </c>
       <c r="J12">
-        <v>1.024985197369004</v>
+        <v>1.051850923048979</v>
       </c>
       <c r="K12">
-        <v>1.034687880452721</v>
+        <v>1.054848799227733</v>
       </c>
       <c r="L12">
-        <v>1.030940049451987</v>
+        <v>1.062045996276631</v>
       </c>
       <c r="M12">
-        <v>1.039594639271611</v>
+        <v>1.068118120016629</v>
       </c>
       <c r="N12">
-        <v>1.026440793916713</v>
+        <v>1.053344672008696</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9952694176199657</v>
+        <v>1.045327592761922</v>
       </c>
       <c r="D13">
-        <v>1.020161119124937</v>
+        <v>1.051336281927963</v>
       </c>
       <c r="E13">
-        <v>1.016384155484123</v>
+        <v>1.058569276712926</v>
       </c>
       <c r="F13">
-        <v>1.025194900061252</v>
+        <v>1.064661781347736</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049925585358449</v>
+        <v>1.043453892460577</v>
       </c>
       <c r="J13">
-        <v>1.025181983511669</v>
+        <v>1.051888591734566</v>
       </c>
       <c r="K13">
-        <v>1.03486922271253</v>
+        <v>1.054882191478609</v>
       </c>
       <c r="L13">
-        <v>1.031161048113511</v>
+        <v>1.062089153484217</v>
       </c>
       <c r="M13">
-        <v>1.039812347744982</v>
+        <v>1.068160032769123</v>
       </c>
       <c r="N13">
-        <v>1.026637859518273</v>
+        <v>1.053382394188137</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9962595988008367</v>
+        <v>1.045511354760832</v>
       </c>
       <c r="D14">
-        <v>1.020906819199135</v>
+        <v>1.051477264521433</v>
       </c>
       <c r="E14">
-        <v>1.017262815922733</v>
+        <v>1.058742137322413</v>
       </c>
       <c r="F14">
-        <v>1.026060445199133</v>
+        <v>1.064830333948295</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050250459608332</v>
+        <v>1.043497420904635</v>
       </c>
       <c r="J14">
-        <v>1.025824692738308</v>
+        <v>1.052012006862656</v>
       </c>
       <c r="K14">
-        <v>1.035461414190779</v>
+        <v>1.054991582055995</v>
       </c>
       <c r="L14">
-        <v>1.031882913926868</v>
+        <v>1.062230559575999</v>
       </c>
       <c r="M14">
-        <v>1.040523430897664</v>
+        <v>1.06829735496087</v>
       </c>
       <c r="N14">
-        <v>1.027281481465733</v>
+        <v>1.053505984579864</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9968673065622062</v>
+        <v>1.045624583767442</v>
       </c>
       <c r="D15">
-        <v>1.021364571731655</v>
+        <v>1.051564128070041</v>
       </c>
       <c r="E15">
-        <v>1.017802252432021</v>
+        <v>1.058848656197779</v>
       </c>
       <c r="F15">
-        <v>1.026591809519886</v>
+        <v>1.064934193824412</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050449550133972</v>
+        <v>1.0435242009265</v>
       </c>
       <c r="J15">
-        <v>1.026219110851007</v>
+        <v>1.052088040012183</v>
       </c>
       <c r="K15">
-        <v>1.03582477081903</v>
+        <v>1.055058964651015</v>
       </c>
       <c r="L15">
-        <v>1.032325968331392</v>
+        <v>1.062317683224998</v>
       </c>
       <c r="M15">
-        <v>1.040959839839291</v>
+        <v>1.068381957522287</v>
       </c>
       <c r="N15">
-        <v>1.027676459697393</v>
+        <v>1.053582125705185</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.000368966137953</v>
+        <v>1.046283735071972</v>
       </c>
       <c r="D16">
-        <v>1.024003485212727</v>
+        <v>1.052069703571967</v>
       </c>
       <c r="E16">
-        <v>1.020913090868973</v>
+        <v>1.059468851599082</v>
       </c>
       <c r="F16">
-        <v>1.029655779134113</v>
+        <v>1.065538840979942</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051592187974719</v>
+        <v>1.043679472074747</v>
       </c>
       <c r="J16">
-        <v>1.028491214354443</v>
+        <v>1.052530478887862</v>
       </c>
       <c r="K16">
-        <v>1.037917018306602</v>
+        <v>1.05545090740421</v>
       </c>
       <c r="L16">
-        <v>1.034879147348479</v>
+        <v>1.062824760149622</v>
       </c>
       <c r="M16">
-        <v>1.043474298536875</v>
+        <v>1.068874286338332</v>
       </c>
       <c r="N16">
-        <v>1.029951789848417</v>
+        <v>1.054025192894816</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.002535083761737</v>
+        <v>1.046697299771226</v>
       </c>
       <c r="D17">
-        <v>1.025636980333164</v>
+        <v>1.052386830173121</v>
       </c>
       <c r="E17">
-        <v>1.022839637637699</v>
+        <v>1.059858067867217</v>
       </c>
       <c r="F17">
-        <v>1.031553010437825</v>
+        <v>1.065918241002655</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052294982410839</v>
+        <v>1.043776340709354</v>
       </c>
       <c r="J17">
-        <v>1.029896189811345</v>
+        <v>1.052807914644985</v>
       </c>
       <c r="K17">
-        <v>1.039209951745218</v>
+        <v>1.055696539447</v>
       </c>
       <c r="L17">
-        <v>1.036458715415337</v>
+        <v>1.063142817798324</v>
       </c>
       <c r="M17">
-        <v>1.045029530127727</v>
+        <v>1.069183027401295</v>
       </c>
       <c r="N17">
-        <v>1.031358760531621</v>
+        <v>1.054303022642537</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.003787921458496</v>
+        <v>1.046938559845541</v>
       </c>
       <c r="D18">
-        <v>1.026582115525219</v>
+        <v>1.052571801792935</v>
       </c>
       <c r="E18">
-        <v>1.023954678181841</v>
+        <v>1.060085157292467</v>
       </c>
       <c r="F18">
-        <v>1.032650975589728</v>
+        <v>1.06613958195774</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052699988459753</v>
+        <v>1.043832651847614</v>
       </c>
       <c r="J18">
-        <v>1.030708585539177</v>
+        <v>1.052969704069139</v>
       </c>
       <c r="K18">
-        <v>1.039957257325514</v>
+        <v>1.05583973183326</v>
       </c>
       <c r="L18">
-        <v>1.037372348114155</v>
+        <v>1.063328328697853</v>
       </c>
       <c r="M18">
-        <v>1.045928945705335</v>
+        <v>1.069363080471198</v>
       </c>
       <c r="N18">
-        <v>1.03217230995457</v>
+        <v>1.05446504182623</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.004213335025838</v>
+        <v>1.047020829196303</v>
       </c>
       <c r="D19">
-        <v>1.026903103156915</v>
+        <v>1.052634871810271</v>
       </c>
       <c r="E19">
-        <v>1.024333429146388</v>
+        <v>1.060162600123159</v>
       </c>
       <c r="F19">
-        <v>1.033023907734562</v>
+        <v>1.066215060835198</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052837259927155</v>
+        <v>1.043851820134938</v>
       </c>
       <c r="J19">
-        <v>1.030984404826548</v>
+        <v>1.053024864276712</v>
       </c>
       <c r="K19">
-        <v>1.040210925363462</v>
+        <v>1.05588854304563</v>
       </c>
       <c r="L19">
-        <v>1.037682586617714</v>
+        <v>1.063391581962388</v>
       </c>
       <c r="M19">
-        <v>1.046234332367261</v>
+        <v>1.069424468747926</v>
       </c>
       <c r="N19">
-        <v>1.032448520936966</v>
+        <v>1.054520280367625</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00230378571802</v>
+        <v>1.046652924595235</v>
       </c>
       <c r="D20">
-        <v>1.02546251818549</v>
+        <v>1.052352805790932</v>
       </c>
       <c r="E20">
-        <v>1.02263384101401</v>
+        <v>1.059816301797712</v>
       </c>
       <c r="F20">
-        <v>1.031350356479764</v>
+        <v>1.065877530483146</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05222009066495</v>
+        <v>1.043765967343924</v>
       </c>
       <c r="J20">
-        <v>1.029746188239432</v>
+        <v>1.052778151944406</v>
       </c>
       <c r="K20">
-        <v>1.039071943721022</v>
+        <v>1.055670193789624</v>
       </c>
       <c r="L20">
-        <v>1.036290044191846</v>
+        <v>1.063108693917045</v>
       </c>
       <c r="M20">
-        <v>1.044863472157607</v>
+        <v>1.069149905544413</v>
       </c>
       <c r="N20">
-        <v>1.03120854594027</v>
+        <v>1.05427321767551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9959685119809191</v>
+        <v>1.045457239937778</v>
       </c>
       <c r="D21">
-        <v>1.020687584095309</v>
+        <v>1.051435748760271</v>
       </c>
       <c r="E21">
-        <v>1.017004477012665</v>
+        <v>1.058691231316177</v>
       </c>
       <c r="F21">
-        <v>1.025805966590914</v>
+        <v>1.064780697520767</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050155016873332</v>
+        <v>1.043484611047043</v>
       </c>
       <c r="J21">
-        <v>1.025635760449961</v>
+        <v>1.051975665637776</v>
       </c>
       <c r="K21">
-        <v>1.035287344643851</v>
+        <v>1.054959372704333</v>
       </c>
       <c r="L21">
-        <v>1.031670700173288</v>
+        <v>1.062188919278743</v>
       </c>
       <c r="M21">
-        <v>1.040314392738158</v>
+        <v>1.068256918283128</v>
       </c>
       <c r="N21">
-        <v>1.027092280871866</v>
+        <v>1.053469591746277</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9918823861258882</v>
+        <v>1.044705778790083</v>
       </c>
       <c r="D22">
-        <v>1.017611797082137</v>
+        <v>1.050859137036535</v>
       </c>
       <c r="E22">
-        <v>1.013381230692003</v>
+        <v>1.057984454704283</v>
       </c>
       <c r="F22">
-        <v>1.02223650494844</v>
+        <v>1.064091469987741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048809946961869</v>
+        <v>1.043305995451432</v>
       </c>
       <c r="J22">
-        <v>1.022983050911576</v>
+        <v>1.051470805408719</v>
       </c>
       <c r="K22">
-        <v>1.032842252498651</v>
+        <v>1.054511728263549</v>
       </c>
       <c r="L22">
-        <v>1.028692183288542</v>
+        <v>1.061610562838606</v>
       </c>
       <c r="M22">
-        <v>1.037379958645575</v>
+        <v>1.067695191788222</v>
       </c>
       <c r="N22">
-        <v>1.024435804181667</v>
+        <v>1.052964014557786</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9940586369369417</v>
+        <v>1.045104112874181</v>
       </c>
       <c r="D23">
-        <v>1.0192495410788</v>
+        <v>1.051164811618777</v>
       </c>
       <c r="E23">
-        <v>1.015310214982486</v>
+        <v>1.058359073315116</v>
       </c>
       <c r="F23">
-        <v>1.024136935678214</v>
+        <v>1.064456804898869</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049527536745335</v>
+        <v>1.043400845479627</v>
       </c>
       <c r="J23">
-        <v>1.024395998348256</v>
+        <v>1.051738470180278</v>
       </c>
       <c r="K23">
-        <v>1.034144856677418</v>
+        <v>1.054749101421613</v>
       </c>
       <c r="L23">
-        <v>1.030278421719385</v>
+        <v>1.061917165839312</v>
       </c>
       <c r="M23">
-        <v>1.038942831699993</v>
+        <v>1.067992999044959</v>
       </c>
       <c r="N23">
-        <v>1.025850758165774</v>
+        <v>1.053232059444023</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.002408332097653</v>
+        <v>1.046672975719543</v>
       </c>
       <c r="D24">
-        <v>1.025541373727825</v>
+        <v>1.052368179953836</v>
       </c>
       <c r="E24">
-        <v>1.022726858419683</v>
+        <v>1.059835173882259</v>
       </c>
       <c r="F24">
-        <v>1.031441953778012</v>
+        <v>1.065895925680609</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052253946207295</v>
+        <v>1.043770655210452</v>
       </c>
       <c r="J24">
-        <v>1.029813989397042</v>
+        <v>1.052791600533174</v>
       </c>
       <c r="K24">
-        <v>1.03913432470496</v>
+        <v>1.055682098507259</v>
       </c>
       <c r="L24">
-        <v>1.03636628321096</v>
+        <v>1.063124113050951</v>
       </c>
       <c r="M24">
-        <v>1.04493853042929</v>
+        <v>1.069164871979625</v>
       </c>
       <c r="N24">
-        <v>1.031276443383301</v>
+        <v>1.054286685362816</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.011684015899154</v>
+        <v>1.048494918120619</v>
       </c>
       <c r="D25">
-        <v>1.032544367055771</v>
+        <v>1.053764502980591</v>
       </c>
       <c r="E25">
-        <v>1.030995272268749</v>
+        <v>1.061550699701305</v>
       </c>
       <c r="F25">
-        <v>1.039581708984902</v>
+        <v>1.06756764299297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055225691578039</v>
+        <v>1.044192316890788</v>
       </c>
       <c r="J25">
-        <v>1.035824464344032</v>
+        <v>1.054012358300291</v>
       </c>
       <c r="K25">
-        <v>1.044657638977423</v>
+        <v>1.056761624941066</v>
       </c>
       <c r="L25">
-        <v>1.04313075285661</v>
+        <v>1.064524441739928</v>
       </c>
       <c r="M25">
-        <v>1.051595142623333</v>
+        <v>1.070523571993133</v>
       </c>
       <c r="N25">
-        <v>1.037295453894128</v>
+        <v>1.055509176745985</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049949195306054</v>
+        <v>1.018782551504694</v>
       </c>
       <c r="D2">
-        <v>1.054878083059933</v>
+        <v>1.037911278714384</v>
       </c>
       <c r="E2">
-        <v>1.062921069477074</v>
+        <v>1.037344023772019</v>
       </c>
       <c r="F2">
-        <v>1.068902345652393</v>
+        <v>1.045827883952218</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044522586718311</v>
+        <v>1.057452042887034</v>
       </c>
       <c r="J2">
-        <v>1.054984936093648</v>
+        <v>1.040415634109727</v>
       </c>
       <c r="K2">
-        <v>1.057620081779423</v>
+        <v>1.048866555704276</v>
       </c>
       <c r="L2">
-        <v>1.065641108326689</v>
+        <v>1.048306503636138</v>
       </c>
       <c r="M2">
-        <v>1.071606285526605</v>
+        <v>1.056683653846762</v>
       </c>
       <c r="N2">
-        <v>1.056483135711364</v>
+        <v>1.041893143647505</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051005769824119</v>
+        <v>1.023777956546441</v>
       </c>
       <c r="D3">
-        <v>1.055686556673284</v>
+        <v>1.041691115356053</v>
       </c>
       <c r="E3">
-        <v>1.063917271918247</v>
+        <v>1.041822926968993</v>
       </c>
       <c r="F3">
-        <v>1.069872227999325</v>
+        <v>1.050232038908365</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044758878757909</v>
+        <v>1.058990014336123</v>
       </c>
       <c r="J3">
-        <v>1.055690472685513</v>
+        <v>1.043640750308249</v>
       </c>
       <c r="K3">
-        <v>1.058241898211722</v>
+        <v>1.051816956092316</v>
       </c>
       <c r="L3">
-        <v>1.066451765450334</v>
+        <v>1.051947244184723</v>
       </c>
       <c r="M3">
-        <v>1.072391853257151</v>
+        <v>1.060260135519611</v>
       </c>
       <c r="N3">
-        <v>1.057189674246116</v>
+        <v>1.045122839880954</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051689741089316</v>
+        <v>1.026941391975576</v>
       </c>
       <c r="D4">
-        <v>1.056209649899412</v>
+        <v>1.044085735082591</v>
       </c>
       <c r="E4">
-        <v>1.064562430404167</v>
+        <v>1.0446641165947</v>
       </c>
       <c r="F4">
-        <v>1.070500159464865</v>
+        <v>1.053024649719058</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044910147673852</v>
+        <v>1.059950310258556</v>
       </c>
       <c r="J4">
-        <v>1.056146703375557</v>
+        <v>1.045680169515635</v>
       </c>
       <c r="K4">
-        <v>1.058643558337905</v>
+        <v>1.053679679327143</v>
       </c>
       <c r="L4">
-        <v>1.066976246688129</v>
+        <v>1.054251789631027</v>
       </c>
       <c r="M4">
-        <v>1.072899897535925</v>
+        <v>1.062522614184781</v>
       </c>
       <c r="N4">
-        <v>1.057646552836071</v>
+        <v>1.047165155297539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.051977353462623</v>
+        <v>1.02825542998746</v>
       </c>
       <c r="D5">
-        <v>1.056429547047916</v>
+        <v>1.045080590831934</v>
       </c>
       <c r="E5">
-        <v>1.064833785712013</v>
+        <v>1.0458454159855</v>
       </c>
       <c r="F5">
-        <v>1.070764225485134</v>
+        <v>1.054185463747494</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044973350984675</v>
+        <v>1.060345874450147</v>
       </c>
       <c r="J5">
-        <v>1.05633843073768</v>
+        <v>1.046526564959519</v>
       </c>
       <c r="K5">
-        <v>1.058812248830436</v>
+        <v>1.054452011881249</v>
       </c>
       <c r="L5">
-        <v>1.067196721668583</v>
+        <v>1.055208770586599</v>
       </c>
       <c r="M5">
-        <v>1.073113413884946</v>
+        <v>1.063461784835809</v>
       </c>
       <c r="N5">
-        <v>1.057838552473039</v>
+        <v>1.048012752720037</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052025648994053</v>
+        <v>1.028475149819342</v>
       </c>
       <c r="D6">
-        <v>1.056466468061576</v>
+        <v>1.045246948625502</v>
       </c>
       <c r="E6">
-        <v>1.064879355104284</v>
+        <v>1.046043005050745</v>
       </c>
       <c r="F6">
-        <v>1.070808568212461</v>
+        <v>1.054379609205428</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044983940207922</v>
+        <v>1.06041181958329</v>
       </c>
       <c r="J6">
-        <v>1.056370618367027</v>
+        <v>1.046668045559124</v>
       </c>
       <c r="K6">
-        <v>1.058840562870006</v>
+        <v>1.054581068932639</v>
       </c>
       <c r="L6">
-        <v>1.067233739376953</v>
+        <v>1.055368768843994</v>
       </c>
       <c r="M6">
-        <v>1.073149260360428</v>
+        <v>1.063618785061172</v>
       </c>
       <c r="N6">
-        <v>1.057870785812511</v>
+        <v>1.048154434238321</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051693583901796</v>
+        <v>1.026959011764716</v>
       </c>
       <c r="D7">
-        <v>1.056212588221174</v>
+        <v>1.044099074395988</v>
       </c>
       <c r="E7">
-        <v>1.0645660557545</v>
+        <v>1.04467995215045</v>
       </c>
       <c r="F7">
-        <v>1.070503687600359</v>
+        <v>1.05304021181077</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044910993733123</v>
+        <v>1.059955627544315</v>
       </c>
       <c r="J7">
-        <v>1.056149265529598</v>
+        <v>1.045691521730833</v>
       </c>
       <c r="K7">
-        <v>1.058645813047192</v>
+        <v>1.053690041089794</v>
       </c>
       <c r="L7">
-        <v>1.066979192752923</v>
+        <v>1.054264622877869</v>
       </c>
       <c r="M7">
-        <v>1.072902750809938</v>
+        <v>1.062535209953604</v>
       </c>
       <c r="N7">
-        <v>1.057649118628665</v>
+        <v>1.047176523634185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050306208000286</v>
+        <v>1.020485434308184</v>
       </c>
       <c r="D8">
-        <v>1.055151318928828</v>
+        <v>1.039199545890613</v>
       </c>
       <c r="E8">
-        <v>1.063257626668787</v>
+        <v>1.038869793375154</v>
       </c>
       <c r="F8">
-        <v>1.069230048408936</v>
+        <v>1.047328428337838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044602779512546</v>
+        <v>1.057979155475206</v>
       </c>
       <c r="J8">
-        <v>1.055223437016438</v>
+        <v>1.041515638222915</v>
       </c>
       <c r="K8">
-        <v>1.057830371425432</v>
+        <v>1.049873476741422</v>
       </c>
       <c r="L8">
-        <v>1.065915087430216</v>
+        <v>1.04954778283892</v>
       </c>
       <c r="M8">
-        <v>1.071871827428743</v>
+        <v>1.057903311816701</v>
       </c>
       <c r="N8">
-        <v>1.056721975332821</v>
+        <v>1.042994709892705</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047863757832967</v>
+        <v>1.008520091768427</v>
       </c>
       <c r="D9">
-        <v>1.053280934244155</v>
+        <v>1.030154248091733</v>
       </c>
       <c r="E9">
-        <v>1.060956242959215</v>
+        <v>1.028171445456731</v>
       </c>
       <c r="F9">
-        <v>1.066988470420456</v>
+        <v>1.036802392423843</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044047218355241</v>
+        <v>1.054219452509396</v>
       </c>
       <c r="J9">
-        <v>1.053589744082132</v>
+        <v>1.033775529941046</v>
       </c>
       <c r="K9">
-        <v>1.056388151070225</v>
+        <v>1.042776330246835</v>
       </c>
       <c r="L9">
-        <v>1.064039503203817</v>
+        <v>1.040823417004764</v>
       </c>
       <c r="M9">
-        <v>1.070053166541676</v>
+        <v>1.049325318514341</v>
       </c>
       <c r="N9">
-        <v>1.055085962367162</v>
+        <v>1.035243609769274</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.046237002987379</v>
+        <v>1.00012271347738</v>
       </c>
       <c r="D10">
-        <v>1.052033864831091</v>
+        <v>1.023817833761929</v>
       </c>
       <c r="E10">
-        <v>1.059424875380455</v>
+        <v>1.020694179617933</v>
       </c>
       <c r="F10">
-        <v>1.065495971005864</v>
+        <v>1.029440184497738</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043668499192024</v>
+        <v>1.051512091891675</v>
       </c>
       <c r="J10">
-        <v>1.052499121364212</v>
+        <v>1.02833146352781</v>
       </c>
       <c r="K10">
-        <v>1.055423137721644</v>
+        <v>1.037769966042074</v>
       </c>
       <c r="L10">
-        <v>1.062788815672735</v>
+        <v>1.034699583314379</v>
       </c>
       <c r="M10">
-        <v>1.068839391530578</v>
+        <v>1.043297482106066</v>
       </c>
       <c r="N10">
-        <v>1.053993790839886</v>
+        <v>1.029791812157286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.045532967886565</v>
+        <v>0.9963757396410473</v>
       </c>
       <c r="D11">
-        <v>1.051493845368318</v>
+        <v>1.020994296328279</v>
       </c>
       <c r="E11">
-        <v>1.05876246920732</v>
+        <v>1.017365899079042</v>
       </c>
       <c r="F11">
-        <v>1.064850158551016</v>
+        <v>1.026161987015353</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043502535086889</v>
+        <v>1.050288525913376</v>
       </c>
       <c r="J11">
-        <v>1.052026520748512</v>
+        <v>1.02590007322409</v>
       </c>
       <c r="K11">
-        <v>1.05500444525814</v>
+        <v>1.035530861803911</v>
       </c>
       <c r="L11">
-        <v>1.062247190120597</v>
+        <v>1.031967586183788</v>
       </c>
       <c r="M11">
-        <v>1.068313504558313</v>
+        <v>1.04060683476793</v>
       </c>
       <c r="N11">
-        <v>1.053520519077104</v>
+        <v>1.027356969000452</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.045271512046621</v>
+        <v>0.9949662622424651</v>
       </c>
       <c r="D12">
-        <v>1.051293254304076</v>
+        <v>1.019932851670803</v>
       </c>
       <c r="E12">
-        <v>1.058516525692559</v>
+        <v>1.016115213223471</v>
       </c>
       <c r="F12">
-        <v>1.064610343247402</v>
+        <v>1.024929964131171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043440592054523</v>
+        <v>1.049826003443338</v>
       </c>
       <c r="J12">
-        <v>1.051850923048979</v>
+        <v>1.024985197369004</v>
       </c>
       <c r="K12">
-        <v>1.054848799227733</v>
+        <v>1.034687880452721</v>
       </c>
       <c r="L12">
-        <v>1.062045996276631</v>
+        <v>1.030940049451987</v>
       </c>
       <c r="M12">
-        <v>1.068118120016629</v>
+        <v>1.039594639271611</v>
       </c>
       <c r="N12">
-        <v>1.053344672008696</v>
+        <v>1.026440793916714</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.045327592761922</v>
+        <v>0.9952694176199678</v>
       </c>
       <c r="D13">
-        <v>1.051336281927963</v>
+        <v>1.020161119124939</v>
       </c>
       <c r="E13">
-        <v>1.058569276712926</v>
+        <v>1.016384155484125</v>
       </c>
       <c r="F13">
-        <v>1.064661781347736</v>
+        <v>1.025194900061254</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043453892460577</v>
+        <v>1.04992558535845</v>
       </c>
       <c r="J13">
-        <v>1.051888591734566</v>
+        <v>1.025181983511671</v>
       </c>
       <c r="K13">
-        <v>1.054882191478609</v>
+        <v>1.034869222712532</v>
       </c>
       <c r="L13">
-        <v>1.062089153484217</v>
+        <v>1.031161048113514</v>
       </c>
       <c r="M13">
-        <v>1.068160032769123</v>
+        <v>1.039812347744984</v>
       </c>
       <c r="N13">
-        <v>1.053382394188137</v>
+        <v>1.026637859518275</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.045511354760832</v>
+        <v>0.9962595988008378</v>
       </c>
       <c r="D14">
-        <v>1.051477264521433</v>
+        <v>1.020906819199136</v>
       </c>
       <c r="E14">
-        <v>1.058742137322413</v>
+        <v>1.017262815922734</v>
       </c>
       <c r="F14">
-        <v>1.064830333948295</v>
+        <v>1.026060445199134</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043497420904635</v>
+        <v>1.050250459608332</v>
       </c>
       <c r="J14">
-        <v>1.052012006862656</v>
+        <v>1.025824692738309</v>
       </c>
       <c r="K14">
-        <v>1.054991582055995</v>
+        <v>1.03546141419078</v>
       </c>
       <c r="L14">
-        <v>1.062230559575999</v>
+        <v>1.031882913926869</v>
       </c>
       <c r="M14">
-        <v>1.06829735496087</v>
+        <v>1.040523430897665</v>
       </c>
       <c r="N14">
-        <v>1.053505984579864</v>
+        <v>1.027281481465735</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.045624583767442</v>
+        <v>0.9968673065622071</v>
       </c>
       <c r="D15">
-        <v>1.051564128070041</v>
+        <v>1.021364571731656</v>
       </c>
       <c r="E15">
-        <v>1.058848656197779</v>
+        <v>1.017802252432022</v>
       </c>
       <c r="F15">
-        <v>1.064934193824412</v>
+        <v>1.026591809519886</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.0435242009265</v>
+        <v>1.050449550133972</v>
       </c>
       <c r="J15">
-        <v>1.052088040012183</v>
+        <v>1.026219110851008</v>
       </c>
       <c r="K15">
-        <v>1.055058964651015</v>
+        <v>1.035824770819031</v>
       </c>
       <c r="L15">
-        <v>1.062317683224998</v>
+        <v>1.032325968331393</v>
       </c>
       <c r="M15">
-        <v>1.068381957522287</v>
+        <v>1.040959839839292</v>
       </c>
       <c r="N15">
-        <v>1.053582125705185</v>
+        <v>1.027676459697394</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.046283735071972</v>
+        <v>1.000368966137954</v>
       </c>
       <c r="D16">
-        <v>1.052069703571967</v>
+        <v>1.024003485212727</v>
       </c>
       <c r="E16">
-        <v>1.059468851599082</v>
+        <v>1.020913090868973</v>
       </c>
       <c r="F16">
-        <v>1.065538840979942</v>
+        <v>1.029655779134113</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043679472074747</v>
+        <v>1.051592187974719</v>
       </c>
       <c r="J16">
-        <v>1.052530478887862</v>
+        <v>1.028491214354443</v>
       </c>
       <c r="K16">
-        <v>1.05545090740421</v>
+        <v>1.037917018306602</v>
       </c>
       <c r="L16">
-        <v>1.062824760149622</v>
+        <v>1.034879147348479</v>
       </c>
       <c r="M16">
-        <v>1.068874286338332</v>
+        <v>1.043474298536875</v>
       </c>
       <c r="N16">
-        <v>1.054025192894816</v>
+        <v>1.029951789848417</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.046697299771226</v>
+        <v>1.002535083761737</v>
       </c>
       <c r="D17">
-        <v>1.052386830173121</v>
+        <v>1.025636980333164</v>
       </c>
       <c r="E17">
-        <v>1.059858067867217</v>
+        <v>1.0228396376377</v>
       </c>
       <c r="F17">
-        <v>1.065918241002655</v>
+        <v>1.031553010437826</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043776340709354</v>
+        <v>1.052294982410839</v>
       </c>
       <c r="J17">
-        <v>1.052807914644985</v>
+        <v>1.029896189811345</v>
       </c>
       <c r="K17">
-        <v>1.055696539447</v>
+        <v>1.039209951745219</v>
       </c>
       <c r="L17">
-        <v>1.063142817798324</v>
+        <v>1.036458715415338</v>
       </c>
       <c r="M17">
-        <v>1.069183027401295</v>
+        <v>1.045029530127728</v>
       </c>
       <c r="N17">
-        <v>1.054303022642537</v>
+        <v>1.031358760531621</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046938559845541</v>
+        <v>1.003787921458496</v>
       </c>
       <c r="D18">
-        <v>1.052571801792935</v>
+        <v>1.02658211552522</v>
       </c>
       <c r="E18">
-        <v>1.060085157292467</v>
+        <v>1.023954678181842</v>
       </c>
       <c r="F18">
-        <v>1.06613958195774</v>
+        <v>1.032650975589728</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043832651847614</v>
+        <v>1.052699988459753</v>
       </c>
       <c r="J18">
-        <v>1.052969704069139</v>
+        <v>1.030708585539177</v>
       </c>
       <c r="K18">
-        <v>1.05583973183326</v>
+        <v>1.039957257325514</v>
       </c>
       <c r="L18">
-        <v>1.063328328697853</v>
+        <v>1.037372348114155</v>
       </c>
       <c r="M18">
-        <v>1.069363080471198</v>
+        <v>1.045928945705336</v>
       </c>
       <c r="N18">
-        <v>1.05446504182623</v>
+        <v>1.03217230995457</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.047020829196303</v>
+        <v>1.004213335025837</v>
       </c>
       <c r="D19">
-        <v>1.052634871810271</v>
+        <v>1.026903103156914</v>
       </c>
       <c r="E19">
-        <v>1.060162600123159</v>
+        <v>1.024333429146387</v>
       </c>
       <c r="F19">
-        <v>1.066215060835198</v>
+        <v>1.033023907734561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043851820134938</v>
+        <v>1.052837259927155</v>
       </c>
       <c r="J19">
-        <v>1.053024864276712</v>
+        <v>1.030984404826547</v>
       </c>
       <c r="K19">
-        <v>1.05588854304563</v>
+        <v>1.040210925363461</v>
       </c>
       <c r="L19">
-        <v>1.063391581962388</v>
+        <v>1.037682586617713</v>
       </c>
       <c r="M19">
-        <v>1.069424468747926</v>
+        <v>1.046234332367259</v>
       </c>
       <c r="N19">
-        <v>1.054520280367625</v>
+        <v>1.032448520936964</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.046652924595235</v>
+        <v>1.002303785718022</v>
       </c>
       <c r="D20">
-        <v>1.052352805790932</v>
+        <v>1.025462518185491</v>
       </c>
       <c r="E20">
-        <v>1.059816301797712</v>
+        <v>1.022633841014012</v>
       </c>
       <c r="F20">
-        <v>1.065877530483146</v>
+        <v>1.031350356479765</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043765967343924</v>
+        <v>1.052220090664951</v>
       </c>
       <c r="J20">
-        <v>1.052778151944406</v>
+        <v>1.029746188239433</v>
       </c>
       <c r="K20">
-        <v>1.055670193789624</v>
+        <v>1.039071943721024</v>
       </c>
       <c r="L20">
-        <v>1.063108693917045</v>
+        <v>1.036290044191847</v>
       </c>
       <c r="M20">
-        <v>1.069149905544413</v>
+        <v>1.044863472157609</v>
       </c>
       <c r="N20">
-        <v>1.05427321767551</v>
+        <v>1.031208545940272</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.045457239937778</v>
+        <v>0.9959685119809186</v>
       </c>
       <c r="D21">
-        <v>1.051435748760271</v>
+        <v>1.020687584095308</v>
       </c>
       <c r="E21">
-        <v>1.058691231316177</v>
+        <v>1.017004477012664</v>
       </c>
       <c r="F21">
-        <v>1.064780697520767</v>
+        <v>1.025805966590913</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043484611047043</v>
+        <v>1.050155016873332</v>
       </c>
       <c r="J21">
-        <v>1.051975665637776</v>
+        <v>1.02563576044996</v>
       </c>
       <c r="K21">
-        <v>1.054959372704333</v>
+        <v>1.03528734464385</v>
       </c>
       <c r="L21">
-        <v>1.062188919278743</v>
+        <v>1.031670700173287</v>
       </c>
       <c r="M21">
-        <v>1.068256918283128</v>
+        <v>1.040314392738157</v>
       </c>
       <c r="N21">
-        <v>1.053469591746277</v>
+        <v>1.027092280871865</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.044705778790083</v>
+        <v>0.9918823861258892</v>
       </c>
       <c r="D22">
-        <v>1.050859137036535</v>
+        <v>1.017611797082138</v>
       </c>
       <c r="E22">
-        <v>1.057984454704283</v>
+        <v>1.013381230692004</v>
       </c>
       <c r="F22">
-        <v>1.064091469987741</v>
+        <v>1.022236504948441</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043305995451432</v>
+        <v>1.04880994696187</v>
       </c>
       <c r="J22">
-        <v>1.051470805408719</v>
+        <v>1.022983050911578</v>
       </c>
       <c r="K22">
-        <v>1.054511728263549</v>
+        <v>1.032842252498651</v>
       </c>
       <c r="L22">
-        <v>1.061610562838606</v>
+        <v>1.028692183288543</v>
       </c>
       <c r="M22">
-        <v>1.067695191788222</v>
+        <v>1.037379958645577</v>
       </c>
       <c r="N22">
-        <v>1.052964014557786</v>
+        <v>1.024435804181668</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.045104112874181</v>
+        <v>0.9940586369369419</v>
       </c>
       <c r="D23">
-        <v>1.051164811618777</v>
+        <v>1.0192495410788</v>
       </c>
       <c r="E23">
-        <v>1.058359073315116</v>
+        <v>1.015310214982486</v>
       </c>
       <c r="F23">
-        <v>1.064456804898869</v>
+        <v>1.024136935678214</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043400845479627</v>
+        <v>1.049527536745335</v>
       </c>
       <c r="J23">
-        <v>1.051738470180278</v>
+        <v>1.024395998348256</v>
       </c>
       <c r="K23">
-        <v>1.054749101421613</v>
+        <v>1.034144856677418</v>
       </c>
       <c r="L23">
-        <v>1.061917165839312</v>
+        <v>1.030278421719385</v>
       </c>
       <c r="M23">
-        <v>1.067992999044959</v>
+        <v>1.038942831699993</v>
       </c>
       <c r="N23">
-        <v>1.053232059444023</v>
+        <v>1.025850758165774</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.046672975719543</v>
+        <v>1.002408332097654</v>
       </c>
       <c r="D24">
-        <v>1.052368179953836</v>
+        <v>1.025541373727826</v>
       </c>
       <c r="E24">
-        <v>1.059835173882259</v>
+        <v>1.022726858419684</v>
       </c>
       <c r="F24">
-        <v>1.065895925680609</v>
+        <v>1.031441953778013</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043770655210452</v>
+        <v>1.052253946207296</v>
       </c>
       <c r="J24">
-        <v>1.052791600533174</v>
+        <v>1.029813989397043</v>
       </c>
       <c r="K24">
-        <v>1.055682098507259</v>
+        <v>1.039134324704961</v>
       </c>
       <c r="L24">
-        <v>1.063124113050951</v>
+        <v>1.036366283210962</v>
       </c>
       <c r="M24">
-        <v>1.069164871979625</v>
+        <v>1.044938530429291</v>
       </c>
       <c r="N24">
-        <v>1.054286685362816</v>
+        <v>1.031276443383302</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.048494918120619</v>
+        <v>1.011684015899154</v>
       </c>
       <c r="D25">
-        <v>1.053764502980591</v>
+        <v>1.032544367055771</v>
       </c>
       <c r="E25">
-        <v>1.061550699701305</v>
+        <v>1.030995272268749</v>
       </c>
       <c r="F25">
-        <v>1.06756764299297</v>
+        <v>1.039581708984902</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044192316890788</v>
+        <v>1.055225691578039</v>
       </c>
       <c r="J25">
-        <v>1.054012358300291</v>
+        <v>1.035824464344032</v>
       </c>
       <c r="K25">
-        <v>1.056761624941066</v>
+        <v>1.044657638977423</v>
       </c>
       <c r="L25">
-        <v>1.064524441739928</v>
+        <v>1.04313075285661</v>
       </c>
       <c r="M25">
-        <v>1.070523571993133</v>
+        <v>1.051595142623333</v>
       </c>
       <c r="N25">
-        <v>1.055509176745985</v>
+        <v>1.037295453894128</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018782551504694</v>
+        <v>1.017869183707781</v>
       </c>
       <c r="D2">
-        <v>1.037911278714384</v>
+        <v>1.034025780489827</v>
       </c>
       <c r="E2">
-        <v>1.037344023772019</v>
+        <v>1.035362619321041</v>
       </c>
       <c r="F2">
-        <v>1.045827883952218</v>
+        <v>1.041861869505851</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057452042887034</v>
+        <v>1.055040417739403</v>
       </c>
       <c r="J2">
-        <v>1.040415634109727</v>
+        <v>1.039528257268994</v>
       </c>
       <c r="K2">
-        <v>1.048866555704276</v>
+        <v>1.045030592527966</v>
       </c>
       <c r="L2">
-        <v>1.048306503636138</v>
+        <v>1.046350335985652</v>
       </c>
       <c r="M2">
-        <v>1.056683653846762</v>
+        <v>1.052767254122965</v>
       </c>
       <c r="N2">
-        <v>1.041893143647505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.016941655813237</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.050334066726105</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.042910807540975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023777956546441</v>
+        <v>1.021261092241923</v>
       </c>
       <c r="D3">
-        <v>1.041691115356053</v>
+        <v>1.03627330893882</v>
       </c>
       <c r="E3">
-        <v>1.041822926968993</v>
+        <v>1.038217782847242</v>
       </c>
       <c r="F3">
-        <v>1.050232038908365</v>
+        <v>1.044572207000244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058990014336123</v>
+        <v>1.05595515433721</v>
       </c>
       <c r="J3">
-        <v>1.043640750308249</v>
+        <v>1.041188473684392</v>
       </c>
       <c r="K3">
-        <v>1.051816956092316</v>
+        <v>1.046462185272667</v>
       </c>
       <c r="L3">
-        <v>1.051947244184723</v>
+        <v>1.048383941840034</v>
       </c>
       <c r="M3">
-        <v>1.060260135519611</v>
+        <v>1.054664855373776</v>
       </c>
       <c r="N3">
-        <v>1.045122839880954</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.017505575562487</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.051835869250428</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.043920406024711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026941391975576</v>
+        <v>1.023420102941773</v>
       </c>
       <c r="D4">
-        <v>1.044085735082591</v>
+        <v>1.037707294009242</v>
       </c>
       <c r="E4">
-        <v>1.0446641165947</v>
+        <v>1.040040553288818</v>
       </c>
       <c r="F4">
-        <v>1.053024649719058</v>
+        <v>1.046303785622364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059950310258556</v>
+        <v>1.056528679761714</v>
       </c>
       <c r="J4">
-        <v>1.045680169515635</v>
+        <v>1.042243117812405</v>
       </c>
       <c r="K4">
-        <v>1.053679679327143</v>
+        <v>1.047370967297433</v>
       </c>
       <c r="L4">
-        <v>1.054251789631027</v>
+        <v>1.049678597583549</v>
       </c>
       <c r="M4">
-        <v>1.062522614184781</v>
+        <v>1.055873726454616</v>
       </c>
       <c r="N4">
-        <v>1.047165155297539</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.017863826950584</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.052792594308654</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.044563874970112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02825542998746</v>
+        <v>1.024322195634707</v>
       </c>
       <c r="D5">
-        <v>1.045080590831934</v>
+        <v>1.03830931516427</v>
       </c>
       <c r="E5">
-        <v>1.0458454159855</v>
+        <v>1.040803608695966</v>
       </c>
       <c r="F5">
-        <v>1.054185463747494</v>
+        <v>1.0470285300284</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060345874450147</v>
+        <v>1.056767610026975</v>
       </c>
       <c r="J5">
-        <v>1.046526564959519</v>
+        <v>1.042684607543042</v>
       </c>
       <c r="K5">
-        <v>1.054452011881249</v>
+        <v>1.047752786326382</v>
       </c>
       <c r="L5">
-        <v>1.055208770586599</v>
+        <v>1.050220405666791</v>
       </c>
       <c r="M5">
-        <v>1.063461784835809</v>
+        <v>1.056379434956083</v>
       </c>
       <c r="N5">
-        <v>1.048012752720037</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.018014171835473</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.053192821898911</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04484097366364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028475149819342</v>
+        <v>1.024476566390032</v>
       </c>
       <c r="D6">
-        <v>1.045246948625502</v>
+        <v>1.038414903361785</v>
       </c>
       <c r="E6">
-        <v>1.046043005050745</v>
+        <v>1.040934475708104</v>
       </c>
       <c r="F6">
-        <v>1.054379609205428</v>
+        <v>1.047152314322538</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06041181958329</v>
+        <v>1.056810099631561</v>
       </c>
       <c r="J6">
-        <v>1.046668045559124</v>
+        <v>1.042761778287102</v>
       </c>
       <c r="K6">
-        <v>1.054581068932639</v>
+        <v>1.047821387302407</v>
       </c>
       <c r="L6">
-        <v>1.055368768843994</v>
+        <v>1.050314137557071</v>
       </c>
       <c r="M6">
-        <v>1.063618785061172</v>
+        <v>1.056466459153743</v>
       </c>
       <c r="N6">
-        <v>1.048154434238321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.018040903083672</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.05326169452809</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.044898167376141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026959011764716</v>
+        <v>1.023441290972805</v>
       </c>
       <c r="D7">
-        <v>1.044099074395988</v>
+        <v>1.037728168241979</v>
       </c>
       <c r="E7">
-        <v>1.04467995215045</v>
+        <v>1.0400590447595</v>
       </c>
       <c r="F7">
-        <v>1.05304021181077</v>
+        <v>1.046319923581583</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059955627544315</v>
+        <v>1.056538921750572</v>
       </c>
       <c r="J7">
-        <v>1.045691521730833</v>
+        <v>1.042257918048324</v>
       </c>
       <c r="K7">
-        <v>1.053690041089794</v>
+        <v>1.047388755640341</v>
       </c>
       <c r="L7">
-        <v>1.054264622877869</v>
+        <v>1.049694039045248</v>
       </c>
       <c r="M7">
-        <v>1.062535209953604</v>
+        <v>1.055886865388878</v>
       </c>
       <c r="N7">
-        <v>1.047176523634185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.017870094424578</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.052802992720668</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.044596434816914</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020485434308184</v>
+        <v>1.019034370411422</v>
       </c>
       <c r="D8">
-        <v>1.039199545890613</v>
+        <v>1.034805408472996</v>
       </c>
       <c r="E8">
-        <v>1.038869793375154</v>
+        <v>1.036343022938452</v>
       </c>
       <c r="F8">
-        <v>1.047328428337838</v>
+        <v>1.042790502925133</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057979155475206</v>
+        <v>1.055362068197797</v>
       </c>
       <c r="J8">
-        <v>1.041515638222915</v>
+        <v>1.040104474063943</v>
       </c>
       <c r="K8">
-        <v>1.049873476741422</v>
+        <v>1.045533687205908</v>
       </c>
       <c r="L8">
-        <v>1.04954778283892</v>
+        <v>1.047052218769221</v>
       </c>
       <c r="M8">
-        <v>1.057903311816701</v>
+        <v>1.053420442644379</v>
       </c>
       <c r="N8">
-        <v>1.042994709892705</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.017138974658481</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.050851014538526</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.043289300907102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.008520091768427</v>
+        <v>1.01096962710324</v>
       </c>
       <c r="D9">
-        <v>1.030154248091733</v>
+        <v>1.029474289592484</v>
       </c>
       <c r="E9">
-        <v>1.028171445456731</v>
+        <v>1.029585606795832</v>
       </c>
       <c r="F9">
-        <v>1.036802392423843</v>
+        <v>1.036384870447624</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054219452509396</v>
+        <v>1.053133646710979</v>
       </c>
       <c r="J9">
-        <v>1.033775529941046</v>
+        <v>1.036140878795613</v>
       </c>
       <c r="K9">
-        <v>1.042776330246835</v>
+        <v>1.04210660513987</v>
       </c>
       <c r="L9">
-        <v>1.040823417004764</v>
+        <v>1.04221624583843</v>
       </c>
       <c r="M9">
-        <v>1.049325318514341</v>
+        <v>1.048913976237266</v>
       </c>
       <c r="N9">
-        <v>1.035243609769274</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01579147521969</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.047284490258595</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.040862999540771</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.00012271347738</v>
+        <v>1.005449708081822</v>
       </c>
       <c r="D10">
-        <v>1.023817833761929</v>
+        <v>1.025855364969196</v>
       </c>
       <c r="E10">
-        <v>1.020694179617933</v>
+        <v>1.025029620471006</v>
       </c>
       <c r="F10">
-        <v>1.029440184497738</v>
+        <v>1.032118632454539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051512091891675</v>
+        <v>1.05158706087842</v>
       </c>
       <c r="J10">
-        <v>1.02833146352781</v>
+        <v>1.033448761973631</v>
       </c>
       <c r="K10">
-        <v>1.037769966042074</v>
+        <v>1.039772974356221</v>
       </c>
       <c r="L10">
-        <v>1.034699583314379</v>
+        <v>1.038961199507205</v>
       </c>
       <c r="M10">
-        <v>1.043297482106066</v>
+        <v>1.045931219473996</v>
       </c>
       <c r="N10">
-        <v>1.029791812157286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.014882715229331</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.044974892502409</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.039229717536686</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9963757396410473</v>
+        <v>1.003506086076951</v>
       </c>
       <c r="D11">
-        <v>1.020994296328279</v>
+        <v>1.024648543152231</v>
       </c>
       <c r="E11">
-        <v>1.017365899079042</v>
+        <v>1.023736355669064</v>
       </c>
       <c r="F11">
-        <v>1.026161987015353</v>
+        <v>1.031277283071585</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050288525913376</v>
+        <v>1.051202564948714</v>
       </c>
       <c r="J11">
-        <v>1.02590007322409</v>
+        <v>1.032733731679132</v>
       </c>
       <c r="K11">
-        <v>1.035530861803911</v>
+        <v>1.039120127702023</v>
       </c>
       <c r="L11">
-        <v>1.031967586183788</v>
+        <v>1.038224104642636</v>
       </c>
       <c r="M11">
-        <v>1.04060683476793</v>
+        <v>1.045632514997111</v>
       </c>
       <c r="N11">
-        <v>1.027356969000452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.01469153425567</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.045171367584006</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.038800807436488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9949662622424651</v>
+        <v>1.002954522306038</v>
       </c>
       <c r="D12">
-        <v>1.019932851670803</v>
+        <v>1.024327996628844</v>
       </c>
       <c r="E12">
-        <v>1.016115213223471</v>
+        <v>1.023506283188889</v>
       </c>
       <c r="F12">
-        <v>1.024929964131171</v>
+        <v>1.031334532902462</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049826003443338</v>
+        <v>1.051164589327444</v>
       </c>
       <c r="J12">
-        <v>1.024985197369004</v>
+        <v>1.03263436566238</v>
       </c>
       <c r="K12">
-        <v>1.034687880452721</v>
+        <v>1.039003495354128</v>
       </c>
       <c r="L12">
-        <v>1.030940049451987</v>
+        <v>1.038196583321661</v>
       </c>
       <c r="M12">
-        <v>1.039594639271611</v>
+        <v>1.045885066304454</v>
       </c>
       <c r="N12">
-        <v>1.026440793916714</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.014696809392274</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.045695196682465</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.038718345384564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9952694176199678</v>
+        <v>1.00344930909827</v>
       </c>
       <c r="D13">
-        <v>1.020161119124939</v>
+        <v>1.024683170713093</v>
       </c>
       <c r="E13">
-        <v>1.016384155484125</v>
+        <v>1.024092168795579</v>
       </c>
       <c r="F13">
-        <v>1.025194900061254</v>
+        <v>1.032107527746411</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04992558535845</v>
+        <v>1.051404354895273</v>
       </c>
       <c r="J13">
-        <v>1.025181983511671</v>
+        <v>1.033016312101801</v>
       </c>
       <c r="K13">
-        <v>1.034869222712532</v>
+        <v>1.039309781559841</v>
       </c>
       <c r="L13">
-        <v>1.031161048113514</v>
+        <v>1.038729377085512</v>
       </c>
       <c r="M13">
-        <v>1.039812347744984</v>
+        <v>1.04660235014864</v>
       </c>
       <c r="N13">
-        <v>1.026637859518275</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.014860112235185</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.046537224683483</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.038932417888989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9962595988008378</v>
+        <v>1.004269079482781</v>
       </c>
       <c r="D14">
-        <v>1.020906819199136</v>
+        <v>1.025238681738773</v>
       </c>
       <c r="E14">
-        <v>1.017262815922734</v>
+        <v>1.0248698916034</v>
       </c>
       <c r="F14">
-        <v>1.026060445199134</v>
+        <v>1.032970625753156</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050250459608332</v>
+        <v>1.051697545863036</v>
       </c>
       <c r="J14">
-        <v>1.025824692738309</v>
+        <v>1.033500733809825</v>
       </c>
       <c r="K14">
-        <v>1.03546141419078</v>
+        <v>1.039716194799722</v>
       </c>
       <c r="L14">
-        <v>1.031882913926869</v>
+        <v>1.039353934063265</v>
       </c>
       <c r="M14">
-        <v>1.040523430897665</v>
+        <v>1.047312634766216</v>
       </c>
       <c r="N14">
-        <v>1.027281481465735</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.015045718206876</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.047271018708501</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.039221179712827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9968673065622071</v>
+        <v>1.004702439087697</v>
       </c>
       <c r="D15">
-        <v>1.021364571731656</v>
+        <v>1.025528059992271</v>
       </c>
       <c r="E15">
-        <v>1.017802252432022</v>
+        <v>1.025247639686503</v>
       </c>
       <c r="F15">
-        <v>1.026591809519886</v>
+        <v>1.033353387923723</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050449550133972</v>
+        <v>1.051834659202856</v>
       </c>
       <c r="J15">
-        <v>1.026219110851008</v>
+        <v>1.033730977826486</v>
       </c>
       <c r="K15">
-        <v>1.035824770819031</v>
+        <v>1.039914748087711</v>
       </c>
       <c r="L15">
-        <v>1.032325968331393</v>
+        <v>1.03963925460855</v>
       </c>
       <c r="M15">
-        <v>1.040959839839292</v>
+        <v>1.047603983926862</v>
       </c>
       <c r="N15">
-        <v>1.027676459697394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.015128426980696</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.047538639427888</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.039367401746776</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000368966137954</v>
+        <v>1.006942499321868</v>
       </c>
       <c r="D16">
-        <v>1.024003485212727</v>
+        <v>1.026992305726977</v>
       </c>
       <c r="E16">
-        <v>1.020913090868973</v>
+        <v>1.027069650246286</v>
       </c>
       <c r="F16">
-        <v>1.029655779134113</v>
+        <v>1.035042499317033</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051592187974719</v>
+        <v>1.052459761493864</v>
       </c>
       <c r="J16">
-        <v>1.028491214354443</v>
+        <v>1.034807439256609</v>
       </c>
       <c r="K16">
-        <v>1.037917018306602</v>
+        <v>1.040855429465763</v>
       </c>
       <c r="L16">
-        <v>1.034879147348479</v>
+        <v>1.040931474516049</v>
       </c>
       <c r="M16">
-        <v>1.043474298536875</v>
+        <v>1.048771711645764</v>
       </c>
       <c r="N16">
-        <v>1.029951789848417</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.015485713178763</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.048423110303251</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.040035640885189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002535083761737</v>
+        <v>1.008234124120231</v>
       </c>
       <c r="D17">
-        <v>1.025636980333164</v>
+        <v>1.027827231978231</v>
       </c>
       <c r="E17">
-        <v>1.0228396376377</v>
+        <v>1.028061642111265</v>
       </c>
       <c r="F17">
-        <v>1.031553010437826</v>
+        <v>1.035882415166022</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052294982410839</v>
+        <v>1.052783786496314</v>
       </c>
       <c r="J17">
-        <v>1.029896189811345</v>
+        <v>1.035379513574602</v>
       </c>
       <c r="K17">
-        <v>1.039209951745219</v>
+        <v>1.041364328367159</v>
       </c>
       <c r="L17">
-        <v>1.036458715415338</v>
+        <v>1.041594910638574</v>
       </c>
       <c r="M17">
-        <v>1.045029530127728</v>
+        <v>1.049289245815606</v>
       </c>
       <c r="N17">
-        <v>1.031358760531621</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.015662528917702</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.048703911441323</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.040398022414941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003787921458496</v>
+        <v>1.008814116695508</v>
       </c>
       <c r="D18">
-        <v>1.02658211552522</v>
+        <v>1.028178729312867</v>
       </c>
       <c r="E18">
-        <v>1.023954678181842</v>
+        <v>1.028397380025535</v>
       </c>
       <c r="F18">
-        <v>1.032650975589728</v>
+        <v>1.036015636176944</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052699988459753</v>
+        <v>1.052865019820673</v>
       </c>
       <c r="J18">
-        <v>1.030708585539177</v>
+        <v>1.03554822359676</v>
       </c>
       <c r="K18">
-        <v>1.039957257325514</v>
+        <v>1.041528164257633</v>
       </c>
       <c r="L18">
-        <v>1.037372348114155</v>
+        <v>1.041743302476664</v>
       </c>
       <c r="M18">
-        <v>1.045928945705336</v>
+        <v>1.049240360853966</v>
       </c>
       <c r="N18">
-        <v>1.03217230995457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.015690721180253</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.04842916326637</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.040502286769456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004213335025837</v>
+        <v>1.008756117025118</v>
       </c>
       <c r="D19">
-        <v>1.026903103156914</v>
+        <v>1.028105499432411</v>
       </c>
       <c r="E19">
-        <v>1.024333429146387</v>
+        <v>1.028138832511335</v>
       </c>
       <c r="F19">
-        <v>1.033023907734561</v>
+        <v>1.035504316625705</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052837259927155</v>
+        <v>1.052734512305954</v>
       </c>
       <c r="J19">
-        <v>1.030984404826547</v>
+        <v>1.03535964321806</v>
       </c>
       <c r="K19">
-        <v>1.040210925363461</v>
+        <v>1.041394071110122</v>
       </c>
       <c r="L19">
-        <v>1.037682586617713</v>
+        <v>1.041426871344205</v>
       </c>
       <c r="M19">
-        <v>1.046234332367259</v>
+        <v>1.04867569108501</v>
       </c>
       <c r="N19">
-        <v>1.032448520936964</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.015590674498033</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.04765960313398</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.040413839352057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002303785718022</v>
+        <v>1.006903096665455</v>
       </c>
       <c r="D20">
-        <v>1.025462518185491</v>
+        <v>1.02682326345961</v>
       </c>
       <c r="E20">
-        <v>1.022633841014012</v>
+        <v>1.026230429130947</v>
       </c>
       <c r="F20">
-        <v>1.031350356479765</v>
+        <v>1.03324153303118</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052220090664951</v>
+        <v>1.052009123225493</v>
       </c>
       <c r="J20">
-        <v>1.029746188239433</v>
+        <v>1.034170484748969</v>
       </c>
       <c r="K20">
-        <v>1.039071943721024</v>
+        <v>1.040410304512401</v>
       </c>
       <c r="L20">
-        <v>1.036290044191847</v>
+        <v>1.039827213019517</v>
       </c>
       <c r="M20">
-        <v>1.044863472157609</v>
+        <v>1.046724012903819</v>
       </c>
       <c r="N20">
-        <v>1.031208545940272</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.015130196377369</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.045591832954208</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.039722184576251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9959685119809186</v>
+        <v>1.002669699099241</v>
       </c>
       <c r="D21">
-        <v>1.020687584095308</v>
+        <v>1.024040687044594</v>
       </c>
       <c r="E21">
-        <v>1.017004477012664</v>
+        <v>1.022688474261135</v>
       </c>
       <c r="F21">
-        <v>1.025805966590913</v>
+        <v>1.029856064974698</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050155016873332</v>
+        <v>1.050773922669604</v>
       </c>
       <c r="J21">
-        <v>1.02563576044996</v>
+        <v>1.032056223804259</v>
       </c>
       <c r="K21">
-        <v>1.03528734464385</v>
+        <v>1.038580479640864</v>
       </c>
       <c r="L21">
-        <v>1.031670700173287</v>
+        <v>1.037252388818051</v>
       </c>
       <c r="M21">
-        <v>1.040314392738157</v>
+        <v>1.044293053354131</v>
       </c>
       <c r="N21">
-        <v>1.027092280871865</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.014407024243204</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.043627364530116</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.038431651424353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9918823861258892</v>
+        <v>0.9999806274739305</v>
       </c>
       <c r="D22">
-        <v>1.017611797082138</v>
+        <v>1.022275445376789</v>
       </c>
       <c r="E22">
-        <v>1.013381230692004</v>
+        <v>1.02046408631834</v>
       </c>
       <c r="F22">
-        <v>1.022236504948441</v>
+        <v>1.027755928431617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04880994696187</v>
+        <v>1.049986835018039</v>
       </c>
       <c r="J22">
-        <v>1.022983050911578</v>
+        <v>1.030721670705192</v>
       </c>
       <c r="K22">
-        <v>1.032842252498651</v>
+        <v>1.037418170874395</v>
       </c>
       <c r="L22">
-        <v>1.028692183288543</v>
+        <v>1.035640761696045</v>
       </c>
       <c r="M22">
-        <v>1.037379958645577</v>
+        <v>1.042796884264128</v>
       </c>
       <c r="N22">
-        <v>1.024435804181668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.013951935107625</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.042443251156047</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03759641432595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9940586369369419</v>
+        <v>1.001402464288851</v>
       </c>
       <c r="D23">
-        <v>1.0192495410788</v>
+        <v>1.02320254393098</v>
       </c>
       <c r="E23">
-        <v>1.015310214982486</v>
+        <v>1.021638912968464</v>
       </c>
       <c r="F23">
-        <v>1.024136935678214</v>
+        <v>1.028866261037061</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049527536745335</v>
+        <v>1.050400054877031</v>
       </c>
       <c r="J23">
-        <v>1.024395998348256</v>
+        <v>1.031423570189691</v>
       </c>
       <c r="K23">
-        <v>1.034144856677418</v>
+        <v>1.03802544958935</v>
       </c>
       <c r="L23">
-        <v>1.030278421719385</v>
+        <v>1.03649037353573</v>
       </c>
       <c r="M23">
-        <v>1.038942831699993</v>
+        <v>1.043586680356538</v>
       </c>
       <c r="N23">
-        <v>1.025850758165774</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.014189937814379</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.043068319860769</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.038016193159818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002408332097654</v>
+        <v>1.006911635277203</v>
       </c>
       <c r="D24">
-        <v>1.025541373727826</v>
+        <v>1.026814101073192</v>
       </c>
       <c r="E24">
-        <v>1.022726858419684</v>
+        <v>1.026206717278255</v>
       </c>
       <c r="F24">
-        <v>1.031441953778013</v>
+        <v>1.033184645436289</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052253946207296</v>
+        <v>1.051989439890071</v>
       </c>
       <c r="J24">
-        <v>1.029813989397043</v>
+        <v>1.034146199055775</v>
       </c>
       <c r="K24">
-        <v>1.039134324704961</v>
+        <v>1.040386144096451</v>
       </c>
       <c r="L24">
-        <v>1.036366283210962</v>
+        <v>1.039788729886752</v>
       </c>
       <c r="M24">
-        <v>1.044938530429291</v>
+        <v>1.046653028923199</v>
       </c>
       <c r="N24">
-        <v>1.031276443383302</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.015115474858047</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.045495116516389</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.039677837893205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.011684015899154</v>
+        <v>1.013104263251579</v>
       </c>
       <c r="D25">
-        <v>1.032544367055771</v>
+        <v>1.030892128155515</v>
       </c>
       <c r="E25">
-        <v>1.030995272268749</v>
+        <v>1.031369865931868</v>
       </c>
       <c r="F25">
-        <v>1.039581708984902</v>
+        <v>1.038072777086849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055225691578039</v>
+        <v>1.053738074026188</v>
       </c>
       <c r="J25">
-        <v>1.035824464344032</v>
+        <v>1.037198523850569</v>
       </c>
       <c r="K25">
-        <v>1.044657638977423</v>
+        <v>1.043029090474887</v>
       </c>
       <c r="L25">
-        <v>1.04313075285661</v>
+        <v>1.043499968397206</v>
       </c>
       <c r="M25">
-        <v>1.051595142623333</v>
+        <v>1.050107473744251</v>
       </c>
       <c r="N25">
-        <v>1.037295453894128</v>
+        <v>1.016153136894042</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.048229054128566</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04154367117087</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_16/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017869183707781</v>
+        <v>1.016984014666432</v>
       </c>
       <c r="D2">
-        <v>1.034025780489827</v>
+        <v>1.03247001037094</v>
       </c>
       <c r="E2">
-        <v>1.035362619321041</v>
+        <v>1.034554138921094</v>
       </c>
       <c r="F2">
-        <v>1.041861869505851</v>
+        <v>1.041212494403393</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.055040417739403</v>
+        <v>1.054233649457907</v>
       </c>
       <c r="J2">
-        <v>1.039528257268994</v>
+        <v>1.03866833772544</v>
       </c>
       <c r="K2">
-        <v>1.045030592527966</v>
+        <v>1.043494787150441</v>
       </c>
       <c r="L2">
-        <v>1.046350335985652</v>
+        <v>1.045552187760947</v>
       </c>
       <c r="M2">
-        <v>1.052767254122965</v>
+        <v>1.052126047601335</v>
       </c>
       <c r="N2">
-        <v>1.016941655813237</v>
+        <v>1.017358870932473</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.050334066726105</v>
+        <v>1.049826601384786</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.042910807540975</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.041833597644949</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023588215693862</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.021261092241923</v>
+        <v>1.020259717332464</v>
       </c>
       <c r="D3">
-        <v>1.03627330893882</v>
+        <v>1.034558232230684</v>
       </c>
       <c r="E3">
-        <v>1.038217782847242</v>
+        <v>1.037302989492643</v>
       </c>
       <c r="F3">
-        <v>1.044572207000244</v>
+        <v>1.043839757767295</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.05595515433721</v>
+        <v>1.055058131792864</v>
       </c>
       <c r="J3">
-        <v>1.041188473684392</v>
+        <v>1.040212915981237</v>
       </c>
       <c r="K3">
-        <v>1.046462185272667</v>
+        <v>1.044767233582042</v>
       </c>
       <c r="L3">
-        <v>1.048383941840034</v>
+        <v>1.04747982291814</v>
       </c>
       <c r="M3">
-        <v>1.054664855373776</v>
+        <v>1.053940823064024</v>
       </c>
       <c r="N3">
-        <v>1.017505575562487</v>
+        <v>1.017774696381095</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.051835869250428</v>
+        <v>1.051262854832383</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.043920406024711</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.042730392538116</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023830407935058</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023420102941773</v>
+        <v>1.022345421214769</v>
       </c>
       <c r="D4">
-        <v>1.037707294009242</v>
+        <v>1.035891245246171</v>
       </c>
       <c r="E4">
-        <v>1.040040553288818</v>
+        <v>1.039058605447254</v>
       </c>
       <c r="F4">
-        <v>1.046303785622364</v>
+        <v>1.045518881166528</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.056528679761714</v>
+        <v>1.05557437406935</v>
       </c>
       <c r="J4">
-        <v>1.042243117812405</v>
+        <v>1.041194300212926</v>
       </c>
       <c r="K4">
-        <v>1.047370967297433</v>
+        <v>1.045574964605257</v>
       </c>
       <c r="L4">
-        <v>1.049678597583549</v>
+        <v>1.048707418425657</v>
       </c>
       <c r="M4">
-        <v>1.055873726454616</v>
+        <v>1.055097301839631</v>
       </c>
       <c r="N4">
-        <v>1.017863826950584</v>
+        <v>1.018038973350762</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.052792594308654</v>
+        <v>1.052178116282209</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.044563874970112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043302494246927</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023981835911606</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.024322195634707</v>
+        <v>1.023216994784659</v>
       </c>
       <c r="D5">
-        <v>1.03830931516427</v>
+        <v>1.036451198452043</v>
       </c>
       <c r="E5">
-        <v>1.040803608695966</v>
+        <v>1.039793685625518</v>
       </c>
       <c r="F5">
-        <v>1.0470285300284</v>
+        <v>1.046221779646682</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.056767610026975</v>
+        <v>1.055789404866456</v>
       </c>
       <c r="J5">
-        <v>1.042684607543042</v>
+        <v>1.041605223735473</v>
       </c>
       <c r="K5">
-        <v>1.047752786326382</v>
+        <v>1.045914642749262</v>
       </c>
       <c r="L5">
-        <v>1.050220405666791</v>
+        <v>1.049221263918823</v>
       </c>
       <c r="M5">
-        <v>1.056379434956083</v>
+        <v>1.055581170114142</v>
       </c>
       <c r="N5">
-        <v>1.018014171835473</v>
+        <v>1.018149928459907</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.053192821898911</v>
+        <v>1.05256105940684</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04484097366364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043550508751016</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024045451954671</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024476566390032</v>
+        <v>1.023366102481055</v>
       </c>
       <c r="D6">
-        <v>1.038414903361785</v>
+        <v>1.036549618840562</v>
       </c>
       <c r="E6">
-        <v>1.040934475708104</v>
+        <v>1.039919729312201</v>
       </c>
       <c r="F6">
-        <v>1.047152314322538</v>
+        <v>1.046341799702824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.056810099631561</v>
+        <v>1.055827802969659</v>
       </c>
       <c r="J6">
-        <v>1.042761778287102</v>
+        <v>1.041677123181017</v>
       </c>
       <c r="K6">
-        <v>1.047821387302407</v>
+        <v>1.045976062558094</v>
       </c>
       <c r="L6">
-        <v>1.050314137557071</v>
+        <v>1.049310174502988</v>
       </c>
       <c r="M6">
-        <v>1.056466459153743</v>
+        <v>1.055664430943156</v>
       </c>
       <c r="N6">
-        <v>1.018040903083672</v>
+        <v>1.018169684423081</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.05326169452809</v>
+        <v>1.052626953688807</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044898167376141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.04360349502395</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024057526381245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023441290972805</v>
+        <v>1.022372637732783</v>
       </c>
       <c r="D7">
-        <v>1.037728168241979</v>
+        <v>1.035916180840836</v>
       </c>
       <c r="E7">
-        <v>1.0400590447595</v>
+        <v>1.039082526709541</v>
       </c>
       <c r="F7">
-        <v>1.046319923581583</v>
+        <v>1.045539196631469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.056538921750572</v>
+        <v>1.055587720519705</v>
       </c>
       <c r="J7">
-        <v>1.042257918048324</v>
+        <v>1.041214972861356</v>
       </c>
       <c r="K7">
-        <v>1.047388755640341</v>
+        <v>1.045596761736738</v>
       </c>
       <c r="L7">
-        <v>1.049694039045248</v>
+        <v>1.048728226034122</v>
       </c>
       <c r="M7">
-        <v>1.055886865388878</v>
+        <v>1.055114569986322</v>
       </c>
       <c r="N7">
-        <v>1.017870094424578</v>
+        <v>1.018071352450318</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.052802992720668</v>
+        <v>1.052191782645601</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.044596434816914</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043339890367408</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02398819246346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.019034370411422</v>
+        <v>1.018130093638543</v>
       </c>
       <c r="D8">
-        <v>1.034805408472996</v>
+        <v>1.033210213106543</v>
       </c>
       <c r="E8">
-        <v>1.036343022938452</v>
+        <v>1.035516791128207</v>
       </c>
       <c r="F8">
-        <v>1.042790502925133</v>
+        <v>1.04212705537788</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.055362068197797</v>
+        <v>1.054535514604007</v>
       </c>
       <c r="J8">
-        <v>1.040104474063943</v>
+        <v>1.039225140532033</v>
       </c>
       <c r="K8">
-        <v>1.045533687205908</v>
+        <v>1.043958364167282</v>
       </c>
       <c r="L8">
-        <v>1.047052218769221</v>
+        <v>1.046236232316921</v>
       </c>
       <c r="M8">
-        <v>1.053420442644379</v>
+        <v>1.052765094296443</v>
       </c>
       <c r="N8">
-        <v>1.017138974658481</v>
+        <v>1.017588639760444</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.050851014538526</v>
+        <v>1.050332357391132</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.043289300907102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042186419772164</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023680898075995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01096962710324</v>
+        <v>1.010349062623845</v>
       </c>
       <c r="D9">
-        <v>1.029474289592484</v>
+        <v>1.028262688191882</v>
       </c>
       <c r="E9">
-        <v>1.029585606795832</v>
+        <v>1.029018221946723</v>
       </c>
       <c r="F9">
-        <v>1.036384870447624</v>
+        <v>1.035923829530605</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.053133646710979</v>
+        <v>1.052524349184289</v>
       </c>
       <c r="J9">
-        <v>1.036140878795613</v>
+        <v>1.035541588220977</v>
       </c>
       <c r="K9">
-        <v>1.04210660513987</v>
+        <v>1.040913281095409</v>
       </c>
       <c r="L9">
-        <v>1.04221624583843</v>
+        <v>1.041657410973137</v>
       </c>
       <c r="M9">
-        <v>1.048913976237266</v>
+        <v>1.048459766494029</v>
       </c>
       <c r="N9">
-        <v>1.01579147521969</v>
+        <v>1.016605906311713</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.047284490258595</v>
+        <v>1.046925016955363</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.040862999540771</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.040029930467655</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023086866932004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.005449708081822</v>
+        <v>1.00505560370157</v>
       </c>
       <c r="D10">
-        <v>1.025855364969196</v>
+        <v>1.024928663285365</v>
       </c>
       <c r="E10">
-        <v>1.025029620471006</v>
+        <v>1.024667729878144</v>
       </c>
       <c r="F10">
-        <v>1.032118632454539</v>
+        <v>1.031818306168713</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05158706087842</v>
+        <v>1.051142210850421</v>
       </c>
       <c r="J10">
-        <v>1.033448761973631</v>
+        <v>1.033070063803542</v>
       </c>
       <c r="K10">
-        <v>1.039772974356221</v>
+        <v>1.038861952272026</v>
       </c>
       <c r="L10">
-        <v>1.038961199507205</v>
+        <v>1.038605440408321</v>
       </c>
       <c r="M10">
-        <v>1.045931219473996</v>
+        <v>1.045635891568932</v>
       </c>
       <c r="N10">
-        <v>1.014882715229331</v>
+        <v>1.016062206928468</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.044974892502409</v>
+        <v>1.044741176016557</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.039229717536686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.038597930111908</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022682971384075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.003506086076951</v>
+        <v>1.003219877631768</v>
       </c>
       <c r="D11">
-        <v>1.024648543152231</v>
+        <v>1.023837391678022</v>
       </c>
       <c r="E11">
-        <v>1.023736355669064</v>
+        <v>1.023471953450717</v>
       </c>
       <c r="F11">
-        <v>1.031277283071585</v>
+        <v>1.031053569701104</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.051202564948714</v>
+        <v>1.050829071084214</v>
       </c>
       <c r="J11">
-        <v>1.032733731679132</v>
+        <v>1.032459316714432</v>
       </c>
       <c r="K11">
-        <v>1.039120127702023</v>
+        <v>1.038323348402024</v>
       </c>
       <c r="L11">
-        <v>1.038224104642636</v>
+        <v>1.037964394754424</v>
       </c>
       <c r="M11">
-        <v>1.045632514997111</v>
+        <v>1.045412696828925</v>
       </c>
       <c r="N11">
-        <v>1.01469153425567</v>
+        <v>1.016162333855939</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.045171367584006</v>
+        <v>1.04499749413666</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.038800807436488</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.038253011568707</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.02261770736603</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.002954522306038</v>
+        <v>1.00269712465642</v>
       </c>
       <c r="D12">
-        <v>1.024327996628844</v>
+        <v>1.023545698606623</v>
       </c>
       <c r="E12">
-        <v>1.023506283188889</v>
+        <v>1.023267915098431</v>
       </c>
       <c r="F12">
-        <v>1.031334532902462</v>
+        <v>1.03113155736579</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.051164589327444</v>
+        <v>1.050809737143951</v>
       </c>
       <c r="J12">
-        <v>1.03263436566238</v>
+        <v>1.032387774336319</v>
       </c>
       <c r="K12">
-        <v>1.039003495354128</v>
+        <v>1.038235288049711</v>
       </c>
       <c r="L12">
-        <v>1.038196583321661</v>
+        <v>1.037962514704244</v>
       </c>
       <c r="M12">
-        <v>1.045885066304454</v>
+        <v>1.045685679964111</v>
       </c>
       <c r="N12">
-        <v>1.014696809392274</v>
+        <v>1.016271271127388</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.045695196682465</v>
+        <v>1.045537537187182</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.038718345384564</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.038190751855021</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.022628475807925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.00344930909827</v>
+        <v>1.003151993580725</v>
       </c>
       <c r="D13">
-        <v>1.024683170713093</v>
+        <v>1.023857866418507</v>
       </c>
       <c r="E13">
-        <v>1.024092168795579</v>
+        <v>1.02381796221472</v>
       </c>
       <c r="F13">
-        <v>1.032107527746411</v>
+        <v>1.03187706456292</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.051404354895273</v>
+        <v>1.051023739354757</v>
       </c>
       <c r="J13">
-        <v>1.033016312101801</v>
+        <v>1.032731416409149</v>
       </c>
       <c r="K13">
-        <v>1.039309781559841</v>
+        <v>1.038499280458848</v>
       </c>
       <c r="L13">
-        <v>1.038729377085512</v>
+        <v>1.038460092788644</v>
       </c>
       <c r="M13">
-        <v>1.04660235014864</v>
+        <v>1.046375940907036</v>
       </c>
       <c r="N13">
-        <v>1.014860112235185</v>
+        <v>1.016363559456584</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.046537224683483</v>
+        <v>1.046358241966351</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.038932417888989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038374675249675</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02270327360263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.004269079482781</v>
+        <v>1.003913599796016</v>
       </c>
       <c r="D14">
-        <v>1.025238681738773</v>
+        <v>1.024351522157403</v>
       </c>
       <c r="E14">
-        <v>1.0248698916034</v>
+        <v>1.024543393863482</v>
       </c>
       <c r="F14">
-        <v>1.032970625753156</v>
+        <v>1.032699744940619</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.051697545863036</v>
+        <v>1.051279295076622</v>
       </c>
       <c r="J14">
-        <v>1.033500733809825</v>
+        <v>1.033159892681557</v>
       </c>
       <c r="K14">
-        <v>1.039716194799722</v>
+        <v>1.038844752618103</v>
       </c>
       <c r="L14">
-        <v>1.039353934063265</v>
+        <v>1.039033222028271</v>
       </c>
       <c r="M14">
-        <v>1.047312634766216</v>
+        <v>1.047046456808675</v>
       </c>
       <c r="N14">
-        <v>1.015045718206876</v>
+        <v>1.016421877510389</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.047271018708501</v>
+        <v>1.047060625845132</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.039221179712827</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.038620484191091</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.022785118715123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.004702439087697</v>
+        <v>1.004318262516479</v>
       </c>
       <c r="D15">
-        <v>1.025528059992271</v>
+        <v>1.024610362033411</v>
       </c>
       <c r="E15">
-        <v>1.025247639686503</v>
+        <v>1.024895313191663</v>
       </c>
       <c r="F15">
-        <v>1.033353387923723</v>
+        <v>1.033062473367455</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.051834659202856</v>
+        <v>1.05139774068316</v>
       </c>
       <c r="J15">
-        <v>1.033730977826486</v>
+        <v>1.033362484879278</v>
       </c>
       <c r="K15">
-        <v>1.039914748087711</v>
+        <v>1.039013186564613</v>
       </c>
       <c r="L15">
-        <v>1.03963925460855</v>
+        <v>1.039293123245351</v>
       </c>
       <c r="M15">
-        <v>1.047603983926862</v>
+        <v>1.047318081016609</v>
       </c>
       <c r="N15">
-        <v>1.015128426980696</v>
+        <v>1.016437789847805</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.047538639427888</v>
+        <v>1.047312661428805</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.039367401746776</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.038745980560644</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.022821476052761</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006942499321868</v>
+        <v>1.006425785157109</v>
       </c>
       <c r="D16">
-        <v>1.026992305726977</v>
+        <v>1.025930404379711</v>
       </c>
       <c r="E16">
-        <v>1.027069650246286</v>
+        <v>1.026597755080379</v>
       </c>
       <c r="F16">
-        <v>1.035042499317033</v>
+        <v>1.034658472975934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052459761493864</v>
+        <v>1.051934991645356</v>
       </c>
       <c r="J16">
-        <v>1.034807439256609</v>
+        <v>1.034310778932547</v>
       </c>
       <c r="K16">
-        <v>1.040855429465763</v>
+        <v>1.039811394727158</v>
       </c>
       <c r="L16">
-        <v>1.040931474516049</v>
+        <v>1.040467511613046</v>
       </c>
       <c r="M16">
-        <v>1.048771711645764</v>
+        <v>1.048394012516882</v>
       </c>
       <c r="N16">
-        <v>1.015485713178763</v>
+        <v>1.016481035639168</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.048423110303251</v>
+        <v>1.048124568004903</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.040035640885189</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.039313786747234</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.022975187691371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.008234124120231</v>
+        <v>1.007653317535575</v>
       </c>
       <c r="D17">
-        <v>1.027827231978231</v>
+        <v>1.026692078303795</v>
       </c>
       <c r="E17">
-        <v>1.028061642111265</v>
+        <v>1.027531712407816</v>
       </c>
       <c r="F17">
-        <v>1.035882415166022</v>
+        <v>1.035452970559588</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.052783786496314</v>
+        <v>1.052214973981721</v>
       </c>
       <c r="J17">
-        <v>1.035379513574602</v>
+        <v>1.03482053408377</v>
       </c>
       <c r="K17">
-        <v>1.041364328367159</v>
+        <v>1.040247743271568</v>
       </c>
       <c r="L17">
-        <v>1.041594910638574</v>
+        <v>1.041073637759796</v>
       </c>
       <c r="M17">
-        <v>1.049289245815606</v>
+        <v>1.048866680452249</v>
       </c>
       <c r="N17">
-        <v>1.015662528917702</v>
+        <v>1.01651219585398</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.048703911441323</v>
+        <v>1.04836987286913</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.040398022414941</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.039625120892179</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023050920431313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.008814116695508</v>
+        <v>1.008213901311573</v>
       </c>
       <c r="D18">
-        <v>1.028178729312867</v>
+        <v>1.027019260273574</v>
       </c>
       <c r="E18">
-        <v>1.028397380025535</v>
+        <v>1.02784966687058</v>
       </c>
       <c r="F18">
-        <v>1.036015636176944</v>
+        <v>1.035571898068608</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052865019820673</v>
+        <v>1.052281737691081</v>
       </c>
       <c r="J18">
-        <v>1.03554822359676</v>
+        <v>1.034970148929431</v>
       </c>
       <c r="K18">
-        <v>1.041528164257633</v>
+        <v>1.040387353470816</v>
       </c>
       <c r="L18">
-        <v>1.041743302476664</v>
+        <v>1.041204391621512</v>
       </c>
       <c r="M18">
-        <v>1.049240360853966</v>
+        <v>1.048803619505402</v>
       </c>
       <c r="N18">
-        <v>1.015690721180253</v>
+        <v>1.016491266180704</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.04842916326637</v>
+        <v>1.048083847498566</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.040502286769456</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.039711120490755</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02305865579463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.008756117025118</v>
+        <v>1.008171317454039</v>
       </c>
       <c r="D19">
-        <v>1.028105499432411</v>
+        <v>1.026962165472167</v>
       </c>
       <c r="E19">
-        <v>1.028138832511335</v>
+        <v>1.027604791855817</v>
       </c>
       <c r="F19">
-        <v>1.035504316625705</v>
+        <v>1.035070645780641</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052734512305954</v>
+        <v>1.052160691163706</v>
       </c>
       <c r="J19">
-        <v>1.03535964321806</v>
+        <v>1.034796292852423</v>
       </c>
       <c r="K19">
-        <v>1.041394071110122</v>
+        <v>1.040269040732927</v>
       </c>
       <c r="L19">
-        <v>1.041426871344205</v>
+        <v>1.040901372911628</v>
       </c>
       <c r="M19">
-        <v>1.04867569108501</v>
+        <v>1.048248830437882</v>
       </c>
       <c r="N19">
-        <v>1.015590674498033</v>
+        <v>1.016407854549665</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.04765960313398</v>
+        <v>1.04732199101183</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.040413839352057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.039634455838026</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023009020813432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.006903096665455</v>
+        <v>1.006429286392155</v>
       </c>
       <c r="D20">
-        <v>1.02682326345961</v>
+        <v>1.025807363933779</v>
       </c>
       <c r="E20">
-        <v>1.026230429130947</v>
+        <v>1.025796483622581</v>
       </c>
       <c r="F20">
-        <v>1.03324153303118</v>
+        <v>1.032885014834731</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052009123225493</v>
+        <v>1.051510541923764</v>
       </c>
       <c r="J20">
-        <v>1.034170484748969</v>
+        <v>1.033714599912712</v>
       </c>
       <c r="K20">
-        <v>1.040410304512401</v>
+        <v>1.039411109473439</v>
       </c>
       <c r="L20">
-        <v>1.039827213019517</v>
+        <v>1.039400408298103</v>
       </c>
       <c r="M20">
-        <v>1.046724012903819</v>
+        <v>1.046373259049536</v>
       </c>
       <c r="N20">
-        <v>1.015130196377369</v>
+        <v>1.01613881438</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.045591832954208</v>
+        <v>1.045314250225118</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.039722184576251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.039032161212933</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022794279441282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.002669699099241</v>
+        <v>1.002467979925826</v>
       </c>
       <c r="D21">
-        <v>1.024040687044594</v>
+        <v>1.023315448393911</v>
       </c>
       <c r="E21">
-        <v>1.022688474261135</v>
+        <v>1.022500025670504</v>
       </c>
       <c r="F21">
-        <v>1.029856064974698</v>
+        <v>1.02969081105075</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050773922669604</v>
+        <v>1.050453326352479</v>
       </c>
       <c r="J21">
-        <v>1.032056223804259</v>
+        <v>1.03186287708934</v>
       </c>
       <c r="K21">
-        <v>1.038580479640864</v>
+        <v>1.037868168143824</v>
       </c>
       <c r="L21">
-        <v>1.037252388818051</v>
+        <v>1.0370673085169</v>
       </c>
       <c r="M21">
-        <v>1.044293053354131</v>
+        <v>1.044130700014671</v>
       </c>
       <c r="N21">
-        <v>1.014407024243204</v>
+        <v>1.016055684085652</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.043627364530116</v>
+        <v>1.043498873290415</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.038431651424353</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.037944792076916</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.022487238227175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9999806274739305</v>
+        <v>0.9999506775744236</v>
       </c>
       <c r="D22">
-        <v>1.022275445376789</v>
+        <v>1.021733591511735</v>
       </c>
       <c r="E22">
-        <v>1.02046408631834</v>
+        <v>1.020430288907764</v>
       </c>
       <c r="F22">
-        <v>1.027755928431617</v>
+        <v>1.027711370898401</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.049986835018039</v>
+        <v>1.04977822398675</v>
       </c>
       <c r="J22">
-        <v>1.030721670705192</v>
+        <v>1.030693035466211</v>
       </c>
       <c r="K22">
-        <v>1.037418170874395</v>
+        <v>1.036886456376082</v>
       </c>
       <c r="L22">
-        <v>1.035640761696045</v>
+        <v>1.035607599238395</v>
       </c>
       <c r="M22">
-        <v>1.042796884264128</v>
+        <v>1.042753148437152</v>
       </c>
       <c r="N22">
-        <v>1.013951935107625</v>
+        <v>1.015998659075524</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.042443251156047</v>
+        <v>1.042408637273561</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03759641432595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.037235942378222</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.022290560247795</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.001402464288851</v>
+        <v>1.001270675316926</v>
       </c>
       <c r="D23">
-        <v>1.02320254393098</v>
+        <v>1.022555582282595</v>
       </c>
       <c r="E23">
-        <v>1.021638912968464</v>
+        <v>1.021513504125516</v>
       </c>
       <c r="F23">
-        <v>1.028866261037061</v>
+        <v>1.028750242767609</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.050400054877031</v>
+        <v>1.050126381756461</v>
       </c>
       <c r="J23">
-        <v>1.031423570189691</v>
+        <v>1.031297398334085</v>
       </c>
       <c r="K23">
-        <v>1.03802544958935</v>
+        <v>1.037390288918081</v>
       </c>
       <c r="L23">
-        <v>1.03649037353573</v>
+        <v>1.036367259830314</v>
       </c>
       <c r="M23">
-        <v>1.043586680356538</v>
+        <v>1.043472746755377</v>
       </c>
       <c r="N23">
-        <v>1.014189937814379</v>
+        <v>1.015983949848517</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.043068319860769</v>
+        <v>1.042978149368683</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.038016193159818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.037581637543717</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02238926117681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.006911635277203</v>
+        <v>1.006439126663628</v>
       </c>
       <c r="D24">
-        <v>1.026814101073192</v>
+        <v>1.025799247245555</v>
       </c>
       <c r="E24">
-        <v>1.026206717278255</v>
+        <v>1.02577391878987</v>
       </c>
       <c r="F24">
-        <v>1.033184645436289</v>
+        <v>1.032828946256792</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.051989439890071</v>
+        <v>1.051491529460607</v>
       </c>
       <c r="J24">
-        <v>1.034146199055775</v>
+        <v>1.03369154111394</v>
       </c>
       <c r="K24">
-        <v>1.040386144096451</v>
+        <v>1.039387956569329</v>
       </c>
       <c r="L24">
-        <v>1.039788729886752</v>
+        <v>1.039363044609312</v>
       </c>
       <c r="M24">
-        <v>1.046653028923199</v>
+        <v>1.04630307430504</v>
       </c>
       <c r="N24">
-        <v>1.015115474858047</v>
+        <v>1.016124055921461</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.045495116516389</v>
+        <v>1.045218152749643</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.039677837893205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.038985851297557</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022783860094738</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.013104263251579</v>
+        <v>1.012399157946018</v>
       </c>
       <c r="D25">
-        <v>1.030892128155515</v>
+        <v>1.029572459722209</v>
       </c>
       <c r="E25">
-        <v>1.031369865931868</v>
+        <v>1.030725580170291</v>
       </c>
       <c r="F25">
-        <v>1.038072777086849</v>
+        <v>1.037551662425852</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.053738074026188</v>
+        <v>1.053066533765994</v>
       </c>
       <c r="J25">
-        <v>1.037198523850569</v>
+        <v>1.036516326788739</v>
       </c>
       <c r="K25">
-        <v>1.043029090474887</v>
+        <v>1.04172841311711</v>
       </c>
       <c r="L25">
-        <v>1.043499968397206</v>
+        <v>1.042864935851393</v>
       </c>
       <c r="M25">
-        <v>1.050107473744251</v>
+        <v>1.049593720498682</v>
       </c>
       <c r="N25">
-        <v>1.016153136894042</v>
+        <v>1.016837019795902</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.048229054128566</v>
+        <v>1.047822457068551</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04154367117087</v>
+        <v>1.040637505418521</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023249640601384</v>
       </c>
     </row>
   </sheetData>
